--- a/inputdata/processed/tables/taxa_table.xlsx
+++ b/inputdata/processed/tables/taxa_table.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Family_microbiome\inputdata\processed\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351A99A-F3BC-4481-A274-3BCD98214C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8510,7 +8516,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9117,6 +9123,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -9164,7 +9173,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9197,9 +9206,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -9232,6 +9258,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -9407,11 +9450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14578,7 +14621,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>1854</v>
       </c>
@@ -32762,1271 +32805,1271 @@
       <c r="F1026" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="G2:CA1010">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G2:CA1010">
     <sortCondition ref="G2:G1010"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F509" r:id="rId1" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D418" r:id="rId2" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E418" r:id="rId3" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F418" r:id="rId4" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F372" r:id="rId5" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E372" r:id="rId6" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D372" r:id="rId7" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C372" r:id="rId8" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C350" r:id="rId9" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F537" r:id="rId10" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903410&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F516" r:id="rId11" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E513" r:id="rId12" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D513" r:id="rId13" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F513" r:id="rId14" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F510" r:id="rId15" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F508" r:id="rId16" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F505" r:id="rId17" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F502" r:id="rId18" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F500" r:id="rId19" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D500" r:id="rId20" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C500" r:id="rId21" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E500" r:id="rId22" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C500:D500" r:id="rId23" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F494" r:id="rId24" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D494" r:id="rId25" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C494" r:id="rId26" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E494" r:id="rId27" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C494:D494" r:id="rId28" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F485" r:id="rId29" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=506&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F480" r:id="rId30" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=90964&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E478" r:id="rId31" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85013&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F476" r:id="rId32" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F475" r:id="rId33" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85017&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F473" r:id="rId34" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F469" r:id="rId35" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F455" r:id="rId36" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E453" r:id="rId37" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D453" r:id="rId38" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F453" r:id="rId39" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31984&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F595" r:id="rId40" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543314&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D529" r:id="rId41" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C529" r:id="rId42" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E528" r:id="rId43" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D528" r:id="rId44" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C528" r:id="rId45" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F527" r:id="rId46" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E527" r:id="rId47" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D527" r:id="rId48" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C527" r:id="rId49" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F512" r:id="rId50" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E512" r:id="rId51" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D512" r:id="rId52" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F511" r:id="rId53" tooltip="Lactobacillaceae" display="https://it.wikipedia.org/wiki/Lactobacillaceae"/>
-    <hyperlink ref="E511" r:id="rId54" tooltip="Lactobacillales" display="https://it.wikipedia.org/wiki/Lactobacillales"/>
-    <hyperlink ref="D511" r:id="rId55" tooltip="Bacilli" display="https://it.wikipedia.org/wiki/Bacilli"/>
-    <hyperlink ref="F496" r:id="rId56" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E496" r:id="rId57" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C496:D496" r:id="rId58" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F492" r:id="rId59" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D492" r:id="rId60" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C492" r:id="rId61" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E492" r:id="rId62" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C492:D492" r:id="rId63" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D542" r:id="rId64" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C542" r:id="rId65" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F542" r:id="rId66" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31957&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E542" r:id="rId67" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85009&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E552" r:id="rId68" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D552" r:id="rId69" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C552" r:id="rId70" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D547" r:id="rId71" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C547" r:id="rId72" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E546" r:id="rId73" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D546" r:id="rId74" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C546" r:id="rId75" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F543" r:id="rId76" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E543" r:id="rId77" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D543" r:id="rId78" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C543" r:id="rId79" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F545" r:id="rId80" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E545" r:id="rId81" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D545" r:id="rId82" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C545" r:id="rId83" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F984" r:id="rId84" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F624" r:id="rId85" tooltip="family"/>
-    <hyperlink ref="E624" r:id="rId86" tooltip="order"/>
-    <hyperlink ref="D624" r:id="rId87" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="F925" r:id="rId88" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E925" r:id="rId89" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D925" r:id="rId90" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F920" r:id="rId91" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2008794&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E920" r:id="rId92" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206389&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D920" r:id="rId93" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F919" r:id="rId94" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E919" r:id="rId95" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D919" r:id="rId96" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F914" r:id="rId97" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E914" r:id="rId98" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D914" r:id="rId99" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C914" r:id="rId100" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F913" r:id="rId101" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E913" r:id="rId102" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D913" r:id="rId103" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C913" r:id="rId104" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F909" r:id="rId105" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E909" r:id="rId106" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D909" r:id="rId107" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C909" r:id="rId108" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F897" r:id="rId109" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E897" r:id="rId110" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D897" r:id="rId111" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C897" r:id="rId112" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F898" r:id="rId113" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E898" r:id="rId114" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D898" r:id="rId115" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C898" r:id="rId116" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F967" r:id="rId117" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E967" r:id="rId118" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D967" r:id="rId119" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C967" r:id="rId120" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F980" r:id="rId121" display="https://en.wikipedia.org/wiki/Veillonellaceae"/>
-    <hyperlink ref="E980" r:id="rId122" tooltip="Vellionellales (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Vellionellales&amp;action=edit&amp;redlink=1"/>
-    <hyperlink ref="D980" r:id="rId123" tooltip="Negativicutes" display="https://en.wikipedia.org/wiki/Negativicutes"/>
-    <hyperlink ref="C980" r:id="rId124" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F978" r:id="rId125" tooltip="genus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2737&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E978" r:id="rId126" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D978" r:id="rId127" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C978" r:id="rId128" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F976" r:id="rId129" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E976" r:id="rId130" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D976" r:id="rId131" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C976" r:id="rId132" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F975" r:id="rId133" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706371&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E975" r:id="rId134" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706369&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D975" r:id="rId135" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C975" r:id="rId136" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F974" r:id="rId137" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E974" r:id="rId138" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D974" r:id="rId139" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C974" r:id="rId140" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F960" r:id="rId141" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E960" r:id="rId142" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D960" r:id="rId143" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F961" r:id="rId144" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135617&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E961" r:id="rId145" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72273&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D961" r:id="rId146" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F964" r:id="rId147" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84642&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E964" r:id="rId148" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135624&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D964" r:id="rId149" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F965" r:id="rId150" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E965" r:id="rId151" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D965" r:id="rId152" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F966" r:id="rId153" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=137&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E966" r:id="rId154" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=136&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D966" r:id="rId155" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=203692&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C966" r:id="rId156" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=203691&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F790" r:id="rId157" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E790" r:id="rId158" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D790" r:id="rId159" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C790" r:id="rId160" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F776" r:id="rId161" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85025&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E776" r:id="rId162" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D776" r:id="rId163" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C776" r:id="rId164" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F775" r:id="rId165" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E775" r:id="rId166" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D775" r:id="rId167" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C775" r:id="rId168" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F773" r:id="rId169" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=82115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E773" r:id="rId170" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D773" r:id="rId171" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C773" r:id="rId172" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F771" r:id="rId173" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E771" r:id="rId174" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D771" r:id="rId175" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C771" r:id="rId176" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D769" r:id="rId177" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C769" r:id="rId178" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F769" r:id="rId179" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=255527&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E769" r:id="rId180" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F768" r:id="rId181" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E768" r:id="rId182" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D768" r:id="rId183" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C768" r:id="rId184" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F767" r:id="rId185" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145359&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E767" r:id="rId186" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D767" r:id="rId187" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C767" r:id="rId188" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F765" r:id="rId189" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80864&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E765" r:id="rId190" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80840&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D765" r:id="rId191" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C765" r:id="rId192" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F764" r:id="rId193" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E764" r:id="rId194" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80840&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D764" r:id="rId195" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C764" r:id="rId196" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F760" r:id="rId197" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186821&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E760" r:id="rId198" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D760" r:id="rId199" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C760" r:id="rId200" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F755" r:id="rId201" display="https://en.wikipedia.org/wiki/Bacillaceae"/>
-    <hyperlink ref="E755" r:id="rId202" display="https://en.wikipedia.org/wiki/Bacillales"/>
-    <hyperlink ref="D755" r:id="rId203" display="https://en.wikipedia.org/wiki/Bacilli"/>
-    <hyperlink ref="C755" r:id="rId204" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F756" r:id="rId205" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=468&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E756" r:id="rId206" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72274&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D756" r:id="rId207" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C756" r:id="rId208" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F748" r:id="rId209" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2070&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E748" r:id="rId210" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85010&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D748" r:id="rId211" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C748" r:id="rId212" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F985" r:id="rId213" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=481&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E985" r:id="rId214" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206351&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D985" r:id="rId215" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C985" r:id="rId216" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F990" r:id="rId217" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81850&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E990" r:id="rId218" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D990" r:id="rId219" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C990" r:id="rId220" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F993" r:id="rId221" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E993" r:id="rId222" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C993" r:id="rId223" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D993" r:id="rId224" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F998" r:id="rId225" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903411&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E998" r:id="rId226" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C998" r:id="rId227" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D998" r:id="rId228" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F886" r:id="rId229" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2004&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E886" r:id="rId230" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85012&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D886" r:id="rId231" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="C886" r:id="rId232" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="F880" r:id="rId233" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E880" r:id="rId234" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D880" r:id="rId235" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C880" r:id="rId236" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F881" r:id="rId237" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=568386&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E881" r:id="rId238" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1775403&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D881" r:id="rId239" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C881" r:id="rId240" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F747" r:id="rId241" tooltip="Pseudomonadaceae" display="https://en.wikipedia.org/wiki/Pseudomonadaceae"/>
-    <hyperlink ref="E747" r:id="rId242" tooltip="Pseudomonadales" display="https://en.wikipedia.org/wiki/Pseudomonadales"/>
-    <hyperlink ref="D747" r:id="rId243" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="C747" r:id="rId244" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="F879" r:id="rId245" tooltip="Staphylococcaceae" display="https://en.wikipedia.org/wiki/Staphylococcaceae"/>
-    <hyperlink ref="F883" r:id="rId246" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E883" r:id="rId247" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D883" r:id="rId248" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C883" r:id="rId249" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F884" r:id="rId250" tooltip="Streptomycetaceae" display="https://en.wikipedia.org/wiki/Streptomycetaceae"/>
-    <hyperlink ref="E884" r:id="rId251" tooltip="Actinomycetales" display="https://en.wikipedia.org/wiki/Actinomycetales"/>
-    <hyperlink ref="D884" r:id="rId252" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="C884" r:id="rId253" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="E984" r:id="rId254" display="https://en.wikipedia.org/wiki/Bacillales"/>
-    <hyperlink ref="D984" r:id="rId255" display="https://en.wikipedia.org/wiki/Bacilli"/>
-    <hyperlink ref="C984" r:id="rId256" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F983" r:id="rId257" display="https://en.wikipedia.org/wiki/Bacillaceae"/>
-    <hyperlink ref="E983" r:id="rId258" display="https://en.wikipedia.org/wiki/Bacillales"/>
-    <hyperlink ref="D983" r:id="rId259" display="https://en.wikipedia.org/wiki/Bacilli"/>
-    <hyperlink ref="C983" r:id="rId260" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F982" r:id="rId261" tooltip="Vibrionaceae" display="https://en.wikipedia.org/wiki/Vibrionaceae"/>
-    <hyperlink ref="E982" r:id="rId262" tooltip="Vibrionales" display="https://en.wikipedia.org/wiki/Vibrionales"/>
-    <hyperlink ref="D982" r:id="rId263" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="C982" r:id="rId264" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="D564" r:id="rId265" tooltip="class"/>
-    <hyperlink ref="C564" r:id="rId266" tooltip="phylum" display=" Firmicutes"/>
-    <hyperlink ref="F727" r:id="rId267" tooltip="family" display=" Promicromonosporaceae"/>
-    <hyperlink ref="E727" r:id="rId268" tooltip="order" display=" Micrococcales"/>
-    <hyperlink ref="D727" r:id="rId269" tooltip="class"/>
-    <hyperlink ref="C727" r:id="rId270" tooltip="phylum"/>
-    <hyperlink ref="F726" r:id="rId271" tooltip="family" display=" Prevotellaceae"/>
-    <hyperlink ref="E726" r:id="rId272" tooltip="order" display=" Bacteroidales"/>
-    <hyperlink ref="D726" r:id="rId273" tooltip="class"/>
-    <hyperlink ref="C726" r:id="rId274" tooltip="phylum" display=" Bacteroidetes"/>
-    <hyperlink ref="F723" r:id="rId275" tooltip="family"/>
-    <hyperlink ref="E723" r:id="rId276" tooltip="order" display=" Bacteroidales"/>
-    <hyperlink ref="D723" r:id="rId277" tooltip="class"/>
-    <hyperlink ref="C723" r:id="rId278" tooltip="phylum" display=" Bacteroidetes"/>
-    <hyperlink ref="F720" r:id="rId279" tooltip="genus" display=" Pontibacillus"/>
-    <hyperlink ref="E720" r:id="rId280" tooltip="order" display=" Bacillales"/>
-    <hyperlink ref="D720" r:id="rId281" tooltip="class"/>
-    <hyperlink ref="C720" r:id="rId282" tooltip="phylum"/>
-    <hyperlink ref="E717" r:id="rId283" tooltip="order" display=" Enterobacterales"/>
-    <hyperlink ref="D717" r:id="rId284" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C717" r:id="rId285" tooltip="phylum"/>
-    <hyperlink ref="F716" r:id="rId286" tooltip="family" display=" Nannocystaceae"/>
-    <hyperlink ref="E716" r:id="rId287" tooltip="order" display=" Myxococcales"/>
-    <hyperlink ref="D716" r:id="rId288" tooltip="class" display=" Deltaproteobacteria"/>
-    <hyperlink ref="C716" r:id="rId289" tooltip="phylum"/>
-    <hyperlink ref="F712" r:id="rId290" tooltip="family"/>
-    <hyperlink ref="E712" r:id="rId291" tooltip="order" display=" Bacillales"/>
-    <hyperlink ref="D712" r:id="rId292" tooltip="class"/>
-    <hyperlink ref="F702" r:id="rId293" tooltip="family" display=" Phyllobacteriaceae"/>
-    <hyperlink ref="E702" r:id="rId294" tooltip="order" display=" Rhizobiales"/>
-    <hyperlink ref="D702" r:id="rId295" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C702" r:id="rId296" tooltip="phylum"/>
-    <hyperlink ref="F700" r:id="rId297" tooltip="family"/>
-    <hyperlink ref="E700" r:id="rId298" tooltip="order" display=" Enterobacterales"/>
-    <hyperlink ref="D700" r:id="rId299" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C700" r:id="rId300" tooltip="phylum"/>
-    <hyperlink ref="F699" r:id="rId301" tooltip="family"/>
-    <hyperlink ref="E699" r:id="rId302" tooltip="order" display=" Vibrionales"/>
-    <hyperlink ref="D699" r:id="rId303" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C699" r:id="rId304" tooltip="phylum"/>
-    <hyperlink ref="F697" r:id="rId305" tooltip="family" display=" Caulobacteraceae"/>
-    <hyperlink ref="E697" r:id="rId306" tooltip="order"/>
-    <hyperlink ref="D697" r:id="rId307" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C697" r:id="rId308" tooltip="phylum"/>
-    <hyperlink ref="E689" r:id="rId309" tooltip="Clostridiales"/>
-    <hyperlink ref="D689" r:id="rId310" tooltip="Clostridia"/>
-    <hyperlink ref="F683" r:id="rId311" tooltip="family"/>
-    <hyperlink ref="E683" r:id="rId312" tooltip="order" display=" Puniceicoccales"/>
-    <hyperlink ref="D683" r:id="rId313" tooltip="class" display=" Opitutae"/>
-    <hyperlink ref="C683" r:id="rId314" tooltip="phylum"/>
-    <hyperlink ref="F676" r:id="rId315" tooltip="family"/>
-    <hyperlink ref="E676" r:id="rId316" tooltip="order" display=" Pasteurellales"/>
-    <hyperlink ref="D676" r:id="rId317" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="F674" r:id="rId318" tooltip="family" display=" Rhodobiaceae"/>
-    <hyperlink ref="E674" r:id="rId319" tooltip="order" display=" Rhizobiales"/>
-    <hyperlink ref="D674" r:id="rId320" tooltip="Alphaproteobacteria"/>
-    <hyperlink ref="F666" r:id="rId321"/>
-    <hyperlink ref="E666" r:id="rId322" tooltip="Rhodobacterales"/>
-    <hyperlink ref="D666" r:id="rId323" tooltip="Alphaproteobacteria"/>
-    <hyperlink ref="C666" r:id="rId324" tooltip="Proteobacteria"/>
-    <hyperlink ref="F664" r:id="rId325" tooltip="family"/>
-    <hyperlink ref="E664" r:id="rId326" tooltip="order" display=" Bacillales"/>
-    <hyperlink ref="D664" r:id="rId327" tooltip="class"/>
-    <hyperlink ref="C664" r:id="rId328" tooltip="phylum"/>
-    <hyperlink ref="F648" r:id="rId329" tooltip="family" display=" Alcaligenaceae"/>
-    <hyperlink ref="E648" r:id="rId330" tooltip="order" display=" Burkholderiales"/>
-    <hyperlink ref="D648" r:id="rId331" tooltip="class" display=" Betaproteobacteria"/>
-    <hyperlink ref="C648" r:id="rId332" tooltip="phylum"/>
-    <hyperlink ref="F647" r:id="rId333" tooltip="family"/>
-    <hyperlink ref="E647" r:id="rId334" tooltip="order"/>
-    <hyperlink ref="D647" r:id="rId335" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C647" r:id="rId336" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F645" r:id="rId337" tooltip="family"/>
-    <hyperlink ref="E645" r:id="rId338" tooltip="order" display=" Rhizobiales"/>
-    <hyperlink ref="D645" r:id="rId339" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C645" r:id="rId340" tooltip="phylum"/>
-    <hyperlink ref="F644" r:id="rId341" tooltip="family" display=" Oceanospirillaceae"/>
-    <hyperlink ref="E644" r:id="rId342" tooltip="order"/>
-    <hyperlink ref="D644" r:id="rId343" tooltip="class"/>
-    <hyperlink ref="C644" r:id="rId344" tooltip="phylum"/>
-    <hyperlink ref="F642" r:id="rId345" tooltip="family"/>
-    <hyperlink ref="E642" r:id="rId346" tooltip="order"/>
-    <hyperlink ref="C642" r:id="rId347" tooltip="phylum"/>
-    <hyperlink ref="D642" r:id="rId348" tooltip="class"/>
-    <hyperlink ref="D635" r:id="rId349" tooltip="class"/>
-    <hyperlink ref="E635" r:id="rId350" tooltip="order"/>
-    <hyperlink ref="F635" r:id="rId351" tooltip="family"/>
-    <hyperlink ref="F632" r:id="rId352" tooltip="family"/>
-    <hyperlink ref="E632" r:id="rId353" tooltip="order" display=" Streptosporangiales"/>
-    <hyperlink ref="D632" r:id="rId354" tooltip="phylum"/>
-    <hyperlink ref="F631" r:id="rId355" tooltip="family"/>
-    <hyperlink ref="E631" r:id="rId356" tooltip="order"/>
-    <hyperlink ref="D631" r:id="rId357" tooltip="class"/>
-    <hyperlink ref="D630" r:id="rId358" tooltip="phylum"/>
-    <hyperlink ref="F630" r:id="rId359" tooltip="family" display=" Nocardioidaceae"/>
-    <hyperlink ref="E630" r:id="rId360" tooltip="order"/>
-    <hyperlink ref="F629" r:id="rId361" tooltip="family"/>
-    <hyperlink ref="E629" r:id="rId362" tooltip="order" display=" Corynebacteriales"/>
-    <hyperlink ref="D629" r:id="rId363" tooltip="class"/>
-    <hyperlink ref="C629" r:id="rId364" tooltip="phylum"/>
-    <hyperlink ref="F625" r:id="rId365" tooltip="family"/>
-    <hyperlink ref="E625" r:id="rId366" tooltip="order"/>
-    <hyperlink ref="D625" r:id="rId367" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="F622" r:id="rId368" tooltip="family"/>
-    <hyperlink ref="E622" r:id="rId369" tooltip="order"/>
-    <hyperlink ref="D622" r:id="rId370" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C622" r:id="rId371" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F619" r:id="rId372" tooltip="family" display=" Sinobacteraceae"/>
-    <hyperlink ref="E619" r:id="rId373" tooltip="order" display=" Nevskiales"/>
-    <hyperlink ref="D619" r:id="rId374" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C619" r:id="rId375" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F618" r:id="rId376" tooltip="family" display=" Micrococcaceae"/>
-    <hyperlink ref="E618" r:id="rId377" tooltip="order" display=" Micrococcales"/>
-    <hyperlink ref="D618" r:id="rId378" tooltip="class"/>
-    <hyperlink ref="C618" r:id="rId379" tooltip="phylum" display=" Actinobacteria"/>
-    <hyperlink ref="F617" r:id="rId380" tooltip="family"/>
-    <hyperlink ref="E617" r:id="rId381" tooltip="order"/>
-    <hyperlink ref="D617" r:id="rId382" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C617" r:id="rId383" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F610" r:id="rId384" tooltip="family" display=" Halobacteroidaceae"/>
-    <hyperlink ref="E610" r:id="rId385" tooltip="order" display=" Halanaerobiales"/>
-    <hyperlink ref="D610" r:id="rId386" tooltip="class" display=" Clostridia"/>
-    <hyperlink ref="C610" r:id="rId387" tooltip="phylum"/>
-    <hyperlink ref="F606" r:id="rId388" tooltip="family"/>
-    <hyperlink ref="E606" r:id="rId389" tooltip="order"/>
-    <hyperlink ref="D606" r:id="rId390" tooltip="class"/>
-    <hyperlink ref="C606" r:id="rId391" tooltip="phylum"/>
-    <hyperlink ref="F605" r:id="rId392" tooltip="Mycobacterium"/>
-    <hyperlink ref="E605" r:id="rId393" tooltip="Corynebacterineae"/>
-    <hyperlink ref="D605" r:id="rId394" tooltip="Actinomycetales"/>
-    <hyperlink ref="C605" r:id="rId395"/>
-    <hyperlink ref="F598" r:id="rId396" tooltip="family" display=" Moritellaceae"/>
-    <hyperlink ref="E598" r:id="rId397" tooltip="order" display=" Alteromonadales"/>
-    <hyperlink ref="D598" r:id="rId398" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="E597" r:id="rId399" tooltip="order"/>
-    <hyperlink ref="D597" r:id="rId400" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="F596" r:id="rId401" tooltip="family" display=" Moraxellaceae"/>
-    <hyperlink ref="E596" r:id="rId402" tooltip="order"/>
-    <hyperlink ref="D596" r:id="rId403" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C596" r:id="rId404" tooltip="phylum"/>
-    <hyperlink ref="E593" r:id="rId405" tooltip="order" display=" Geodermatophilales"/>
-    <hyperlink ref="D593" r:id="rId406" tooltip="phylum"/>
-    <hyperlink ref="C593" r:id="rId407" tooltip="phylum"/>
-    <hyperlink ref="F592" r:id="rId408" tooltip="family" display=" Geodermatophilaceae"/>
-    <hyperlink ref="D592" r:id="rId409" tooltip="phylum"/>
-    <hyperlink ref="C592" r:id="rId410" tooltip="phylum"/>
-    <hyperlink ref="F585" r:id="rId411" tooltip="family"/>
-    <hyperlink ref="E585" r:id="rId412" tooltip="order" display=" Micromonosporales"/>
-    <hyperlink ref="D585" r:id="rId413" tooltip="phylum"/>
-    <hyperlink ref="F584" r:id="rId414" tooltip="family" display=" Propionibacteriaceae"/>
-    <hyperlink ref="E584" r:id="rId415" tooltip="order" display=" Propionibacteriales"/>
-    <hyperlink ref="D584" r:id="rId416" tooltip="phylum"/>
-    <hyperlink ref="C584" r:id="rId417" tooltip="phylum"/>
-    <hyperlink ref="F582" r:id="rId418" tooltip="Micrococcus"/>
-    <hyperlink ref="E582" r:id="rId419" tooltip="Micrococcaceae"/>
-    <hyperlink ref="D582" r:id="rId420" tooltip="Micrococcales (page does not exist)"/>
-    <hyperlink ref="C582" r:id="rId421"/>
-    <hyperlink ref="F580" r:id="rId422" tooltip="family"/>
-    <hyperlink ref="E580" r:id="rId423" tooltip="order" display=" Cellvibrionales"/>
-    <hyperlink ref="C580" r:id="rId424" tooltip="phylum"/>
-    <hyperlink ref="D580" r:id="rId425" tooltip="class"/>
-    <hyperlink ref="D579" r:id="rId426" tooltip="phylum"/>
-    <hyperlink ref="F579" r:id="rId427" tooltip="family"/>
-    <hyperlink ref="E579" r:id="rId428" tooltip="order"/>
-    <hyperlink ref="C579" r:id="rId429" tooltip="phylum"/>
-    <hyperlink ref="F575" r:id="rId430" tooltip="family" display=" Piscirickettsiaceae"/>
-    <hyperlink ref="E575" r:id="rId431" tooltip="order"/>
-    <hyperlink ref="D575" r:id="rId432" tooltip="Gammaproteobacteria"/>
-    <hyperlink ref="E573" r:id="rId433" tooltip="order" display=" Methylococcales"/>
-    <hyperlink ref="D573" r:id="rId434" tooltip="Gammaproteobacteria"/>
-    <hyperlink ref="F569" r:id="rId435" tooltip="family"/>
-    <hyperlink ref="E569" r:id="rId436" tooltip="order"/>
-    <hyperlink ref="D569" r:id="rId437" tooltip="class" display=" Betaproteobacteria"/>
-    <hyperlink ref="F567" r:id="rId438" tooltip="family"/>
-    <hyperlink ref="E567" r:id="rId439" tooltip="order"/>
-    <hyperlink ref="D567" r:id="rId440" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C567" r:id="rId441" tooltip="phylum"/>
-    <hyperlink ref="F566" r:id="rId442" tooltip="family" display=" Enterococcaceae"/>
-    <hyperlink ref="E566" r:id="rId443" tooltip="Lactobacillales"/>
-    <hyperlink ref="D566" r:id="rId444" tooltip="Bacilli"/>
-    <hyperlink ref="F564" r:id="rId445" tooltip="family"/>
-    <hyperlink ref="E564" r:id="rId446" tooltip="order" display=" Veillonellales"/>
-    <hyperlink ref="C562" r:id="rId447" tooltip="phylum" display=" Firmicutes"/>
-    <hyperlink ref="F562" r:id="rId448" tooltip="family" display=" Selenomonadaceae"/>
-    <hyperlink ref="E562" r:id="rId449" tooltip="order"/>
-    <hyperlink ref="D562" r:id="rId450" tooltip="class"/>
-    <hyperlink ref="E557" r:id="rId451" tooltip="order"/>
-    <hyperlink ref="D557" r:id="rId452" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C557" r:id="rId453" tooltip="phylum"/>
-    <hyperlink ref="F556" r:id="rId454" tooltip="Oceanospirillaceae"/>
-    <hyperlink ref="E556" r:id="rId455" tooltip="Oceanospirillales"/>
-    <hyperlink ref="D556" r:id="rId456" tooltip="Gammaproteobacteria"/>
-    <hyperlink ref="C556" r:id="rId457" tooltip="Proteobacteria"/>
-    <hyperlink ref="F554" r:id="rId458" tooltip="family"/>
-    <hyperlink ref="E554" r:id="rId459" tooltip="order"/>
-    <hyperlink ref="D554" r:id="rId460" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C554" r:id="rId461" tooltip="phylum"/>
-    <hyperlink ref="F553" r:id="rId462" tooltip="family"/>
-    <hyperlink ref="E553" r:id="rId463" tooltip="order"/>
-    <hyperlink ref="D553" r:id="rId464" tooltip="class"/>
-    <hyperlink ref="C553" r:id="rId465" tooltip="phylum"/>
-    <hyperlink ref="F447" r:id="rId466" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E433" r:id="rId467" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F433" r:id="rId468" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224464&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F423" r:id="rId469" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F419" r:id="rId470" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541019&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C394" r:id="rId471" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C384" r:id="rId472" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=57723&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F383" r:id="rId473" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C368" r:id="rId474" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F368" r:id="rId475" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C362" r:id="rId476" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F362" r:id="rId477" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F361" r:id="rId478" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543313&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C361" r:id="rId479" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F359" r:id="rId480" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F354" r:id="rId481" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F353" r:id="rId482" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F352" r:id="rId483" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C347" r:id="rId484" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F343" r:id="rId485" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E343" r:id="rId486" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D343" r:id="rId487" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F342" r:id="rId488" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F336" r:id="rId489" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2304686&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F341" r:id="rId490" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E341" r:id="rId491" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D341" r:id="rId492" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D327" r:id="rId493" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C314:D314" r:id="rId494" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D312" r:id="rId495" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F302" r:id="rId496" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F297" r:id="rId497" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D292" r:id="rId498" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C292" r:id="rId499" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F289" r:id="rId500" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C289" r:id="rId501" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D289" r:id="rId502" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D288" r:id="rId503" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D279" r:id="rId504" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D278" r:id="rId505" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F277" r:id="rId506" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D276" r:id="rId507" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F256" r:id="rId508" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D256:D259" r:id="rId509" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E256:E259" r:id="rId510" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C256" r:id="rId511" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F249" r:id="rId512" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C248" r:id="rId513" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C247" r:id="rId514" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D245" r:id="rId515" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C245" r:id="rId516" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D242" r:id="rId517" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C242" r:id="rId518" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D241" r:id="rId519" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F240" r:id="rId520" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F185" r:id="rId521" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F192" r:id="rId522" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=412032&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D175" r:id="rId523" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F152" r:id="rId524" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903410&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D150" r:id="rId525" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C150" r:id="rId526" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F150" r:id="rId527" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E150" r:id="rId528" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C142" r:id="rId529" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F142" r:id="rId530" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145358&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F141" r:id="rId531" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F135" r:id="rId532" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F134" r:id="rId533" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=125316&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F130" r:id="rId534" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F128" r:id="rId535" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F172" r:id="rId536" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C163" r:id="rId537" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D163" r:id="rId538" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E171:E173" r:id="rId539" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D162" r:id="rId540" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C162" r:id="rId541" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C157" r:id="rId542" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F118" r:id="rId543" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85018&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F94" r:id="rId544" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E94" r:id="rId545" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D94" r:id="rId546" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F82" r:id="rId547" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E82" r:id="rId548" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D82" r:id="rId549" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F81" r:id="rId550" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1524215&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E81" r:id="rId551" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C74" r:id="rId552" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D74" r:id="rId553" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F71" r:id="rId554" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E71" r:id="rId555" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D71" r:id="rId556" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E69" r:id="rId557" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D69" r:id="rId558" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F69" r:id="rId559" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F65" r:id="rId560" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E65" r:id="rId561" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D65" r:id="rId562" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D61" r:id="rId563" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F59" r:id="rId564" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=186817&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E59" r:id="rId565" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D59" r:id="rId566" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F55" r:id="rId567" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F47" r:id="rId568" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E47" r:id="rId569" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D47" r:id="rId570" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D34" r:id="rId571" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C34" r:id="rId572" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E451" r:id="rId573" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D451" r:id="rId574" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C451" r:id="rId575" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F449" r:id="rId576" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1570339&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E449" r:id="rId577" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737405&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D449" r:id="rId578" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C449" r:id="rId579" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F442" r:id="rId580" tooltip="Halomonadaceae" display="https://en.wikipedia.org/wiki/Halomonadaceae"/>
-    <hyperlink ref="E442" r:id="rId581" display="https://en.wikipedia.org/wiki/Oceanospirillales"/>
-    <hyperlink ref="D442" r:id="rId582" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="C442" r:id="rId583" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="F440" r:id="rId584" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E440" r:id="rId585" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D440" r:id="rId586" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C440" r:id="rId587" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F432" r:id="rId588" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=972&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E432" r:id="rId589" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=53433&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D432" r:id="rId590" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F428" r:id="rId591" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224379&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E428" r:id="rId592" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D428" r:id="rId593" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F426" r:id="rId594" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=712&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E426" r:id="rId595" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135625&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D426" r:id="rId596" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F393" r:id="rId597" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85026&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E393" r:id="rId598" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D393" r:id="rId599" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C393" r:id="rId600" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F391" r:id="rId601" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E391" r:id="rId602" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C391" r:id="rId603" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F388" r:id="rId604" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E388" r:id="rId605" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D388" r:id="rId606" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C388" r:id="rId607" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F386" r:id="rId608" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E386" r:id="rId609" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200644&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D386" r:id="rId610" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C386" r:id="rId611" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F380" r:id="rId612" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145358&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E380" r:id="rId613" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C380:D380" r:id="rId614" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F377" r:id="rId615" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85030&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E377" r:id="rId616" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C377:D377" r:id="rId617" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F376" r:id="rId618" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213422&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E376" r:id="rId619" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69541&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D376" r:id="rId620" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C376" r:id="rId621" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F375" r:id="rId622" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E375" r:id="rId623" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D375" r:id="rId624" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C375" r:id="rId625" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F371" r:id="rId626" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219687&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E371" r:id="rId627" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219686&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D371" r:id="rId628" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219685&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C371" r:id="rId629" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=142182&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E370" r:id="rId630" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D370" r:id="rId631" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C370" r:id="rId632" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F360" r:id="rId633" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81850&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E360" r:id="rId634" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D360" r:id="rId635" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C360" r:id="rId636" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F348" r:id="rId637" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E348" r:id="rId638" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200644&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D348" r:id="rId639" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C348" r:id="rId640" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F345" r:id="rId641" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200667&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E345" r:id="rId642" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D345" r:id="rId643" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C345" r:id="rId644" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E332" r:id="rId645" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D332" r:id="rId646" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F331" r:id="rId647" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E331" r:id="rId648" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D331" r:id="rId649" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F330" r:id="rId650" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E330" r:id="rId651" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D330" r:id="rId652" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F328" r:id="rId653" tooltip="genus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=33986&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E328" r:id="rId654" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D328" r:id="rId655" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C328" r:id="rId656" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F326" r:id="rId657" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E326" r:id="rId658" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908621&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D326" r:id="rId659" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908620&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C326" r:id="rId660" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F324" r:id="rId661" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E324" r:id="rId662" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D324" r:id="rId663" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C324" r:id="rId664" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F323" r:id="rId665" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E323" r:id="rId666" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D323" r:id="rId667" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C323" r:id="rId668" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F321" r:id="rId669" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E321" r:id="rId670" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D321" r:id="rId671" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C321" r:id="rId672" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F319" r:id="rId673" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903409&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E319" r:id="rId674" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D319" r:id="rId675" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C319" r:id="rId676" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F316" r:id="rId677" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E316" r:id="rId678" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D316" r:id="rId679" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C316" r:id="rId680" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C315" r:id="rId681" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D315" r:id="rId682" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E315" r:id="rId683" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F315" r:id="rId684" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C310" r:id="rId685" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F310" r:id="rId686" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F300" r:id="rId687" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72276&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E300" r:id="rId688" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D300" r:id="rId689" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C300" r:id="rId690" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D298" r:id="rId691" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200643&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F298" r:id="rId692" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2005520&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E298" r:id="rId693" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=171549&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C298" r:id="rId694" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F294" r:id="rId695" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1775411&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E294" r:id="rId696" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D294" r:id="rId697" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C294" r:id="rId698" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C293" r:id="rId699" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D293" r:id="rId700" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F293" r:id="rId701" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85029&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E293" r:id="rId702" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F291" r:id="rId703" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=868&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E291" r:id="rId704" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135615&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D291" r:id="rId705" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C291" r:id="rId706" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F290" r:id="rId707" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31977&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E290" r:id="rId708" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843489&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D290" r:id="rId709" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C290" r:id="rId710" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F287" r:id="rId711" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213421&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E287" r:id="rId712" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69541&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D287" r:id="rId713" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C287" r:id="rId714" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C284" r:id="rId715" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D284" r:id="rId716" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E284" r:id="rId717" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F284" r:id="rId718" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=194924&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F281" r:id="rId719" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E281" r:id="rId720" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909929&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D281" r:id="rId721" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C281" r:id="rId722" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F280" r:id="rId723" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E280" r:id="rId724" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909929&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D280" r:id="rId725" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C280" r:id="rId726" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E283" r:id="rId727" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C283" r:id="rId728" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D283" r:id="rId729" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F275" r:id="rId730" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224380&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E275" r:id="rId731" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D275" r:id="rId732" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F271" r:id="rId733" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E271" r:id="rId734" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D271" r:id="rId735" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F264" r:id="rId736" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E264" r:id="rId737" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D264" r:id="rId738" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C264" r:id="rId739" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F260" r:id="rId740" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E260" r:id="rId741" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D260" r:id="rId742" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C260" r:id="rId743" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F258" r:id="rId744" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C258" r:id="rId745" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F257" r:id="rId746" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C257" r:id="rId747" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F255" r:id="rId748" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1042322&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E255" r:id="rId749" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D255" r:id="rId750" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C255" r:id="rId751" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F252" r:id="rId752" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=183710&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D252" r:id="rId753" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=188787&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E252" r:id="rId754" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=118964&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F250" r:id="rId755" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1202464&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E250" r:id="rId756" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1202465&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D250" r:id="rId757" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=301297&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C250" r:id="rId758" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200795&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F244" r:id="rId759" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135616&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E244" r:id="rId760" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72273&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D244" r:id="rId761" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C244" r:id="rId762" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F239" r:id="rId763" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E239" r:id="rId764" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D239" r:id="rId765" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C239" r:id="rId766" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D234" r:id="rId767" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F234" r:id="rId768" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1653&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E234" r:id="rId769" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C234" r:id="rId770" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F232" r:id="rId771" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138247&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E232" r:id="rId772" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138246&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D232" r:id="rId773" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138243&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C232" r:id="rId774" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138240&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F231" r:id="rId775" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E231" r:id="rId776" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D231" r:id="rId777" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C231" r:id="rId778" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F230" r:id="rId779" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E230" r:id="rId780" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D230" r:id="rId781" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C230" r:id="rId782" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F223" r:id="rId783" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84107&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E223" r:id="rId784" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84999&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D223" r:id="rId785" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84998&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C223" r:id="rId786" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F222" r:id="rId787" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E222" r:id="rId788" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D222" r:id="rId789" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C222" r:id="rId790" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F221" r:id="rId791" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F220" r:id="rId792" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F219" r:id="rId793" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F218" r:id="rId794" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F217" r:id="rId795" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E221" r:id="rId796" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E220" r:id="rId797" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E219" r:id="rId798" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E218" r:id="rId799" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E217" r:id="rId800" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D221" r:id="rId801" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D220" r:id="rId802" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D219" r:id="rId803" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D218" r:id="rId804" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D217" r:id="rId805" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C221" r:id="rId806" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C220" r:id="rId807" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C219" r:id="rId808" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C218" r:id="rId809" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C217" r:id="rId810" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F216" r:id="rId811" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F215" r:id="rId812" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E216" r:id="rId813" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E215" r:id="rId814" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D216" r:id="rId815" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D215" r:id="rId816" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C216" r:id="rId817" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C215" r:id="rId818" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F214" r:id="rId819" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E214" r:id="rId820" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D214" r:id="rId821" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C214" r:id="rId822" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F213" r:id="rId823" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E213" r:id="rId824" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D213" r:id="rId825" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C213" r:id="rId826" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F212" r:id="rId827" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E212" r:id="rId828" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D212" r:id="rId829" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C212" r:id="rId830" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F211" r:id="rId831" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E211" r:id="rId832" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C211:D211" r:id="rId833" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F208" r:id="rId834" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E208" r:id="rId835" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D208" r:id="rId836" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C208" r:id="rId837" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F206" r:id="rId838" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E206" r:id="rId839" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D206" r:id="rId840" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C206" r:id="rId841" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F204" r:id="rId842" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191412&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E204" r:id="rId843" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191411&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D204" r:id="rId844" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191410&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C204" r:id="rId845" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F198" r:id="rId846" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=712&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E198" r:id="rId847" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135625&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D198" r:id="rId848" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C198" r:id="rId849" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F195" r:id="rId850" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706371&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E195" r:id="rId851" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706369&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D195" r:id="rId852" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C195" r:id="rId853" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F194" r:id="rId854" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85017&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E194" r:id="rId855" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C194:D194" r:id="rId856" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F193" r:id="rId857" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85016&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E193" r:id="rId858" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C193:D193" r:id="rId859" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F179" r:id="rId860" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1501348&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E179" r:id="rId861" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D179" r:id="rId862" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C179" r:id="rId863" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F178" r:id="rId864" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1501348&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E178" r:id="rId865" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D178" r:id="rId866" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C178" r:id="rId867" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F173" r:id="rId868" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E173" r:id="rId869" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D173" r:id="rId870" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C173" r:id="rId871" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F170" r:id="rId872" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693073&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E170" r:id="rId873" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693072&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D170" r:id="rId874" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693071&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C170" r:id="rId875" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=67814&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F165" r:id="rId876" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E165" r:id="rId877" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C165" r:id="rId878" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D165" r:id="rId879" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F159" r:id="rId880" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903409&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E159" r:id="rId881" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D159" r:id="rId882" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C159" r:id="rId883" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F156" r:id="rId884" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186820&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E156" r:id="rId885" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D156" r:id="rId886" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C156" r:id="rId887" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F155" r:id="rId888" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=76892&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E155" r:id="rId889" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204458&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D155" r:id="rId890" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="C155" r:id="rId891" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="D154" r:id="rId892" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C154" r:id="rId893" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E154" r:id="rId894" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F154" r:id="rId895" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85019&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F153" r:id="rId896" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E153" r:id="rId897" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D153" r:id="rId898" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C153" r:id="rId899" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D146" r:id="rId900" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C146" r:id="rId901" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F146" r:id="rId902" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E146" r:id="rId903" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D136" r:id="rId904" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F136" r:id="rId905" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31953&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E136" r:id="rId906" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85004&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C136" r:id="rId907" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F125" r:id="rId908" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=815&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E125" r:id="rId909" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=171549&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D125" r:id="rId910" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200643&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C125" r:id="rId911" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F121" r:id="rId912" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=335928&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E121" r:id="rId913" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D121" r:id="rId914" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="C121" r:id="rId915" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="D120" r:id="rId916" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F120" r:id="rId917" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135621&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E120" r:id="rId918" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72274&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C120" r:id="rId919" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E115" r:id="rId920" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D115" r:id="rId921" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C115" r:id="rId922" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F115" r:id="rId923" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=255475&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F112" r:id="rId924" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643824&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E112" r:id="rId925" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84999&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C112" r:id="rId926" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D112" r:id="rId927" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84998&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F107" r:id="rId928" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D107" r:id="rId929" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E107" r:id="rId930" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C107" r:id="rId931" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D109" r:id="rId932" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F109" r:id="rId933" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E109" r:id="rId934" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C109" r:id="rId935" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C99:D99" r:id="rId936" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F99" r:id="rId937" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2049&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E99" r:id="rId938" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2037&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F84" r:id="rId939" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E84" r:id="rId940" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D84" r:id="rId941" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F88" r:id="rId942" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E88" r:id="rId943" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D88" r:id="rId944" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F91" r:id="rId945" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E91" r:id="rId946" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D91" r:id="rId947" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F80" r:id="rId948" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E80" r:id="rId949" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D80" r:id="rId950" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F79" r:id="rId951" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1570339&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E79" r:id="rId952" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737405&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D79" r:id="rId953" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F77" r:id="rId954" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=83763&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E77" r:id="rId955" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135624&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D77" r:id="rId956" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="F75" r:id="rId957" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E75" r:id="rId958" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D75" r:id="rId959" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C75" r:id="rId960" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C73" r:id="rId961" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D73" r:id="rId962" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E73" r:id="rId963" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85010&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F72" r:id="rId964" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135620&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E72" r:id="rId965" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D72" r:id="rId966" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C72" r:id="rId967" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F66" r:id="rId968" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E66" r:id="rId969" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D66" r:id="rId970" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C66" r:id="rId971" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F57" r:id="rId972" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E57" r:id="rId973" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D57" r:id="rId974" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F52" r:id="rId975" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E52" r:id="rId976" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D52" r:id="rId977" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F54" r:id="rId978" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E54" r:id="rId979" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D54" r:id="rId980" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F51" r:id="rId981" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E51" r:id="rId982" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D51" r:id="rId983" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F40" r:id="rId984" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E40" r:id="rId985" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C40:D40" r:id="rId986" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F39" r:id="rId987" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E39" r:id="rId988" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D39" r:id="rId989" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C39" r:id="rId990" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C32:D32" r:id="rId991" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F32" r:id="rId992" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85015&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E32" r:id="rId993" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85009&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F31" r:id="rId994" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E31" r:id="rId995" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D31" r:id="rId996" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F28" r:id="rId997" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85016&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E28" r:id="rId998" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D10" r:id="rId999" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F10" r:id="rId1000" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909930&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E10" r:id="rId1001" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843488&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F8" r:id="rId1002" tooltip="Alcaligenaceae" display="https://en.wikipedia.org/wiki/Alcaligenaceae"/>
-    <hyperlink ref="E8" r:id="rId1003" tooltip="Burkholderiales" display="https://en.wikipedia.org/wiki/Burkholderiales"/>
-    <hyperlink ref="D8" r:id="rId1004" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="F7" r:id="rId1005" tooltip="Acholeplasmataceae" display="https://en.wikipedia.org/wiki/Acholeplasmataceae"/>
-    <hyperlink ref="E7" r:id="rId1006" display="https://en.wikipedia.org/wiki/Acholeplasmataceae"/>
-    <hyperlink ref="D7" r:id="rId1007" tooltip="Mollicutes" display="https://en.wikipedia.org/wiki/Mollicutes"/>
-    <hyperlink ref="F2" r:id="rId1008" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E2" r:id="rId1009" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D2" r:id="rId1010" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C2" r:id="rId1011" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F14" r:id="rId1012" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80864&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C16" r:id="rId1013" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C21" r:id="rId1014" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C19" r:id="rId1015" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C22" r:id="rId1016" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C17" r:id="rId1017" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C20" r:id="rId1018" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F27" r:id="rId1019" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85015&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E48" r:id="rId1020" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D48" r:id="rId1021" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C48" r:id="rId1022" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F48" r:id="rId1023" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=267893&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E49" r:id="rId1024" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D49" r:id="rId1025" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F49" r:id="rId1026" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D50" r:id="rId1027" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D68" r:id="rId1028" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E70" r:id="rId1029" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D70" r:id="rId1030" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F70" r:id="rId1031" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E78" r:id="rId1032" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D78" r:id="rId1033" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F85" r:id="rId1034" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543314&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E85" r:id="rId1035" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D85" r:id="rId1036" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D86" r:id="rId1037" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C86" r:id="rId1038" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F87" r:id="rId1039" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1499392&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C87" r:id="rId1040" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C89" r:id="rId1041" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F89" r:id="rId1042" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=39&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C90" r:id="rId1043" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D90" r:id="rId1044" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F97" r:id="rId1045" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72276&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D122" r:id="rId1046" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C122" r:id="rId1047" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F122" r:id="rId1048" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D129" r:id="rId1049" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="D132" r:id="rId1050" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="F132" r:id="rId1051" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=45404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F143" r:id="rId1052" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=506&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F145" r:id="rId1053" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F149" r:id="rId1054" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41294&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D149" r:id="rId1055" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="C149" r:id="rId1056" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="E160" r:id="rId1057" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D160" r:id="rId1058" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C160" r:id="rId1059" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F160" r:id="rId1060" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903416&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F161" r:id="rId1061" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C166" r:id="rId1062" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D166" r:id="rId1063" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F166" r:id="rId1064" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E166" r:id="rId1065" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E167" r:id="rId1066" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F168" r:id="rId1067" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543371&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D168" r:id="rId1068" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E168" r:id="rId1069" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E174" r:id="rId1070" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F174" r:id="rId1071" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D174" r:id="rId1072" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F182" r:id="rId1073" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E182" r:id="rId1074" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C182" r:id="rId1075" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D182" r:id="rId1076" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C183" r:id="rId1077" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D183" r:id="rId1078" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F200" r:id="rId1079" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E209" r:id="rId1080" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F224" r:id="rId1081" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=267889&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F272:F273" r:id="rId1082" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E272:E273" r:id="rId1083" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D272:D273" r:id="rId1084" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F274" r:id="rId1085" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224380&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E274" r:id="rId1086" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D274" r:id="rId1087" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C282" r:id="rId1088" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F282" r:id="rId1089" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E282" r:id="rId1090" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D282" r:id="rId1091" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C285" r:id="rId1092" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D285" r:id="rId1093" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C305" r:id="rId1094" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D311" r:id="rId1095" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F311" r:id="rId1096" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2066474&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E310" r:id="rId1097" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D310" r:id="rId1098" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C322" r:id="rId1099" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C349" r:id="rId1100" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F349" r:id="rId1101" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=89373&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F350" r:id="rId1102" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2762284&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F357" r:id="rId1103" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=34064&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F367" r:id="rId1104" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=90627&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F385" r:id="rId1105" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F390" r:id="rId1106" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E390" r:id="rId1107" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D390" r:id="rId1108" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C390" r:id="rId1109" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F392" r:id="rId1110" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85034&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D392" r:id="rId1111" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C392" r:id="rId1112" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D391" r:id="rId1113" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F422" r:id="rId1114" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F427" r:id="rId1115" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903412&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F439" r:id="rId1116" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=53434&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C450" r:id="rId1117" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="E452" r:id="rId1118" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D452" r:id="rId1119" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F454" r:id="rId1120" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69657&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F463" r:id="rId1121" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=292630&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F471" r:id="rId1122" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F479" r:id="rId1123" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F482" r:id="rId1124" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85022&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F495" r:id="rId1125" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F498" r:id="rId1126" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D503" r:id="rId1127" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C503" r:id="rId1128" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C503:D503" r:id="rId1129" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F504" r:id="rId1130" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C515" r:id="rId1131" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=74015&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F520" r:id="rId1132" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F557" r:id="rId1133" tooltip="Oceanospirillaceae"/>
-    <hyperlink ref="F570" r:id="rId1134" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119045&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E570" r:id="rId1135" tooltip="order"/>
-    <hyperlink ref="D570" r:id="rId1136" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="F548" r:id="rId1137" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69657&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D548" r:id="rId1138" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C548" r:id="rId1139" tooltip="phylum"/>
-    <hyperlink ref="D549" r:id="rId1140" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C549" r:id="rId1141" tooltip="phylum"/>
-    <hyperlink ref="F561" r:id="rId1142" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E561" r:id="rId1143" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D561" r:id="rId1144" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C561" r:id="rId1145" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F544" r:id="rId1146" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1042322&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D536" r:id="rId1147" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="F532" r:id="rId1148" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186820&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E594" r:id="rId1149" tooltip="order" display=" Geodermatophilales"/>
-    <hyperlink ref="F593" r:id="rId1150" tooltip="family" display=" Geodermatophilaceae"/>
-    <hyperlink ref="F597" r:id="rId1151" tooltip="family" display=" Moraxellaceae"/>
-    <hyperlink ref="E592" r:id="rId1152" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D576" r:id="rId1153" tooltip="Gammaproteobacteria"/>
-    <hyperlink ref="F608" r:id="rId1154" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224463&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E608" r:id="rId1155" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F614" r:id="rId1156" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F616" r:id="rId1157" tooltip="family"/>
-    <hyperlink ref="E616" r:id="rId1158" tooltip="order"/>
-    <hyperlink ref="D616" r:id="rId1159" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C616" r:id="rId1160" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F634" r:id="rId1161" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F637" r:id="rId1162" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F660" r:id="rId1163" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=216572&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D675" r:id="rId1164" tooltip="Alphaproteobacteria"/>
-    <hyperlink ref="F669" r:id="rId1165" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F677" r:id="rId1166" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=361606&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D682" r:id="rId1167" tooltip="Alphaproteobacteria"/>
-    <hyperlink ref="C682" r:id="rId1168" tooltip="Proteobacteria"/>
-    <hyperlink ref="F684" r:id="rId1169" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=292628&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F685" r:id="rId1170" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F686" r:id="rId1171" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F687" r:id="rId1172" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F688" r:id="rId1173" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F690" r:id="rId1174" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E690" r:id="rId1175" tooltip="Clostridiales"/>
-    <hyperlink ref="D690" r:id="rId1176" tooltip="Clostridia"/>
-    <hyperlink ref="D704" r:id="rId1177" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C704" r:id="rId1178" tooltip="phylum"/>
-    <hyperlink ref="F705" r:id="rId1179" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F703" r:id="rId1180" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F707" r:id="rId1181" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85018&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F709" r:id="rId1182" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F710" r:id="rId1183" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E718" r:id="rId1184" tooltip="order" display=" Enterobacterales"/>
-    <hyperlink ref="F743" r:id="rId1185" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D745" r:id="rId1186" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="C745" r:id="rId1187" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="F753" r:id="rId1188" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E753" r:id="rId1189" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E770" r:id="rId1190" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F780" r:id="rId1191" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D780" r:id="rId1192" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C780" r:id="rId1193" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E782" r:id="rId1194" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F789" r:id="rId1195" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E789" r:id="rId1196" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F798" r:id="rId1197" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F801" r:id="rId1198" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F818" r:id="rId1199" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D828" r:id="rId1200" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1937959&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D882" r:id="rId1201" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="C882" r:id="rId1202" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="F901" r:id="rId1203" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=75682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F908" r:id="rId1204" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F910" r:id="rId1205" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E910" r:id="rId1206" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D910" r:id="rId1207" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C910" r:id="rId1208" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F921" r:id="rId1209" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=539000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D921" r:id="rId1210" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C921" r:id="rId1211" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D922" r:id="rId1212" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F924" r:id="rId1213" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F927" r:id="rId1214" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E926" r:id="rId1215" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F926" r:id="rId1216" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D962" r:id="rId1217" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C977" r:id="rId1218" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E986" r:id="rId1219" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206351&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D987" r:id="rId1220" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="C987" r:id="rId1221" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="F1001" r:id="rId1222" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D301" r:id="rId1223" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C301" r:id="rId1224" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E318" r:id="rId1225" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D318" r:id="rId1226" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C318" r:id="rId1227" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F318" r:id="rId1228" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F332" r:id="rId1229" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C3:C7" r:id="rId1230" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C10" r:id="rId1231" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C9" r:id="rId1232" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C31" r:id="rId1233" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C47" r:id="rId1234" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C52" r:id="rId1235" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C53:C55" r:id="rId1236" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C57" r:id="rId1237" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C59" r:id="rId1238" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C61" r:id="rId1239" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C65" r:id="rId1240" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C68" r:id="rId1241" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C78" r:id="rId1242" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C82" r:id="rId1243" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C83:C85" r:id="rId1244" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C88" r:id="rId1245" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C91" r:id="rId1246" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C597:C598" r:id="rId1247" tooltip="phylum" display="Proteobacteria"/>
-    <hyperlink ref="C585:C586" r:id="rId1248" tooltip="phylum" display="Actinobacteria"/>
-    <hyperlink ref="C311:C313" r:id="rId1249" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C452:C453" r:id="rId1250" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C565:C566" r:id="rId1251" tooltip="phylum" display=" Firmicutes"/>
-    <hyperlink ref="C568:C577" r:id="rId1252" tooltip="phylum" display="Proteobacteria"/>
-    <hyperlink ref="C623:C627" r:id="rId1253" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="C630:C632" r:id="rId1254" tooltip="phylum" display="Actinobacteria"/>
-    <hyperlink ref="C922:C925" r:id="rId1255" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C23:C29" r:id="rId1256" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C49:C51" r:id="rId1257" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C69:C71" r:id="rId1258" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C79:C80" r:id="rId1259" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C167:C168" r:id="rId1260" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C174:C175" r:id="rId1261" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
+    <hyperlink ref="F509" r:id="rId1" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D418" r:id="rId2" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E418" r:id="rId3" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F418" r:id="rId4" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F372" r:id="rId5" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E372" r:id="rId6" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D372" r:id="rId7" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C372" r:id="rId8" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C350" r:id="rId9" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F537" r:id="rId10" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903410&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F516" r:id="rId11" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E513" r:id="rId12" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D513" r:id="rId13" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F513" r:id="rId14" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F510" r:id="rId15" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F508" r:id="rId16" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F505" r:id="rId17" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F502" r:id="rId18" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F500" r:id="rId19" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D500" r:id="rId20" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C500" r:id="rId21" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E500" r:id="rId22" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C500:D500" r:id="rId23" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F494" r:id="rId24" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D494" r:id="rId25" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C494" r:id="rId26" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E494" r:id="rId27" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C494:D494" r:id="rId28" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F485" r:id="rId29" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=506&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F480" r:id="rId30" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=90964&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E478" r:id="rId31" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85013&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F476" r:id="rId32" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F475" r:id="rId33" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85017&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="F473" r:id="rId34" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="F469" r:id="rId35" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="F455" r:id="rId36" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E453" r:id="rId37" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D453" r:id="rId38" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="F453" r:id="rId39" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31984&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F595" r:id="rId40" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543314&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D529" r:id="rId41" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C529" r:id="rId42" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E528" r:id="rId43" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D528" r:id="rId44" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C528" r:id="rId45" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="F527" r:id="rId46" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E527" r:id="rId47" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D527" r:id="rId48" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C527" r:id="rId49" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="F512" r:id="rId50" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E512" r:id="rId51" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D512" r:id="rId52" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="F511" r:id="rId53" tooltip="Lactobacillaceae" display="https://it.wikipedia.org/wiki/Lactobacillaceae" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E511" r:id="rId54" tooltip="Lactobacillales" display="https://it.wikipedia.org/wiki/Lactobacillales" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D511" r:id="rId55" tooltip="Bacilli" display="https://it.wikipedia.org/wiki/Bacilli" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="F496" r:id="rId56" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E496" r:id="rId57" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C496:D496" r:id="rId58" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="F492" r:id="rId59" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D492" r:id="rId60" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C492" r:id="rId61" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E492" r:id="rId62" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C492:D492" r:id="rId63" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D542" r:id="rId64" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C542" r:id="rId65" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="F542" r:id="rId66" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31957&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E542" r:id="rId67" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85009&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E552" r:id="rId68" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D552" r:id="rId69" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C552" r:id="rId70" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D547" r:id="rId71" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C547" r:id="rId72" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E546" r:id="rId73" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D546" r:id="rId74" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C546" r:id="rId75" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="F543" r:id="rId76" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E543" r:id="rId77" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="D543" r:id="rId78" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C543" r:id="rId79" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="F545" r:id="rId80" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E545" r:id="rId81" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="D545" r:id="rId82" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C545" r:id="rId83" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="F984" r:id="rId84" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="F624" r:id="rId85" tooltip="family" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E624" r:id="rId86" tooltip="order" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="D624" r:id="rId87" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="F925" r:id="rId88" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E925" r:id="rId89" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="D925" r:id="rId90" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="F920" r:id="rId91" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2008794&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E920" r:id="rId92" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206389&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="D920" r:id="rId93" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="F919" r:id="rId94" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E919" r:id="rId95" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D919" r:id="rId96" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="F914" r:id="rId97" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E914" r:id="rId98" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="D914" r:id="rId99" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C914" r:id="rId100" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="F913" r:id="rId101" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E913" r:id="rId102" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="D913" r:id="rId103" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C913" r:id="rId104" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="F909" r:id="rId105" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E909" r:id="rId106" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="D909" r:id="rId107" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C909" r:id="rId108" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="F897" r:id="rId109" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E897" r:id="rId110" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="D897" r:id="rId111" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C897" r:id="rId112" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="F898" r:id="rId113" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E898" r:id="rId114" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="D898" r:id="rId115" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C898" r:id="rId116" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="F967" r:id="rId117" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E967" r:id="rId118" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="D967" r:id="rId119" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C967" r:id="rId120" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="F980" r:id="rId121" display="https://en.wikipedia.org/wiki/Veillonellaceae" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E980" r:id="rId122" tooltip="Vellionellales (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Vellionellales&amp;action=edit&amp;redlink=1" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D980" r:id="rId123" tooltip="Negativicutes" display="https://en.wikipedia.org/wiki/Negativicutes" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C980" r:id="rId124" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="F978" r:id="rId125" tooltip="genus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2737&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E978" r:id="rId126" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="D978" r:id="rId127" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C978" r:id="rId128" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="F976" r:id="rId129" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E976" r:id="rId130" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="D976" r:id="rId131" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C976" r:id="rId132" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F975" r:id="rId133" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706371&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E975" r:id="rId134" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706369&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="D975" r:id="rId135" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C975" r:id="rId136" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="F974" r:id="rId137" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E974" r:id="rId138" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D974" r:id="rId139" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C974" r:id="rId140" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="F960" r:id="rId141" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E960" r:id="rId142" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="D960" r:id="rId143" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="F961" r:id="rId144" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135617&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E961" r:id="rId145" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72273&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="D961" r:id="rId146" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="F964" r:id="rId147" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84642&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E964" r:id="rId148" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135624&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="D964" r:id="rId149" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="F965" r:id="rId150" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E965" r:id="rId151" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="D965" r:id="rId152" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="F966" r:id="rId153" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=137&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E966" r:id="rId154" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=136&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D966" r:id="rId155" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=203692&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C966" r:id="rId156" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=203691&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="F790" r:id="rId157" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E790" r:id="rId158" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D790" r:id="rId159" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C790" r:id="rId160" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="F776" r:id="rId161" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85025&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E776" r:id="rId162" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D776" r:id="rId163" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C776" r:id="rId164" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="F775" r:id="rId165" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E775" r:id="rId166" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D775" r:id="rId167" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C775" r:id="rId168" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="F773" r:id="rId169" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=82115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E773" r:id="rId170" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D773" r:id="rId171" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C773" r:id="rId172" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="F771" r:id="rId173" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E771" r:id="rId174" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D771" r:id="rId175" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C771" r:id="rId176" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="D769" r:id="rId177" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C769" r:id="rId178" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="F769" r:id="rId179" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=255527&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E769" r:id="rId180" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="F768" r:id="rId181" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E768" r:id="rId182" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="D768" r:id="rId183" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C768" r:id="rId184" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="F767" r:id="rId185" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145359&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E767" r:id="rId186" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="D767" r:id="rId187" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C767" r:id="rId188" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="F765" r:id="rId189" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80864&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E765" r:id="rId190" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80840&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="D765" r:id="rId191" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C765" r:id="rId192" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="F764" r:id="rId193" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E764" r:id="rId194" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80840&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="D764" r:id="rId195" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C764" r:id="rId196" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="F760" r:id="rId197" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186821&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E760" r:id="rId198" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="D760" r:id="rId199" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C760" r:id="rId200" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="F755" r:id="rId201" display="https://en.wikipedia.org/wiki/Bacillaceae" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E755" r:id="rId202" display="https://en.wikipedia.org/wiki/Bacillales" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="D755" r:id="rId203" display="https://en.wikipedia.org/wiki/Bacilli" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C755" r:id="rId204" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="F756" r:id="rId205" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=468&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="E756" r:id="rId206" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72274&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="D756" r:id="rId207" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C756" r:id="rId208" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="F748" r:id="rId209" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2070&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="E748" r:id="rId210" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85010&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="D748" r:id="rId211" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C748" r:id="rId212" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="F985" r:id="rId213" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=481&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E985" r:id="rId214" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206351&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="D985" r:id="rId215" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C985" r:id="rId216" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="F990" r:id="rId217" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81850&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="E990" r:id="rId218" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="D990" r:id="rId219" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C990" r:id="rId220" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="F993" r:id="rId221" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="E993" r:id="rId222" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C993" r:id="rId223" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="D993" r:id="rId224" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="F998" r:id="rId225" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903411&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="E998" r:id="rId226" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C998" r:id="rId227" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="D998" r:id="rId228" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="F886" r:id="rId229" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2004&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E886" r:id="rId230" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85012&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="D886" r:id="rId231" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C886" r:id="rId232" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="F880" r:id="rId233" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="E880" r:id="rId234" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="D880" r:id="rId235" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C880" r:id="rId236" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="F881" r:id="rId237" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=568386&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E881" r:id="rId238" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1775403&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="D881" r:id="rId239" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C881" r:id="rId240" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="F747" r:id="rId241" tooltip="Pseudomonadaceae" display="https://en.wikipedia.org/wiki/Pseudomonadaceae" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="E747" r:id="rId242" tooltip="Pseudomonadales" display="https://en.wikipedia.org/wiki/Pseudomonadales" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="D747" r:id="rId243" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C747" r:id="rId244" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="F879" r:id="rId245" tooltip="Staphylococcaceae" display="https://en.wikipedia.org/wiki/Staphylococcaceae" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="F883" r:id="rId246" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="E883" r:id="rId247" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="D883" r:id="rId248" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="C883" r:id="rId249" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="F884" r:id="rId250" tooltip="Streptomycetaceae" display="https://en.wikipedia.org/wiki/Streptomycetaceae" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E884" r:id="rId251" tooltip="Actinomycetales" display="https://en.wikipedia.org/wiki/Actinomycetales" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="D884" r:id="rId252" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="C884" r:id="rId253" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E984" r:id="rId254" display="https://en.wikipedia.org/wiki/Bacillales" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="D984" r:id="rId255" display="https://en.wikipedia.org/wiki/Bacilli" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="C984" r:id="rId256" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="F983" r:id="rId257" display="https://en.wikipedia.org/wiki/Bacillaceae" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="E983" r:id="rId258" display="https://en.wikipedia.org/wiki/Bacillales" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="D983" r:id="rId259" display="https://en.wikipedia.org/wiki/Bacilli" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="C983" r:id="rId260" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="F982" r:id="rId261" tooltip="Vibrionaceae" display="https://en.wikipedia.org/wiki/Vibrionaceae" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="E982" r:id="rId262" tooltip="Vibrionales" display="https://en.wikipedia.org/wiki/Vibrionales" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="D982" r:id="rId263" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="C982" r:id="rId264" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="D564" r:id="rId265" tooltip="class" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="C564" r:id="rId266" tooltip="phylum" display=" Firmicutes" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="F727" r:id="rId267" tooltip="family" display=" Promicromonosporaceae" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="E727" r:id="rId268" tooltip="order" display=" Micrococcales" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="D727" r:id="rId269" tooltip="class" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="C727" r:id="rId270" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="F726" r:id="rId271" tooltip="family" display=" Prevotellaceae" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="E726" r:id="rId272" tooltip="order" display=" Bacteroidales" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="D726" r:id="rId273" tooltip="class" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="C726" r:id="rId274" tooltip="phylum" display=" Bacteroidetes" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="F723" r:id="rId275" tooltip="family" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="E723" r:id="rId276" tooltip="order" display=" Bacteroidales" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="D723" r:id="rId277" tooltip="class" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="C723" r:id="rId278" tooltip="phylum" display=" Bacteroidetes" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="F720" r:id="rId279" tooltip="genus" display=" Pontibacillus" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="E720" r:id="rId280" tooltip="order" display=" Bacillales" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="D720" r:id="rId281" tooltip="class" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="C720" r:id="rId282" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="E717" r:id="rId283" tooltip="order" display=" Enterobacterales" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="D717" r:id="rId284" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="C717" r:id="rId285" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="F716" r:id="rId286" tooltip="family" display=" Nannocystaceae" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="E716" r:id="rId287" tooltip="order" display=" Myxococcales" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="D716" r:id="rId288" tooltip="class" display=" Deltaproteobacteria" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="C716" r:id="rId289" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="F712" r:id="rId290" tooltip="family" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="E712" r:id="rId291" tooltip="order" display=" Bacillales" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="D712" r:id="rId292" tooltip="class" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="F702" r:id="rId293" tooltip="family" display=" Phyllobacteriaceae" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="E702" r:id="rId294" tooltip="order" display=" Rhizobiales" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="D702" r:id="rId295" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="C702" r:id="rId296" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="F700" r:id="rId297" tooltip="family" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="E700" r:id="rId298" tooltip="order" display=" Enterobacterales" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="D700" r:id="rId299" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="C700" r:id="rId300" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="F699" r:id="rId301" tooltip="family" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="E699" r:id="rId302" tooltip="order" display=" Vibrionales" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="D699" r:id="rId303" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="C699" r:id="rId304" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="F697" r:id="rId305" tooltip="family" display=" Caulobacteraceae" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="E697" r:id="rId306" tooltip="order" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="D697" r:id="rId307" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="C697" r:id="rId308" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="E689" r:id="rId309" tooltip="Clostridiales" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="D689" r:id="rId310" tooltip="Clostridia" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="F683" r:id="rId311" tooltip="family" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="E683" r:id="rId312" tooltip="order" display=" Puniceicoccales" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="D683" r:id="rId313" tooltip="class" display=" Opitutae" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="C683" r:id="rId314" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="F676" r:id="rId315" tooltip="family" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="E676" r:id="rId316" tooltip="order" display=" Pasteurellales" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="D676" r:id="rId317" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="F674" r:id="rId318" tooltip="family" display=" Rhodobiaceae" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="E674" r:id="rId319" tooltip="order" display=" Rhizobiales" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="D674" r:id="rId320" tooltip="Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="F666" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="E666" r:id="rId322" tooltip="Rhodobacterales" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="D666" r:id="rId323" tooltip="Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="C666" r:id="rId324" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="F664" r:id="rId325" tooltip="family" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="E664" r:id="rId326" tooltip="order" display=" Bacillales" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="D664" r:id="rId327" tooltip="class" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="C664" r:id="rId328" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="F648" r:id="rId329" tooltip="family" display=" Alcaligenaceae" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="E648" r:id="rId330" tooltip="order" display=" Burkholderiales" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="D648" r:id="rId331" tooltip="class" display=" Betaproteobacteria" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="C648" r:id="rId332" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="F647" r:id="rId333" tooltip="family" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="E647" r:id="rId334" tooltip="order" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="D647" r:id="rId335" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="C647" r:id="rId336" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="F645" r:id="rId337" tooltip="family" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="E645" r:id="rId338" tooltip="order" display=" Rhizobiales" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="D645" r:id="rId339" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="C645" r:id="rId340" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="F644" r:id="rId341" tooltip="family" display=" Oceanospirillaceae" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="E644" r:id="rId342" tooltip="order" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="D644" r:id="rId343" tooltip="class" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="C644" r:id="rId344" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="F642" r:id="rId345" tooltip="family" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="E642" r:id="rId346" tooltip="order" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="C642" r:id="rId347" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="D642" r:id="rId348" tooltip="class" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="D635" r:id="rId349" tooltip="class" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="E635" r:id="rId350" tooltip="order" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="F635" r:id="rId351" tooltip="family" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="F632" r:id="rId352" tooltip="family" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="E632" r:id="rId353" tooltip="order" display=" Streptosporangiales" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="D632" r:id="rId354" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="F631" r:id="rId355" tooltip="family" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="E631" r:id="rId356" tooltip="order" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="D631" r:id="rId357" tooltip="class" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="D630" r:id="rId358" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="F630" r:id="rId359" tooltip="family" display=" Nocardioidaceae" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="E630" r:id="rId360" tooltip="order" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="F629" r:id="rId361" tooltip="family" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="E629" r:id="rId362" tooltip="order" display=" Corynebacteriales" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="D629" r:id="rId363" tooltip="class" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="C629" r:id="rId364" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="F625" r:id="rId365" tooltip="family" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="E625" r:id="rId366" tooltip="order" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="D625" r:id="rId367" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="F622" r:id="rId368" tooltip="family" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="E622" r:id="rId369" tooltip="order" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="D622" r:id="rId370" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="C622" r:id="rId371" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="F619" r:id="rId372" tooltip="family" display=" Sinobacteraceae" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="E619" r:id="rId373" tooltip="order" display=" Nevskiales" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="D619" r:id="rId374" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="C619" r:id="rId375" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="F618" r:id="rId376" tooltip="family" display=" Micrococcaceae" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="E618" r:id="rId377" tooltip="order" display=" Micrococcales" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="D618" r:id="rId378" tooltip="class" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="C618" r:id="rId379" tooltip="phylum" display=" Actinobacteria" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="F617" r:id="rId380" tooltip="family" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="E617" r:id="rId381" tooltip="order" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="D617" r:id="rId382" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="C617" r:id="rId383" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="F610" r:id="rId384" tooltip="family" display=" Halobacteroidaceae" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="E610" r:id="rId385" tooltip="order" display=" Halanaerobiales" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="D610" r:id="rId386" tooltip="class" display=" Clostridia" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="C610" r:id="rId387" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="F606" r:id="rId388" tooltip="family" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="E606" r:id="rId389" tooltip="order" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="D606" r:id="rId390" tooltip="class" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="C606" r:id="rId391" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="F605" r:id="rId392" tooltip="Mycobacterium" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="E605" r:id="rId393" tooltip="Corynebacterineae" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="D605" r:id="rId394" tooltip="Actinomycetales" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="C605" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="F598" r:id="rId396" tooltip="family" display=" Moritellaceae" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="E598" r:id="rId397" tooltip="order" display=" Alteromonadales" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="D598" r:id="rId398" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="E597" r:id="rId399" tooltip="order" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="D597" r:id="rId400" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="F596" r:id="rId401" tooltip="family" display=" Moraxellaceae" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="E596" r:id="rId402" tooltip="order" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="D596" r:id="rId403" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="C596" r:id="rId404" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="E593" r:id="rId405" tooltip="order" display=" Geodermatophilales" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="D593" r:id="rId406" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="C593" r:id="rId407" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="F592" r:id="rId408" tooltip="family" display=" Geodermatophilaceae" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="D592" r:id="rId409" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="C592" r:id="rId410" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="F585" r:id="rId411" tooltip="family" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="E585" r:id="rId412" tooltip="order" display=" Micromonosporales" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="D585" r:id="rId413" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="F584" r:id="rId414" tooltip="family" display=" Propionibacteriaceae" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="E584" r:id="rId415" tooltip="order" display=" Propionibacteriales" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="D584" r:id="rId416" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="C584" r:id="rId417" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="F582" r:id="rId418" tooltip="Micrococcus" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="E582" r:id="rId419" tooltip="Micrococcaceae" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="D582" r:id="rId420" tooltip="Micrococcales (page does not exist)" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="C582" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="F580" r:id="rId422" tooltip="family" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="E580" r:id="rId423" tooltip="order" display=" Cellvibrionales" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="C580" r:id="rId424" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="D580" r:id="rId425" tooltip="class" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="D579" r:id="rId426" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="F579" r:id="rId427" tooltip="family" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="E579" r:id="rId428" tooltip="order" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="C579" r:id="rId429" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="F575" r:id="rId430" tooltip="family" display=" Piscirickettsiaceae" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="E575" r:id="rId431" tooltip="order" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="D575" r:id="rId432" tooltip="Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="E573" r:id="rId433" tooltip="order" display=" Methylococcales" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="D573" r:id="rId434" tooltip="Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="F569" r:id="rId435" tooltip="family" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="E569" r:id="rId436" tooltip="order" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="D569" r:id="rId437" tooltip="class" display=" Betaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="F567" r:id="rId438" tooltip="family" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="E567" r:id="rId439" tooltip="order" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="D567" r:id="rId440" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="C567" r:id="rId441" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="F566" r:id="rId442" tooltip="family" display=" Enterococcaceae" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="E566" r:id="rId443" tooltip="Lactobacillales" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="D566" r:id="rId444" tooltip="Bacilli" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="F564" r:id="rId445" tooltip="family" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="E564" r:id="rId446" tooltip="order" display=" Veillonellales" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="C562" r:id="rId447" tooltip="phylum" display=" Firmicutes" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="F562" r:id="rId448" tooltip="family" display=" Selenomonadaceae" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="E562" r:id="rId449" tooltip="order" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="D562" r:id="rId450" tooltip="class" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="E557" r:id="rId451" tooltip="order" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="D557" r:id="rId452" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="C557" r:id="rId453" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="F556" r:id="rId454" tooltip="Oceanospirillaceae" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="E556" r:id="rId455" tooltip="Oceanospirillales" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="D556" r:id="rId456" tooltip="Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="C556" r:id="rId457" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="F554" r:id="rId458" tooltip="family" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="E554" r:id="rId459" tooltip="order" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="D554" r:id="rId460" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="C554" r:id="rId461" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="F553" r:id="rId462" tooltip="family" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="E553" r:id="rId463" tooltip="order" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="D553" r:id="rId464" tooltip="class" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="C553" r:id="rId465" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="F447" r:id="rId466" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="E433" r:id="rId467" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="F433" r:id="rId468" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224464&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="F423" r:id="rId469" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="F419" r:id="rId470" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541019&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="C394" r:id="rId471" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="C384" r:id="rId472" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=57723&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="F383" r:id="rId473" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="C368" r:id="rId474" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="F368" r:id="rId475" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="C362" r:id="rId476" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="F362" r:id="rId477" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="F361" r:id="rId478" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543313&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="C361" r:id="rId479" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="F359" r:id="rId480" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="F354" r:id="rId481" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="F353" r:id="rId482" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="F352" r:id="rId483" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="C347" r:id="rId484" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="F343" r:id="rId485" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="E343" r:id="rId486" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="D343" r:id="rId487" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="F342" r:id="rId488" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="F336" r:id="rId489" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2304686&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="F341" r:id="rId490" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="E341" r:id="rId491" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="D341" r:id="rId492" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="D327" r:id="rId493" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="C314:D314" r:id="rId494" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="D312" r:id="rId495" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="F302" r:id="rId496" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="F297" r:id="rId497" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="D292" r:id="rId498" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="C292" r:id="rId499" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="F289" r:id="rId500" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="C289" r:id="rId501" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="D289" r:id="rId502" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="D288" r:id="rId503" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="D279" r:id="rId504" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="D278" r:id="rId505" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="F277" r:id="rId506" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="D276" r:id="rId507" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="F256" r:id="rId508" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="D256:D259" r:id="rId509" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="E256:E259" r:id="rId510" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="C256" r:id="rId511" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="F249" r:id="rId512" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="C248" r:id="rId513" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="C247" r:id="rId514" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="D245" r:id="rId515" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="C245" r:id="rId516" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="D242" r:id="rId517" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="C242" r:id="rId518" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="D241" r:id="rId519" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="F240" r:id="rId520" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="F185" r:id="rId521" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="F192" r:id="rId522" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=412032&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="D175" r:id="rId523" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="F152" r:id="rId524" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903410&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="D150" r:id="rId525" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="C150" r:id="rId526" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="F150" r:id="rId527" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="E150" r:id="rId528" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="C142" r:id="rId529" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="F142" r:id="rId530" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145358&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="F141" r:id="rId531" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="F135" r:id="rId532" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="F134" r:id="rId533" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=125316&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="F130" r:id="rId534" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="F128" r:id="rId535" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="F172" r:id="rId536" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="C163" r:id="rId537" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="D163" r:id="rId538" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="E171:E173" r:id="rId539" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="D162" r:id="rId540" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="C162" r:id="rId541" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="C157" r:id="rId542" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="F118" r:id="rId543" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85018&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="F94" r:id="rId544" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="E94" r:id="rId545" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="D94" r:id="rId546" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="F82" r:id="rId547" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="E82" r:id="rId548" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="D82" r:id="rId549" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="F81" r:id="rId550" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1524215&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="E81" r:id="rId551" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="C74" r:id="rId552" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="D74" r:id="rId553" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="F71" r:id="rId554" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="E71" r:id="rId555" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="D71" r:id="rId556" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="E69" r:id="rId557" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="D69" r:id="rId558" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="F69" r:id="rId559" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="F65" r:id="rId560" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="E65" r:id="rId561" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="D65" r:id="rId562" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="D61" r:id="rId563" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="F59" r:id="rId564" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=186817&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="E59" r:id="rId565" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="D59" r:id="rId566" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="F55" r:id="rId567" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="F47" r:id="rId568" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="E47" r:id="rId569" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="D47" r:id="rId570" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="D34" r:id="rId571" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="C34" r:id="rId572" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="E451" r:id="rId573" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="D451" r:id="rId574" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="C451" r:id="rId575" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="F449" r:id="rId576" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1570339&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="E449" r:id="rId577" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737405&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="D449" r:id="rId578" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="C449" r:id="rId579" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="F442" r:id="rId580" tooltip="Halomonadaceae" display="https://en.wikipedia.org/wiki/Halomonadaceae" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="E442" r:id="rId581" display="https://en.wikipedia.org/wiki/Oceanospirillales" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="D442" r:id="rId582" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="C442" r:id="rId583" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="F440" r:id="rId584" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="E440" r:id="rId585" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="D440" r:id="rId586" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="C440" r:id="rId587" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="F432" r:id="rId588" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=972&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="E432" r:id="rId589" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=53433&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="D432" r:id="rId590" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="F428" r:id="rId591" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224379&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="E428" r:id="rId592" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="D428" r:id="rId593" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="F426" r:id="rId594" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=712&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="E426" r:id="rId595" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135625&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="D426" r:id="rId596" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="F393" r:id="rId597" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85026&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="E393" r:id="rId598" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="D393" r:id="rId599" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="C393" r:id="rId600" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="F391" r:id="rId601" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="E391" r:id="rId602" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="C391" r:id="rId603" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="F388" r:id="rId604" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="E388" r:id="rId605" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="D388" r:id="rId606" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="C388" r:id="rId607" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="F386" r:id="rId608" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="E386" r:id="rId609" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200644&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="D386" r:id="rId610" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="C386" r:id="rId611" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="F380" r:id="rId612" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145358&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="E380" r:id="rId613" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="C380:D380" r:id="rId614" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="F377" r:id="rId615" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85030&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="E377" r:id="rId616" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="C377:D377" r:id="rId617" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="F376" r:id="rId618" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213422&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="E376" r:id="rId619" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69541&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="D376" r:id="rId620" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="C376" r:id="rId621" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="F375" r:id="rId622" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="E375" r:id="rId623" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="D375" r:id="rId624" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="C375" r:id="rId625" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="F371" r:id="rId626" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219687&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="E371" r:id="rId627" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219686&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="D371" r:id="rId628" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219685&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="C371" r:id="rId629" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=142182&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="E370" r:id="rId630" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="D370" r:id="rId631" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="C370" r:id="rId632" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="F360" r:id="rId633" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81850&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="E360" r:id="rId634" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="D360" r:id="rId635" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="C360" r:id="rId636" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="F348" r:id="rId637" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="E348" r:id="rId638" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200644&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="D348" r:id="rId639" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="C348" r:id="rId640" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="F345" r:id="rId641" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200667&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="E345" r:id="rId642" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="D345" r:id="rId643" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="C345" r:id="rId644" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="E332" r:id="rId645" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="D332" r:id="rId646" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="F331" r:id="rId647" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="E331" r:id="rId648" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="D331" r:id="rId649" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="F330" r:id="rId650" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="E330" r:id="rId651" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="D330" r:id="rId652" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="F328" r:id="rId653" tooltip="genus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=33986&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="E328" r:id="rId654" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="D328" r:id="rId655" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="C328" r:id="rId656" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="F326" r:id="rId657" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="E326" r:id="rId658" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908621&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="D326" r:id="rId659" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908620&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="C326" r:id="rId660" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="F324" r:id="rId661" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="E324" r:id="rId662" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="D324" r:id="rId663" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="C324" r:id="rId664" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="F323" r:id="rId665" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="E323" r:id="rId666" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="D323" r:id="rId667" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="C323" r:id="rId668" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="F321" r:id="rId669" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="E321" r:id="rId670" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="D321" r:id="rId671" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="C321" r:id="rId672" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="F319" r:id="rId673" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903409&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="E319" r:id="rId674" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="D319" r:id="rId675" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="C319" r:id="rId676" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="F316" r:id="rId677" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="E316" r:id="rId678" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="D316" r:id="rId679" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="C316" r:id="rId680" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="C315" r:id="rId681" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="D315" r:id="rId682" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="E315" r:id="rId683" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AA020000}"/>
+    <hyperlink ref="F315" r:id="rId684" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AB020000}"/>
+    <hyperlink ref="C310" r:id="rId685" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AC020000}"/>
+    <hyperlink ref="F310" r:id="rId686" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AD020000}"/>
+    <hyperlink ref="F300" r:id="rId687" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72276&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AE020000}"/>
+    <hyperlink ref="E300" r:id="rId688" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AF020000}"/>
+    <hyperlink ref="D300" r:id="rId689" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B0020000}"/>
+    <hyperlink ref="C300" r:id="rId690" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B1020000}"/>
+    <hyperlink ref="D298" r:id="rId691" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200643&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B2020000}"/>
+    <hyperlink ref="F298" r:id="rId692" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2005520&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B3020000}"/>
+    <hyperlink ref="E298" r:id="rId693" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=171549&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B4020000}"/>
+    <hyperlink ref="C298" r:id="rId694" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B5020000}"/>
+    <hyperlink ref="F294" r:id="rId695" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1775411&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B6020000}"/>
+    <hyperlink ref="E294" r:id="rId696" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B7020000}"/>
+    <hyperlink ref="D294" r:id="rId697" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B8020000}"/>
+    <hyperlink ref="C294" r:id="rId698" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B9020000}"/>
+    <hyperlink ref="C293" r:id="rId699" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BA020000}"/>
+    <hyperlink ref="D293" r:id="rId700" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BB020000}"/>
+    <hyperlink ref="F293" r:id="rId701" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85029&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BC020000}"/>
+    <hyperlink ref="E293" r:id="rId702" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BD020000}"/>
+    <hyperlink ref="F291" r:id="rId703" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=868&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BE020000}"/>
+    <hyperlink ref="E291" r:id="rId704" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135615&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BF020000}"/>
+    <hyperlink ref="D291" r:id="rId705" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C0020000}"/>
+    <hyperlink ref="C291" r:id="rId706" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C1020000}"/>
+    <hyperlink ref="F290" r:id="rId707" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31977&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C2020000}"/>
+    <hyperlink ref="E290" r:id="rId708" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843489&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C3020000}"/>
+    <hyperlink ref="D290" r:id="rId709" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C4020000}"/>
+    <hyperlink ref="C290" r:id="rId710" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C5020000}"/>
+    <hyperlink ref="F287" r:id="rId711" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213421&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C6020000}"/>
+    <hyperlink ref="E287" r:id="rId712" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69541&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C7020000}"/>
+    <hyperlink ref="D287" r:id="rId713" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C8020000}"/>
+    <hyperlink ref="C287" r:id="rId714" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C9020000}"/>
+    <hyperlink ref="C284" r:id="rId715" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CA020000}"/>
+    <hyperlink ref="D284" r:id="rId716" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CB020000}"/>
+    <hyperlink ref="E284" r:id="rId717" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CC020000}"/>
+    <hyperlink ref="F284" r:id="rId718" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=194924&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CD020000}"/>
+    <hyperlink ref="F281" r:id="rId719" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CE020000}"/>
+    <hyperlink ref="E281" r:id="rId720" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909929&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CF020000}"/>
+    <hyperlink ref="D281" r:id="rId721" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D0020000}"/>
+    <hyperlink ref="C281" r:id="rId722" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D1020000}"/>
+    <hyperlink ref="F280" r:id="rId723" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D2020000}"/>
+    <hyperlink ref="E280" r:id="rId724" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909929&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D3020000}"/>
+    <hyperlink ref="D280" r:id="rId725" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D4020000}"/>
+    <hyperlink ref="C280" r:id="rId726" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D5020000}"/>
+    <hyperlink ref="E283" r:id="rId727" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D6020000}"/>
+    <hyperlink ref="C283" r:id="rId728" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D7020000}"/>
+    <hyperlink ref="D283" r:id="rId729" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D8020000}"/>
+    <hyperlink ref="F275" r:id="rId730" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224380&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D9020000}"/>
+    <hyperlink ref="E275" r:id="rId731" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DA020000}"/>
+    <hyperlink ref="D275" r:id="rId732" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DB020000}"/>
+    <hyperlink ref="F271" r:id="rId733" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DC020000}"/>
+    <hyperlink ref="E271" r:id="rId734" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DD020000}"/>
+    <hyperlink ref="D271" r:id="rId735" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DE020000}"/>
+    <hyperlink ref="F264" r:id="rId736" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DF020000}"/>
+    <hyperlink ref="E264" r:id="rId737" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E0020000}"/>
+    <hyperlink ref="D264" r:id="rId738" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E1020000}"/>
+    <hyperlink ref="C264" r:id="rId739" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E2020000}"/>
+    <hyperlink ref="F260" r:id="rId740" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E3020000}"/>
+    <hyperlink ref="E260" r:id="rId741" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E4020000}"/>
+    <hyperlink ref="D260" r:id="rId742" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E5020000}"/>
+    <hyperlink ref="C260" r:id="rId743" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E6020000}"/>
+    <hyperlink ref="F258" r:id="rId744" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E7020000}"/>
+    <hyperlink ref="C258" r:id="rId745" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E8020000}"/>
+    <hyperlink ref="F257" r:id="rId746" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E9020000}"/>
+    <hyperlink ref="C257" r:id="rId747" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EA020000}"/>
+    <hyperlink ref="F255" r:id="rId748" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1042322&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EB020000}"/>
+    <hyperlink ref="E255" r:id="rId749" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EC020000}"/>
+    <hyperlink ref="D255" r:id="rId750" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000ED020000}"/>
+    <hyperlink ref="C255" r:id="rId751" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EE020000}"/>
+    <hyperlink ref="F252" r:id="rId752" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=183710&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EF020000}"/>
+    <hyperlink ref="D252" r:id="rId753" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=188787&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F0020000}"/>
+    <hyperlink ref="E252" r:id="rId754" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=118964&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F1020000}"/>
+    <hyperlink ref="F250" r:id="rId755" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1202464&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F2020000}"/>
+    <hyperlink ref="E250" r:id="rId756" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1202465&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F3020000}"/>
+    <hyperlink ref="D250" r:id="rId757" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=301297&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F4020000}"/>
+    <hyperlink ref="C250" r:id="rId758" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200795&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F5020000}"/>
+    <hyperlink ref="F244" r:id="rId759" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135616&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F6020000}"/>
+    <hyperlink ref="E244" r:id="rId760" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72273&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F7020000}"/>
+    <hyperlink ref="D244" r:id="rId761" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F8020000}"/>
+    <hyperlink ref="C244" r:id="rId762" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F9020000}"/>
+    <hyperlink ref="F239" r:id="rId763" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FA020000}"/>
+    <hyperlink ref="E239" r:id="rId764" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FB020000}"/>
+    <hyperlink ref="D239" r:id="rId765" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FC020000}"/>
+    <hyperlink ref="C239" r:id="rId766" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FD020000}"/>
+    <hyperlink ref="D234" r:id="rId767" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FE020000}"/>
+    <hyperlink ref="F234" r:id="rId768" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1653&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FF020000}"/>
+    <hyperlink ref="E234" r:id="rId769" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000000030000}"/>
+    <hyperlink ref="C234" r:id="rId770" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000001030000}"/>
+    <hyperlink ref="F232" r:id="rId771" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138247&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000002030000}"/>
+    <hyperlink ref="E232" r:id="rId772" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138246&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000003030000}"/>
+    <hyperlink ref="D232" r:id="rId773" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138243&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000004030000}"/>
+    <hyperlink ref="C232" r:id="rId774" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138240&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000005030000}"/>
+    <hyperlink ref="F231" r:id="rId775" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000006030000}"/>
+    <hyperlink ref="E231" r:id="rId776" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000007030000}"/>
+    <hyperlink ref="D231" r:id="rId777" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000008030000}"/>
+    <hyperlink ref="C231" r:id="rId778" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000009030000}"/>
+    <hyperlink ref="F230" r:id="rId779" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000A030000}"/>
+    <hyperlink ref="E230" r:id="rId780" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000B030000}"/>
+    <hyperlink ref="D230" r:id="rId781" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000C030000}"/>
+    <hyperlink ref="C230" r:id="rId782" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000D030000}"/>
+    <hyperlink ref="F223" r:id="rId783" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84107&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000E030000}"/>
+    <hyperlink ref="E223" r:id="rId784" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84999&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000F030000}"/>
+    <hyperlink ref="D223" r:id="rId785" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84998&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000010030000}"/>
+    <hyperlink ref="C223" r:id="rId786" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000011030000}"/>
+    <hyperlink ref="F222" r:id="rId787" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000012030000}"/>
+    <hyperlink ref="E222" r:id="rId788" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000013030000}"/>
+    <hyperlink ref="D222" r:id="rId789" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000014030000}"/>
+    <hyperlink ref="C222" r:id="rId790" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000015030000}"/>
+    <hyperlink ref="F221" r:id="rId791" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000016030000}"/>
+    <hyperlink ref="F220" r:id="rId792" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000017030000}"/>
+    <hyperlink ref="F219" r:id="rId793" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000018030000}"/>
+    <hyperlink ref="F218" r:id="rId794" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000019030000}"/>
+    <hyperlink ref="F217" r:id="rId795" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001A030000}"/>
+    <hyperlink ref="E221" r:id="rId796" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001B030000}"/>
+    <hyperlink ref="E220" r:id="rId797" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001C030000}"/>
+    <hyperlink ref="E219" r:id="rId798" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001D030000}"/>
+    <hyperlink ref="E218" r:id="rId799" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001E030000}"/>
+    <hyperlink ref="E217" r:id="rId800" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001F030000}"/>
+    <hyperlink ref="D221" r:id="rId801" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000020030000}"/>
+    <hyperlink ref="D220" r:id="rId802" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000021030000}"/>
+    <hyperlink ref="D219" r:id="rId803" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000022030000}"/>
+    <hyperlink ref="D218" r:id="rId804" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000023030000}"/>
+    <hyperlink ref="D217" r:id="rId805" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000024030000}"/>
+    <hyperlink ref="C221" r:id="rId806" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000025030000}"/>
+    <hyperlink ref="C220" r:id="rId807" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000026030000}"/>
+    <hyperlink ref="C219" r:id="rId808" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000027030000}"/>
+    <hyperlink ref="C218" r:id="rId809" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000028030000}"/>
+    <hyperlink ref="C217" r:id="rId810" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000029030000}"/>
+    <hyperlink ref="F216" r:id="rId811" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002A030000}"/>
+    <hyperlink ref="F215" r:id="rId812" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002B030000}"/>
+    <hyperlink ref="E216" r:id="rId813" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002C030000}"/>
+    <hyperlink ref="E215" r:id="rId814" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002D030000}"/>
+    <hyperlink ref="D216" r:id="rId815" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002E030000}"/>
+    <hyperlink ref="D215" r:id="rId816" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002F030000}"/>
+    <hyperlink ref="C216" r:id="rId817" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000030030000}"/>
+    <hyperlink ref="C215" r:id="rId818" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000031030000}"/>
+    <hyperlink ref="F214" r:id="rId819" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000032030000}"/>
+    <hyperlink ref="E214" r:id="rId820" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000033030000}"/>
+    <hyperlink ref="D214" r:id="rId821" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000034030000}"/>
+    <hyperlink ref="C214" r:id="rId822" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000035030000}"/>
+    <hyperlink ref="F213" r:id="rId823" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000036030000}"/>
+    <hyperlink ref="E213" r:id="rId824" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000037030000}"/>
+    <hyperlink ref="D213" r:id="rId825" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000038030000}"/>
+    <hyperlink ref="C213" r:id="rId826" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000039030000}"/>
+    <hyperlink ref="F212" r:id="rId827" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003A030000}"/>
+    <hyperlink ref="E212" r:id="rId828" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003B030000}"/>
+    <hyperlink ref="D212" r:id="rId829" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003C030000}"/>
+    <hyperlink ref="C212" r:id="rId830" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003D030000}"/>
+    <hyperlink ref="F211" r:id="rId831" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003E030000}"/>
+    <hyperlink ref="E211" r:id="rId832" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003F030000}"/>
+    <hyperlink ref="C211:D211" r:id="rId833" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000040030000}"/>
+    <hyperlink ref="F208" r:id="rId834" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000041030000}"/>
+    <hyperlink ref="E208" r:id="rId835" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000042030000}"/>
+    <hyperlink ref="D208" r:id="rId836" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000043030000}"/>
+    <hyperlink ref="C208" r:id="rId837" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000044030000}"/>
+    <hyperlink ref="F206" r:id="rId838" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000045030000}"/>
+    <hyperlink ref="E206" r:id="rId839" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000046030000}"/>
+    <hyperlink ref="D206" r:id="rId840" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000047030000}"/>
+    <hyperlink ref="C206" r:id="rId841" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000048030000}"/>
+    <hyperlink ref="F204" r:id="rId842" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191412&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000049030000}"/>
+    <hyperlink ref="E204" r:id="rId843" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191411&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004A030000}"/>
+    <hyperlink ref="D204" r:id="rId844" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191410&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004B030000}"/>
+    <hyperlink ref="C204" r:id="rId845" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004C030000}"/>
+    <hyperlink ref="F198" r:id="rId846" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=712&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004D030000}"/>
+    <hyperlink ref="E198" r:id="rId847" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135625&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004E030000}"/>
+    <hyperlink ref="D198" r:id="rId848" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004F030000}"/>
+    <hyperlink ref="C198" r:id="rId849" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000050030000}"/>
+    <hyperlink ref="F195" r:id="rId850" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706371&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000051030000}"/>
+    <hyperlink ref="E195" r:id="rId851" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706369&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000052030000}"/>
+    <hyperlink ref="D195" r:id="rId852" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000053030000}"/>
+    <hyperlink ref="C195" r:id="rId853" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000054030000}"/>
+    <hyperlink ref="F194" r:id="rId854" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85017&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000055030000}"/>
+    <hyperlink ref="E194" r:id="rId855" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000056030000}"/>
+    <hyperlink ref="C194:D194" r:id="rId856" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000057030000}"/>
+    <hyperlink ref="F193" r:id="rId857" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85016&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000058030000}"/>
+    <hyperlink ref="E193" r:id="rId858" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000059030000}"/>
+    <hyperlink ref="C193:D193" r:id="rId859" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005A030000}"/>
+    <hyperlink ref="F179" r:id="rId860" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1501348&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005B030000}"/>
+    <hyperlink ref="E179" r:id="rId861" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005C030000}"/>
+    <hyperlink ref="D179" r:id="rId862" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005D030000}"/>
+    <hyperlink ref="C179" r:id="rId863" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005E030000}"/>
+    <hyperlink ref="F178" r:id="rId864" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1501348&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005F030000}"/>
+    <hyperlink ref="E178" r:id="rId865" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000060030000}"/>
+    <hyperlink ref="D178" r:id="rId866" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000061030000}"/>
+    <hyperlink ref="C178" r:id="rId867" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000062030000}"/>
+    <hyperlink ref="F173" r:id="rId868" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000063030000}"/>
+    <hyperlink ref="E173" r:id="rId869" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000064030000}"/>
+    <hyperlink ref="D173" r:id="rId870" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000065030000}"/>
+    <hyperlink ref="C173" r:id="rId871" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000066030000}"/>
+    <hyperlink ref="F170" r:id="rId872" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693073&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000067030000}"/>
+    <hyperlink ref="E170" r:id="rId873" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693072&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000068030000}"/>
+    <hyperlink ref="D170" r:id="rId874" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693071&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000069030000}"/>
+    <hyperlink ref="C170" r:id="rId875" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=67814&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006A030000}"/>
+    <hyperlink ref="F165" r:id="rId876" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006B030000}"/>
+    <hyperlink ref="E165" r:id="rId877" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006C030000}"/>
+    <hyperlink ref="C165" r:id="rId878" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006D030000}"/>
+    <hyperlink ref="D165" r:id="rId879" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006E030000}"/>
+    <hyperlink ref="F159" r:id="rId880" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903409&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006F030000}"/>
+    <hyperlink ref="E159" r:id="rId881" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000070030000}"/>
+    <hyperlink ref="D159" r:id="rId882" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000071030000}"/>
+    <hyperlink ref="C159" r:id="rId883" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000072030000}"/>
+    <hyperlink ref="F156" r:id="rId884" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186820&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000073030000}"/>
+    <hyperlink ref="E156" r:id="rId885" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000074030000}"/>
+    <hyperlink ref="D156" r:id="rId886" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000075030000}"/>
+    <hyperlink ref="C156" r:id="rId887" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000076030000}"/>
+    <hyperlink ref="F155" r:id="rId888" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=76892&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000077030000}"/>
+    <hyperlink ref="E155" r:id="rId889" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204458&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000078030000}"/>
+    <hyperlink ref="D155" r:id="rId890" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0000-000079030000}"/>
+    <hyperlink ref="C155" r:id="rId891" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0000-00007A030000}"/>
+    <hyperlink ref="D154" r:id="rId892" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007B030000}"/>
+    <hyperlink ref="C154" r:id="rId893" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007C030000}"/>
+    <hyperlink ref="E154" r:id="rId894" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007D030000}"/>
+    <hyperlink ref="F154" r:id="rId895" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85019&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007E030000}"/>
+    <hyperlink ref="F153" r:id="rId896" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007F030000}"/>
+    <hyperlink ref="E153" r:id="rId897" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000080030000}"/>
+    <hyperlink ref="D153" r:id="rId898" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000081030000}"/>
+    <hyperlink ref="C153" r:id="rId899" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000082030000}"/>
+    <hyperlink ref="D146" r:id="rId900" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000083030000}"/>
+    <hyperlink ref="C146" r:id="rId901" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000084030000}"/>
+    <hyperlink ref="F146" r:id="rId902" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000085030000}"/>
+    <hyperlink ref="E146" r:id="rId903" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000086030000}"/>
+    <hyperlink ref="D136" r:id="rId904" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000087030000}"/>
+    <hyperlink ref="F136" r:id="rId905" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31953&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000088030000}"/>
+    <hyperlink ref="E136" r:id="rId906" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85004&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000089030000}"/>
+    <hyperlink ref="C136" r:id="rId907" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008A030000}"/>
+    <hyperlink ref="F125" r:id="rId908" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=815&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008B030000}"/>
+    <hyperlink ref="E125" r:id="rId909" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=171549&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008C030000}"/>
+    <hyperlink ref="D125" r:id="rId910" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200643&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008D030000}"/>
+    <hyperlink ref="C125" r:id="rId911" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008E030000}"/>
+    <hyperlink ref="F121" r:id="rId912" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=335928&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008F030000}"/>
+    <hyperlink ref="E121" r:id="rId913" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000090030000}"/>
+    <hyperlink ref="D121" r:id="rId914" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0000-000091030000}"/>
+    <hyperlink ref="C121" r:id="rId915" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0000-000092030000}"/>
+    <hyperlink ref="D120" r:id="rId916" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000093030000}"/>
+    <hyperlink ref="F120" r:id="rId917" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135621&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000094030000}"/>
+    <hyperlink ref="E120" r:id="rId918" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72274&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000095030000}"/>
+    <hyperlink ref="C120" r:id="rId919" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000096030000}"/>
+    <hyperlink ref="E115" r:id="rId920" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000097030000}"/>
+    <hyperlink ref="D115" r:id="rId921" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000098030000}"/>
+    <hyperlink ref="C115" r:id="rId922" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000099030000}"/>
+    <hyperlink ref="F115" r:id="rId923" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=255475&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009A030000}"/>
+    <hyperlink ref="F112" r:id="rId924" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643824&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009B030000}"/>
+    <hyperlink ref="E112" r:id="rId925" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84999&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009C030000}"/>
+    <hyperlink ref="C112" r:id="rId926" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009D030000}"/>
+    <hyperlink ref="D112" r:id="rId927" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84998&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009E030000}"/>
+    <hyperlink ref="F107" r:id="rId928" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009F030000}"/>
+    <hyperlink ref="D107" r:id="rId929" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A0030000}"/>
+    <hyperlink ref="E107" r:id="rId930" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A1030000}"/>
+    <hyperlink ref="C107" r:id="rId931" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A2030000}"/>
+    <hyperlink ref="D109" r:id="rId932" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A3030000}"/>
+    <hyperlink ref="F109" r:id="rId933" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A4030000}"/>
+    <hyperlink ref="E109" r:id="rId934" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A5030000}"/>
+    <hyperlink ref="C109" r:id="rId935" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A6030000}"/>
+    <hyperlink ref="C99:D99" r:id="rId936" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A7030000}"/>
+    <hyperlink ref="F99" r:id="rId937" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2049&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A8030000}"/>
+    <hyperlink ref="E99" r:id="rId938" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2037&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A9030000}"/>
+    <hyperlink ref="F84" r:id="rId939" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AA030000}"/>
+    <hyperlink ref="E84" r:id="rId940" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AB030000}"/>
+    <hyperlink ref="D84" r:id="rId941" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AC030000}"/>
+    <hyperlink ref="F88" r:id="rId942" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AD030000}"/>
+    <hyperlink ref="E88" r:id="rId943" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AE030000}"/>
+    <hyperlink ref="D88" r:id="rId944" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AF030000}"/>
+    <hyperlink ref="F91" r:id="rId945" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B0030000}"/>
+    <hyperlink ref="E91" r:id="rId946" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B1030000}"/>
+    <hyperlink ref="D91" r:id="rId947" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B2030000}"/>
+    <hyperlink ref="F80" r:id="rId948" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B3030000}"/>
+    <hyperlink ref="E80" r:id="rId949" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B4030000}"/>
+    <hyperlink ref="D80" r:id="rId950" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B5030000}"/>
+    <hyperlink ref="F79" r:id="rId951" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1570339&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B6030000}"/>
+    <hyperlink ref="E79" r:id="rId952" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737405&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B7030000}"/>
+    <hyperlink ref="D79" r:id="rId953" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B8030000}"/>
+    <hyperlink ref="F77" r:id="rId954" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=83763&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B9030000}"/>
+    <hyperlink ref="E77" r:id="rId955" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135624&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BA030000}"/>
+    <hyperlink ref="D77" r:id="rId956" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000BB030000}"/>
+    <hyperlink ref="F75" r:id="rId957" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BC030000}"/>
+    <hyperlink ref="E75" r:id="rId958" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BD030000}"/>
+    <hyperlink ref="D75" r:id="rId959" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BE030000}"/>
+    <hyperlink ref="C75" r:id="rId960" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BF030000}"/>
+    <hyperlink ref="C73" r:id="rId961" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C0030000}"/>
+    <hyperlink ref="D73" r:id="rId962" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C1030000}"/>
+    <hyperlink ref="E73" r:id="rId963" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85010&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C2030000}"/>
+    <hyperlink ref="F72" r:id="rId964" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135620&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C3030000}"/>
+    <hyperlink ref="E72" r:id="rId965" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C4030000}"/>
+    <hyperlink ref="D72" r:id="rId966" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C5030000}"/>
+    <hyperlink ref="C72" r:id="rId967" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C6030000}"/>
+    <hyperlink ref="F66" r:id="rId968" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C7030000}"/>
+    <hyperlink ref="E66" r:id="rId969" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C8030000}"/>
+    <hyperlink ref="D66" r:id="rId970" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C9030000}"/>
+    <hyperlink ref="C66" r:id="rId971" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CA030000}"/>
+    <hyperlink ref="F57" r:id="rId972" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CB030000}"/>
+    <hyperlink ref="E57" r:id="rId973" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CC030000}"/>
+    <hyperlink ref="D57" r:id="rId974" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CD030000}"/>
+    <hyperlink ref="F52" r:id="rId975" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CE030000}"/>
+    <hyperlink ref="E52" r:id="rId976" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CF030000}"/>
+    <hyperlink ref="D52" r:id="rId977" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D0030000}"/>
+    <hyperlink ref="F54" r:id="rId978" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D1030000}"/>
+    <hyperlink ref="E54" r:id="rId979" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D2030000}"/>
+    <hyperlink ref="D54" r:id="rId980" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D3030000}"/>
+    <hyperlink ref="F51" r:id="rId981" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D4030000}"/>
+    <hyperlink ref="E51" r:id="rId982" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D5030000}"/>
+    <hyperlink ref="D51" r:id="rId983" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D6030000}"/>
+    <hyperlink ref="F40" r:id="rId984" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D7030000}"/>
+    <hyperlink ref="E40" r:id="rId985" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D8030000}"/>
+    <hyperlink ref="C40:D40" r:id="rId986" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D9030000}"/>
+    <hyperlink ref="F39" r:id="rId987" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DA030000}"/>
+    <hyperlink ref="E39" r:id="rId988" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DB030000}"/>
+    <hyperlink ref="D39" r:id="rId989" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DC030000}"/>
+    <hyperlink ref="C39" r:id="rId990" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DD030000}"/>
+    <hyperlink ref="C32:D32" r:id="rId991" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DE030000}"/>
+    <hyperlink ref="F32" r:id="rId992" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85015&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000DF030000}"/>
+    <hyperlink ref="E32" r:id="rId993" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85009&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E0030000}"/>
+    <hyperlink ref="F31" r:id="rId994" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E1030000}"/>
+    <hyperlink ref="E31" r:id="rId995" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E2030000}"/>
+    <hyperlink ref="D31" r:id="rId996" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E3030000}"/>
+    <hyperlink ref="F28" r:id="rId997" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85016&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E4030000}"/>
+    <hyperlink ref="E28" r:id="rId998" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E5030000}"/>
+    <hyperlink ref="D10" r:id="rId999" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E6030000}"/>
+    <hyperlink ref="F10" r:id="rId1000" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909930&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E7030000}"/>
+    <hyperlink ref="E10" r:id="rId1001" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843488&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E8030000}"/>
+    <hyperlink ref="F8" r:id="rId1002" tooltip="Alcaligenaceae" display="https://en.wikipedia.org/wiki/Alcaligenaceae" xr:uid="{00000000-0004-0000-0000-0000E9030000}"/>
+    <hyperlink ref="E8" r:id="rId1003" tooltip="Burkholderiales" display="https://en.wikipedia.org/wiki/Burkholderiales" xr:uid="{00000000-0004-0000-0000-0000EA030000}"/>
+    <hyperlink ref="D8" r:id="rId1004" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0000-0000EB030000}"/>
+    <hyperlink ref="F7" r:id="rId1005" tooltip="Acholeplasmataceae" display="https://en.wikipedia.org/wiki/Acholeplasmataceae" xr:uid="{00000000-0004-0000-0000-0000EC030000}"/>
+    <hyperlink ref="E7" r:id="rId1006" display="https://en.wikipedia.org/wiki/Acholeplasmataceae" xr:uid="{00000000-0004-0000-0000-0000ED030000}"/>
+    <hyperlink ref="D7" r:id="rId1007" tooltip="Mollicutes" display="https://en.wikipedia.org/wiki/Mollicutes" xr:uid="{00000000-0004-0000-0000-0000EE030000}"/>
+    <hyperlink ref="F2" r:id="rId1008" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EF030000}"/>
+    <hyperlink ref="E2" r:id="rId1009" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F0030000}"/>
+    <hyperlink ref="D2" r:id="rId1010" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F1030000}"/>
+    <hyperlink ref="C2" r:id="rId1011" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000F2030000}"/>
+    <hyperlink ref="F14" r:id="rId1012" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80864&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F3030000}"/>
+    <hyperlink ref="C16" r:id="rId1013" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F4030000}"/>
+    <hyperlink ref="C21" r:id="rId1014" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F5030000}"/>
+    <hyperlink ref="C19" r:id="rId1015" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F6030000}"/>
+    <hyperlink ref="C22" r:id="rId1016" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F7030000}"/>
+    <hyperlink ref="C17" r:id="rId1017" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F8030000}"/>
+    <hyperlink ref="C20" r:id="rId1018" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000F9030000}"/>
+    <hyperlink ref="F27" r:id="rId1019" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85015&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FA030000}"/>
+    <hyperlink ref="E48" r:id="rId1020" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FB030000}"/>
+    <hyperlink ref="D48" r:id="rId1021" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FC030000}"/>
+    <hyperlink ref="C48" r:id="rId1022" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FD030000}"/>
+    <hyperlink ref="F48" r:id="rId1023" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=267893&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FE030000}"/>
+    <hyperlink ref="E49" r:id="rId1024" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000FF030000}"/>
+    <hyperlink ref="D49" r:id="rId1025" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000000040000}"/>
+    <hyperlink ref="F49" r:id="rId1026" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000001040000}"/>
+    <hyperlink ref="D50" r:id="rId1027" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000002040000}"/>
+    <hyperlink ref="D68" r:id="rId1028" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000003040000}"/>
+    <hyperlink ref="E70" r:id="rId1029" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000004040000}"/>
+    <hyperlink ref="D70" r:id="rId1030" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000005040000}"/>
+    <hyperlink ref="F70" r:id="rId1031" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000006040000}"/>
+    <hyperlink ref="E78" r:id="rId1032" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000007040000}"/>
+    <hyperlink ref="D78" r:id="rId1033" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000008040000}"/>
+    <hyperlink ref="F85" r:id="rId1034" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543314&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000009040000}"/>
+    <hyperlink ref="E85" r:id="rId1035" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000A040000}"/>
+    <hyperlink ref="D85" r:id="rId1036" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000B040000}"/>
+    <hyperlink ref="D86" r:id="rId1037" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000C040000}"/>
+    <hyperlink ref="C86" r:id="rId1038" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000D040000}"/>
+    <hyperlink ref="F87" r:id="rId1039" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1499392&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000E040000}"/>
+    <hyperlink ref="C87" r:id="rId1040" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00000F040000}"/>
+    <hyperlink ref="C89" r:id="rId1041" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000010040000}"/>
+    <hyperlink ref="F89" r:id="rId1042" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=39&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000011040000}"/>
+    <hyperlink ref="C90" r:id="rId1043" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000012040000}"/>
+    <hyperlink ref="D90" r:id="rId1044" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000013040000}"/>
+    <hyperlink ref="F97" r:id="rId1045" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72276&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000014040000}"/>
+    <hyperlink ref="D122" r:id="rId1046" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000015040000}"/>
+    <hyperlink ref="C122" r:id="rId1047" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000016040000}"/>
+    <hyperlink ref="F122" r:id="rId1048" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000017040000}"/>
+    <hyperlink ref="D129" r:id="rId1049" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0000-000018040000}"/>
+    <hyperlink ref="D132" r:id="rId1050" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0000-000019040000}"/>
+    <hyperlink ref="F132" r:id="rId1051" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=45404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001A040000}"/>
+    <hyperlink ref="F143" r:id="rId1052" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=506&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001B040000}"/>
+    <hyperlink ref="F145" r:id="rId1053" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001C040000}"/>
+    <hyperlink ref="F149" r:id="rId1054" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41294&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00001D040000}"/>
+    <hyperlink ref="D149" r:id="rId1055" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0000-00001E040000}"/>
+    <hyperlink ref="C149" r:id="rId1056" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0000-00001F040000}"/>
+    <hyperlink ref="E160" r:id="rId1057" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000020040000}"/>
+    <hyperlink ref="D160" r:id="rId1058" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000021040000}"/>
+    <hyperlink ref="C160" r:id="rId1059" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000022040000}"/>
+    <hyperlink ref="F160" r:id="rId1060" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903416&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000023040000}"/>
+    <hyperlink ref="F161" r:id="rId1061" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000024040000}"/>
+    <hyperlink ref="C166" r:id="rId1062" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000025040000}"/>
+    <hyperlink ref="D166" r:id="rId1063" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000026040000}"/>
+    <hyperlink ref="F166" r:id="rId1064" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000027040000}"/>
+    <hyperlink ref="E166" r:id="rId1065" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000028040000}"/>
+    <hyperlink ref="E167" r:id="rId1066" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000029040000}"/>
+    <hyperlink ref="F168" r:id="rId1067" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543371&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002A040000}"/>
+    <hyperlink ref="D168" r:id="rId1068" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002B040000}"/>
+    <hyperlink ref="E168" r:id="rId1069" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002C040000}"/>
+    <hyperlink ref="E174" r:id="rId1070" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002D040000}"/>
+    <hyperlink ref="F174" r:id="rId1071" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002E040000}"/>
+    <hyperlink ref="D174" r:id="rId1072" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00002F040000}"/>
+    <hyperlink ref="F182" r:id="rId1073" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000030040000}"/>
+    <hyperlink ref="E182" r:id="rId1074" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000031040000}"/>
+    <hyperlink ref="C182" r:id="rId1075" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000032040000}"/>
+    <hyperlink ref="D182" r:id="rId1076" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000033040000}"/>
+    <hyperlink ref="C183" r:id="rId1077" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000034040000}"/>
+    <hyperlink ref="D183" r:id="rId1078" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000035040000}"/>
+    <hyperlink ref="F200" r:id="rId1079" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000036040000}"/>
+    <hyperlink ref="E209" r:id="rId1080" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000037040000}"/>
+    <hyperlink ref="F224" r:id="rId1081" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=267889&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000038040000}"/>
+    <hyperlink ref="F272:F273" r:id="rId1082" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000039040000}"/>
+    <hyperlink ref="E272:E273" r:id="rId1083" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003A040000}"/>
+    <hyperlink ref="D272:D273" r:id="rId1084" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003B040000}"/>
+    <hyperlink ref="F274" r:id="rId1085" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224380&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003C040000}"/>
+    <hyperlink ref="E274" r:id="rId1086" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003D040000}"/>
+    <hyperlink ref="D274" r:id="rId1087" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003E040000}"/>
+    <hyperlink ref="C282" r:id="rId1088" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00003F040000}"/>
+    <hyperlink ref="F282" r:id="rId1089" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000040040000}"/>
+    <hyperlink ref="E282" r:id="rId1090" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000041040000}"/>
+    <hyperlink ref="D282" r:id="rId1091" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000042040000}"/>
+    <hyperlink ref="C285" r:id="rId1092" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000043040000}"/>
+    <hyperlink ref="D285" r:id="rId1093" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000044040000}"/>
+    <hyperlink ref="C305" r:id="rId1094" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000045040000}"/>
+    <hyperlink ref="D311" r:id="rId1095" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000046040000}"/>
+    <hyperlink ref="F311" r:id="rId1096" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2066474&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000047040000}"/>
+    <hyperlink ref="E310" r:id="rId1097" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000048040000}"/>
+    <hyperlink ref="D310" r:id="rId1098" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000049040000}"/>
+    <hyperlink ref="C322" r:id="rId1099" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004A040000}"/>
+    <hyperlink ref="C349" r:id="rId1100" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004B040000}"/>
+    <hyperlink ref="F349" r:id="rId1101" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=89373&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004C040000}"/>
+    <hyperlink ref="F350" r:id="rId1102" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2762284&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004D040000}"/>
+    <hyperlink ref="F357" r:id="rId1103" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=34064&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004E040000}"/>
+    <hyperlink ref="F367" r:id="rId1104" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=90627&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00004F040000}"/>
+    <hyperlink ref="F385" r:id="rId1105" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000050040000}"/>
+    <hyperlink ref="F390" r:id="rId1106" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000051040000}"/>
+    <hyperlink ref="E390" r:id="rId1107" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000052040000}"/>
+    <hyperlink ref="D390" r:id="rId1108" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000053040000}"/>
+    <hyperlink ref="C390" r:id="rId1109" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000054040000}"/>
+    <hyperlink ref="F392" r:id="rId1110" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85034&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000055040000}"/>
+    <hyperlink ref="D392" r:id="rId1111" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000056040000}"/>
+    <hyperlink ref="C392" r:id="rId1112" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000057040000}"/>
+    <hyperlink ref="D391" r:id="rId1113" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000058040000}"/>
+    <hyperlink ref="F422" r:id="rId1114" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000059040000}"/>
+    <hyperlink ref="F427" r:id="rId1115" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903412&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005A040000}"/>
+    <hyperlink ref="F439" r:id="rId1116" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=53434&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005B040000}"/>
+    <hyperlink ref="C450" r:id="rId1117" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0000-00005C040000}"/>
+    <hyperlink ref="E452" r:id="rId1118" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005D040000}"/>
+    <hyperlink ref="D452" r:id="rId1119" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005E040000}"/>
+    <hyperlink ref="F454" r:id="rId1120" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69657&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00005F040000}"/>
+    <hyperlink ref="F463" r:id="rId1121" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=292630&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000060040000}"/>
+    <hyperlink ref="F471" r:id="rId1122" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000061040000}"/>
+    <hyperlink ref="F479" r:id="rId1123" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000062040000}"/>
+    <hyperlink ref="F482" r:id="rId1124" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85022&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000063040000}"/>
+    <hyperlink ref="F495" r:id="rId1125" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000064040000}"/>
+    <hyperlink ref="F498" r:id="rId1126" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000065040000}"/>
+    <hyperlink ref="D503" r:id="rId1127" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000066040000}"/>
+    <hyperlink ref="C503" r:id="rId1128" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000067040000}"/>
+    <hyperlink ref="C503:D503" r:id="rId1129" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000068040000}"/>
+    <hyperlink ref="F504" r:id="rId1130" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000069040000}"/>
+    <hyperlink ref="C515" r:id="rId1131" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=74015&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006A040000}"/>
+    <hyperlink ref="F520" r:id="rId1132" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006B040000}"/>
+    <hyperlink ref="F557" r:id="rId1133" tooltip="Oceanospirillaceae" xr:uid="{00000000-0004-0000-0000-00006C040000}"/>
+    <hyperlink ref="F570" r:id="rId1134" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119045&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00006D040000}"/>
+    <hyperlink ref="E570" r:id="rId1135" tooltip="order" xr:uid="{00000000-0004-0000-0000-00006E040000}"/>
+    <hyperlink ref="D570" r:id="rId1136" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-00006F040000}"/>
+    <hyperlink ref="F548" r:id="rId1137" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69657&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000070040000}"/>
+    <hyperlink ref="D548" r:id="rId1138" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-000071040000}"/>
+    <hyperlink ref="C548" r:id="rId1139" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000072040000}"/>
+    <hyperlink ref="D549" r:id="rId1140" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-000073040000}"/>
+    <hyperlink ref="C549" r:id="rId1141" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000074040000}"/>
+    <hyperlink ref="F561" r:id="rId1142" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000075040000}"/>
+    <hyperlink ref="E561" r:id="rId1143" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000076040000}"/>
+    <hyperlink ref="D561" r:id="rId1144" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000077040000}"/>
+    <hyperlink ref="C561" r:id="rId1145" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000078040000}"/>
+    <hyperlink ref="F544" r:id="rId1146" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1042322&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000079040000}"/>
+    <hyperlink ref="D536" r:id="rId1147" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-00007A040000}"/>
+    <hyperlink ref="F532" r:id="rId1148" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186820&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007B040000}"/>
+    <hyperlink ref="E594" r:id="rId1149" tooltip="order" display=" Geodermatophilales" xr:uid="{00000000-0004-0000-0000-00007C040000}"/>
+    <hyperlink ref="F593" r:id="rId1150" tooltip="family" display=" Geodermatophilaceae" xr:uid="{00000000-0004-0000-0000-00007D040000}"/>
+    <hyperlink ref="F597" r:id="rId1151" tooltip="family" display=" Moraxellaceae" xr:uid="{00000000-0004-0000-0000-00007E040000}"/>
+    <hyperlink ref="E592" r:id="rId1152" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00007F040000}"/>
+    <hyperlink ref="D576" r:id="rId1153" tooltip="Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-000080040000}"/>
+    <hyperlink ref="F608" r:id="rId1154" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224463&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000081040000}"/>
+    <hyperlink ref="E608" r:id="rId1155" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000082040000}"/>
+    <hyperlink ref="F614" r:id="rId1156" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000083040000}"/>
+    <hyperlink ref="F616" r:id="rId1157" tooltip="family" xr:uid="{00000000-0004-0000-0000-000084040000}"/>
+    <hyperlink ref="E616" r:id="rId1158" tooltip="order" xr:uid="{00000000-0004-0000-0000-000085040000}"/>
+    <hyperlink ref="D616" r:id="rId1159" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-000086040000}"/>
+    <hyperlink ref="C616" r:id="rId1160" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0000-000087040000}"/>
+    <hyperlink ref="F634" r:id="rId1161" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000088040000}"/>
+    <hyperlink ref="F637" r:id="rId1162" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000089040000}"/>
+    <hyperlink ref="F660" r:id="rId1163" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=216572&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008A040000}"/>
+    <hyperlink ref="D675" r:id="rId1164" tooltip="Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-00008B040000}"/>
+    <hyperlink ref="F669" r:id="rId1165" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008C040000}"/>
+    <hyperlink ref="F677" r:id="rId1166" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=361606&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00008D040000}"/>
+    <hyperlink ref="D682" r:id="rId1167" tooltip="Alphaproteobacteria" xr:uid="{00000000-0004-0000-0000-00008E040000}"/>
+    <hyperlink ref="C682" r:id="rId1168" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0000-00008F040000}"/>
+    <hyperlink ref="F684" r:id="rId1169" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=292628&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000090040000}"/>
+    <hyperlink ref="F685" r:id="rId1170" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000091040000}"/>
+    <hyperlink ref="F686" r:id="rId1171" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000092040000}"/>
+    <hyperlink ref="F687" r:id="rId1172" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000093040000}"/>
+    <hyperlink ref="F688" r:id="rId1173" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000094040000}"/>
+    <hyperlink ref="F690" r:id="rId1174" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-000095040000}"/>
+    <hyperlink ref="E690" r:id="rId1175" tooltip="Clostridiales" xr:uid="{00000000-0004-0000-0000-000096040000}"/>
+    <hyperlink ref="D690" r:id="rId1176" tooltip="Clostridia" xr:uid="{00000000-0004-0000-0000-000097040000}"/>
+    <hyperlink ref="D704" r:id="rId1177" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-000098040000}"/>
+    <hyperlink ref="C704" r:id="rId1178" tooltip="phylum" xr:uid="{00000000-0004-0000-0000-000099040000}"/>
+    <hyperlink ref="F705" r:id="rId1179" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009A040000}"/>
+    <hyperlink ref="F703" r:id="rId1180" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009B040000}"/>
+    <hyperlink ref="F707" r:id="rId1181" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85018&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009C040000}"/>
+    <hyperlink ref="F709" r:id="rId1182" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009D040000}"/>
+    <hyperlink ref="F710" r:id="rId1183" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-00009E040000}"/>
+    <hyperlink ref="E718" r:id="rId1184" tooltip="order" display=" Enterobacterales" xr:uid="{00000000-0004-0000-0000-00009F040000}"/>
+    <hyperlink ref="F743" r:id="rId1185" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A0040000}"/>
+    <hyperlink ref="D745" r:id="rId1186" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000A1040000}"/>
+    <hyperlink ref="C745" r:id="rId1187" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0000-0000A2040000}"/>
+    <hyperlink ref="F753" r:id="rId1188" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A3040000}"/>
+    <hyperlink ref="E753" r:id="rId1189" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A4040000}"/>
+    <hyperlink ref="E770" r:id="rId1190" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A5040000}"/>
+    <hyperlink ref="F780" r:id="rId1191" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A6040000}"/>
+    <hyperlink ref="D780" r:id="rId1192" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A7040000}"/>
+    <hyperlink ref="C780" r:id="rId1193" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A8040000}"/>
+    <hyperlink ref="E782" r:id="rId1194" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000A9040000}"/>
+    <hyperlink ref="F789" r:id="rId1195" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AA040000}"/>
+    <hyperlink ref="E789" r:id="rId1196" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AB040000}"/>
+    <hyperlink ref="F798" r:id="rId1197" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AC040000}"/>
+    <hyperlink ref="F801" r:id="rId1198" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AD040000}"/>
+    <hyperlink ref="F818" r:id="rId1199" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AE040000}"/>
+    <hyperlink ref="D828" r:id="rId1200" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1937959&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000AF040000}"/>
+    <hyperlink ref="D882" r:id="rId1201" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0000-0000B0040000}"/>
+    <hyperlink ref="C882" r:id="rId1202" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0000-0000B1040000}"/>
+    <hyperlink ref="F901" r:id="rId1203" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=75682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B2040000}"/>
+    <hyperlink ref="F908" r:id="rId1204" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B3040000}"/>
+    <hyperlink ref="F910" r:id="rId1205" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B4040000}"/>
+    <hyperlink ref="E910" r:id="rId1206" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B5040000}"/>
+    <hyperlink ref="D910" r:id="rId1207" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B6040000}"/>
+    <hyperlink ref="C910" r:id="rId1208" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B7040000}"/>
+    <hyperlink ref="F921" r:id="rId1209" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=539000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B8040000}"/>
+    <hyperlink ref="D921" r:id="rId1210" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000B9040000}"/>
+    <hyperlink ref="C921" r:id="rId1211" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BA040000}"/>
+    <hyperlink ref="D922" r:id="rId1212" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BB040000}"/>
+    <hyperlink ref="F924" r:id="rId1213" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BC040000}"/>
+    <hyperlink ref="F927" r:id="rId1214" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BD040000}"/>
+    <hyperlink ref="E926" r:id="rId1215" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BE040000}"/>
+    <hyperlink ref="F926" r:id="rId1216" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000BF040000}"/>
+    <hyperlink ref="D962" r:id="rId1217" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C0040000}"/>
+    <hyperlink ref="C977" r:id="rId1218" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C1040000}"/>
+    <hyperlink ref="E986" r:id="rId1219" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206351&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C2040000}"/>
+    <hyperlink ref="D987" r:id="rId1220" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0000-0000C3040000}"/>
+    <hyperlink ref="C987" r:id="rId1221" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0000-0000C4040000}"/>
+    <hyperlink ref="F1001" r:id="rId1222" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C5040000}"/>
+    <hyperlink ref="D301" r:id="rId1223" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C6040000}"/>
+    <hyperlink ref="C301" r:id="rId1224" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C7040000}"/>
+    <hyperlink ref="E318" r:id="rId1225" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C8040000}"/>
+    <hyperlink ref="D318" r:id="rId1226" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000C9040000}"/>
+    <hyperlink ref="C318" r:id="rId1227" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CA040000}"/>
+    <hyperlink ref="F318" r:id="rId1228" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CB040000}"/>
+    <hyperlink ref="F332" r:id="rId1229" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000CC040000}"/>
+    <hyperlink ref="C3:C7" r:id="rId1230" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000CD040000}"/>
+    <hyperlink ref="C10" r:id="rId1231" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000CE040000}"/>
+    <hyperlink ref="C9" r:id="rId1232" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000CF040000}"/>
+    <hyperlink ref="C31" r:id="rId1233" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000D0040000}"/>
+    <hyperlink ref="C47" r:id="rId1234" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000D1040000}"/>
+    <hyperlink ref="C52" r:id="rId1235" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000D2040000}"/>
+    <hyperlink ref="C53:C55" r:id="rId1236" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000D3040000}"/>
+    <hyperlink ref="C57" r:id="rId1237" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000D4040000}"/>
+    <hyperlink ref="C59" r:id="rId1238" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000D5040000}"/>
+    <hyperlink ref="C61" r:id="rId1239" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000D6040000}"/>
+    <hyperlink ref="C65" r:id="rId1240" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000D7040000}"/>
+    <hyperlink ref="C68" r:id="rId1241" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000D8040000}"/>
+    <hyperlink ref="C78" r:id="rId1242" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000D9040000}"/>
+    <hyperlink ref="C82" r:id="rId1243" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000DA040000}"/>
+    <hyperlink ref="C83:C85" r:id="rId1244" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000DB040000}"/>
+    <hyperlink ref="C88" r:id="rId1245" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000DC040000}"/>
+    <hyperlink ref="C91" r:id="rId1246" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000DD040000}"/>
+    <hyperlink ref="C597:C598" r:id="rId1247" tooltip="phylum" display="Proteobacteria" xr:uid="{00000000-0004-0000-0000-0000DE040000}"/>
+    <hyperlink ref="C585:C586" r:id="rId1248" tooltip="phylum" display="Actinobacteria" xr:uid="{00000000-0004-0000-0000-0000DF040000}"/>
+    <hyperlink ref="C311:C313" r:id="rId1249" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E0040000}"/>
+    <hyperlink ref="C452:C453" r:id="rId1250" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000E1040000}"/>
+    <hyperlink ref="C565:C566" r:id="rId1251" tooltip="phylum" display=" Firmicutes" xr:uid="{00000000-0004-0000-0000-0000E2040000}"/>
+    <hyperlink ref="C568:C577" r:id="rId1252" tooltip="phylum" display="Proteobacteria" xr:uid="{00000000-0004-0000-0000-0000E3040000}"/>
+    <hyperlink ref="C623:C627" r:id="rId1253" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0000-0000E4040000}"/>
+    <hyperlink ref="C630:C632" r:id="rId1254" tooltip="phylum" display="Actinobacteria" xr:uid="{00000000-0004-0000-0000-0000E5040000}"/>
+    <hyperlink ref="C922:C925" r:id="rId1255" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E6040000}"/>
+    <hyperlink ref="C23:C29" r:id="rId1256" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E7040000}"/>
+    <hyperlink ref="C49:C51" r:id="rId1257" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000E8040000}"/>
+    <hyperlink ref="C69:C71" r:id="rId1258" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0000-0000E9040000}"/>
+    <hyperlink ref="C79:C80" r:id="rId1259" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EA040000}"/>
+    <hyperlink ref="C167:C168" r:id="rId1260" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EB040000}"/>
+    <hyperlink ref="C174:C175" r:id="rId1261" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0000-0000EC040000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1262"/>
@@ -34034,7 +34077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1010"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -57277,1314 +57320,1314 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:G1010">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G1010">
     <sortCondition ref="C1:C1010"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F400" r:id="rId1" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D373" r:id="rId2" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E373" r:id="rId3" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F373" r:id="rId4" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F367" r:id="rId5" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E367" r:id="rId6" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D367" r:id="rId7" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C367" r:id="rId8" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C210" r:id="rId9" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C697" r:id="rId10" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F771" r:id="rId11" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903410&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F759" r:id="rId12" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E404" r:id="rId13" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D404" r:id="rId14" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C404" r:id="rId15" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F404" r:id="rId16" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F401" r:id="rId17" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F399" r:id="rId18" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F95" r:id="rId19" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F397" r:id="rId20" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F756" r:id="rId21" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D756" r:id="rId22" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C756" r:id="rId23" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E756" r:id="rId24" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C756:D756" r:id="rId25" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F752" r:id="rId26" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D752" r:id="rId27" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C752" r:id="rId28" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E752" r:id="rId29" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C752:D752" r:id="rId30" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F748" r:id="rId31" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=506&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F395" r:id="rId32" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=90964&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E84" r:id="rId33" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85013&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F83" r:id="rId34" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F82" r:id="rId35" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85017&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F81" r:id="rId36" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F391" r:id="rId37" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F77" r:id="rId38" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E388" r:id="rId39" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D388" r:id="rId40" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C388" r:id="rId41" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F388" r:id="rId42" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31984&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F421" r:id="rId43" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543314&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D765" r:id="rId44" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C765" r:id="rId45" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E406" r:id="rId46" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D406" r:id="rId47" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C406" r:id="rId48" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F100" r:id="rId49" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E100" r:id="rId50" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D100" r:id="rId51" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C100" r:id="rId52" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F403" r:id="rId53" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E403" r:id="rId54" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D403" r:id="rId55" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C403" r:id="rId56" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F402" r:id="rId57" tooltip="Lactobacillaceae" display="https://it.wikipedia.org/wiki/Lactobacillaceae"/>
-    <hyperlink ref="E402" r:id="rId58" tooltip="Lactobacillales" display="https://it.wikipedia.org/wiki/Lactobacillales"/>
-    <hyperlink ref="D402" r:id="rId59" tooltip="Bacilli" display="https://it.wikipedia.org/wiki/Bacilli"/>
-    <hyperlink ref="C402" r:id="rId60" tooltip="Firmicutes" display="https://it.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F93" r:id="rId61" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E93" r:id="rId62" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C93:D93" r:id="rId63" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F751" r:id="rId64" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D751" r:id="rId65" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C751" r:id="rId66" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E751" r:id="rId67" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C751:D751" r:id="rId68" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D103" r:id="rId69" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C103" r:id="rId70" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F103" r:id="rId71" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31957&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E103" r:id="rId72" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85009&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E411" r:id="rId73" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D411" r:id="rId74" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C411" r:id="rId75" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D775" r:id="rId76" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C775" r:id="rId77" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E409" r:id="rId78" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D409" r:id="rId79" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C409" r:id="rId80" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F408" r:id="rId81" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E408" r:id="rId82" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D408" r:id="rId83" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C408" r:id="rId84" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F774" r:id="rId85" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E774" r:id="rId86" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D774" r:id="rId87" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C774" r:id="rId88" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F520" r:id="rId89" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F811" r:id="rId90" tooltip="family"/>
-    <hyperlink ref="E811" r:id="rId91" tooltip="order"/>
-    <hyperlink ref="D811" r:id="rId92" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C811" r:id="rId93" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F506" r:id="rId94" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E506" r:id="rId95" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D506" r:id="rId96" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C506" r:id="rId97" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F943" r:id="rId98" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2008794&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E943" r:id="rId99" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206389&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D943" r:id="rId100" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C943" r:id="rId101" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F942" r:id="rId102" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E942" r:id="rId103" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D942" r:id="rId104" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C942" r:id="rId105" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F172" r:id="rId106" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E172" r:id="rId107" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D172" r:id="rId108" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C172" r:id="rId109" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F499" r:id="rId110" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E499" r:id="rId111" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D499" r:id="rId112" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C499" r:id="rId113" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F497" r:id="rId114" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E497" r:id="rId115" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D497" r:id="rId116" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C497" r:id="rId117" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F493" r:id="rId118" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E493" r:id="rId119" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D493" r:id="rId120" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C493" r:id="rId121" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F494" r:id="rId122" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E494" r:id="rId123" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D494" r:id="rId124" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C494" r:id="rId125" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F512" r:id="rId126" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E512" r:id="rId127" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D512" r:id="rId128" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C512" r:id="rId129" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F518" r:id="rId130" display="https://en.wikipedia.org/wiki/Veillonellaceae"/>
-    <hyperlink ref="E518" r:id="rId131" tooltip="Vellionellales (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Vellionellales&amp;action=edit&amp;redlink=1"/>
-    <hyperlink ref="D518" r:id="rId132" tooltip="Negativicutes" display="https://en.wikipedia.org/wiki/Negativicutes"/>
-    <hyperlink ref="C518" r:id="rId133" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F517" r:id="rId134" tooltip="genus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2737&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E517" r:id="rId135" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D517" r:id="rId136" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C517" r:id="rId137" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F516" r:id="rId138" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E516" r:id="rId139" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D516" r:id="rId140" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C516" r:id="rId141" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F971" r:id="rId142" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706371&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E971" r:id="rId143" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706369&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D971" r:id="rId144" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C971" r:id="rId145" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F515" r:id="rId146" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E515" r:id="rId147" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D515" r:id="rId148" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C515" r:id="rId149" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F965" r:id="rId150" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E965" r:id="rId151" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D965" r:id="rId152" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F966" r:id="rId153" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135617&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E966" r:id="rId154" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72273&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D966" r:id="rId155" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F969" r:id="rId156" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84642&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E969" r:id="rId157" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135624&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D969" r:id="rId158" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F970" r:id="rId159" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E970" r:id="rId160" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D970" r:id="rId161" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F994" r:id="rId162" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=137&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E994" r:id="rId163" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=136&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D994" r:id="rId164" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=203692&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C994" r:id="rId165" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=203691&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F147" r:id="rId166" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E147" r:id="rId167" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D147" r:id="rId168" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C147" r:id="rId169" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F144" r:id="rId170" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85025&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E144" r:id="rId171" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D144" r:id="rId172" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C144" r:id="rId173" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F888" r:id="rId174" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E888" r:id="rId175" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D888" r:id="rId176" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C888" r:id="rId177" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F886" r:id="rId178" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=82115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E886" r:id="rId179" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D886" r:id="rId180" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C886" r:id="rId181" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F884" r:id="rId182" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E884" r:id="rId183" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D884" r:id="rId184" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C884" r:id="rId185" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D882" r:id="rId186" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C882" r:id="rId187" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F882" r:id="rId188" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=255527&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E882" r:id="rId189" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F143" r:id="rId190" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E143" r:id="rId191" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D143" r:id="rId192" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C143" r:id="rId193" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F142" r:id="rId194" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145359&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E142" r:id="rId195" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D142" r:id="rId196" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C142" r:id="rId197" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F880" r:id="rId198" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80864&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E880" r:id="rId199" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80840&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D880" r:id="rId200" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C880" r:id="rId201" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F879" r:id="rId202" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E879" r:id="rId203" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80840&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D879" r:id="rId204" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C879" r:id="rId205" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F457" r:id="rId206" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186821&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E457" r:id="rId207" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D457" r:id="rId208" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C457" r:id="rId209" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F456" r:id="rId210" display="https://en.wikipedia.org/wiki/Bacillaceae"/>
-    <hyperlink ref="E456" r:id="rId211" display="https://en.wikipedia.org/wiki/Bacillales"/>
-    <hyperlink ref="D456" r:id="rId212" display="https://en.wikipedia.org/wiki/Bacilli"/>
-    <hyperlink ref="C456" r:id="rId213" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F875" r:id="rId214" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=468&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E875" r:id="rId215" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72274&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D875" r:id="rId216" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C875" r:id="rId217" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F140" r:id="rId218" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2070&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E140" r:id="rId219" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85010&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D140" r:id="rId220" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C140" r:id="rId221" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F974" r:id="rId222" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=481&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E974" r:id="rId223" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206351&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D974" r:id="rId224" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C974" r:id="rId225" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F522" r:id="rId226" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81850&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E522" r:id="rId227" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D522" r:id="rId228" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C522" r:id="rId229" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F978" r:id="rId230" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E978" r:id="rId231" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C978" r:id="rId232" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D978" r:id="rId233" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F981" r:id="rId234" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903411&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E981" r:id="rId235" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C981" r:id="rId236" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D981" r:id="rId237" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F168" r:id="rId238" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2004&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E168" r:id="rId239" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85012&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D168" r:id="rId240" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="C168" r:id="rId241" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="F926" r:id="rId242" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E926" r:id="rId243" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D926" r:id="rId244" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C926" r:id="rId245" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F927" r:id="rId246" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=568386&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E927" r:id="rId247" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1775403&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D927" r:id="rId248" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C927" r:id="rId249" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F871" r:id="rId250" tooltip="Pseudomonadaceae" display="https://en.wikipedia.org/wiki/Pseudomonadaceae"/>
-    <hyperlink ref="E871" r:id="rId251" tooltip="Pseudomonadales" display="https://en.wikipedia.org/wiki/Pseudomonadales"/>
-    <hyperlink ref="D871" r:id="rId252" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="C871" r:id="rId253" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="F488" r:id="rId254" tooltip="Staphylococcaceae" display="https://en.wikipedia.org/wiki/Staphylococcaceae"/>
-    <hyperlink ref="F489" r:id="rId255" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E489" r:id="rId256" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D489" r:id="rId257" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C489" r:id="rId258" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F167" r:id="rId259" tooltip="Streptomycetaceae" display="https://en.wikipedia.org/wiki/Streptomycetaceae"/>
-    <hyperlink ref="E167" r:id="rId260" tooltip="Actinomycetales" display="https://en.wikipedia.org/wiki/Actinomycetales"/>
-    <hyperlink ref="D167" r:id="rId261" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="C167" r:id="rId262" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="E520" r:id="rId263" display="https://en.wikipedia.org/wiki/Bacillales"/>
-    <hyperlink ref="D520" r:id="rId264" display="https://en.wikipedia.org/wiki/Bacilli"/>
-    <hyperlink ref="C520" r:id="rId265" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F519" r:id="rId266" display="https://en.wikipedia.org/wiki/Bacillaceae"/>
-    <hyperlink ref="E519" r:id="rId267" display="https://en.wikipedia.org/wiki/Bacillales"/>
-    <hyperlink ref="D519" r:id="rId268" display="https://en.wikipedia.org/wiki/Bacilli"/>
-    <hyperlink ref="C519" r:id="rId269" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F973" r:id="rId270" tooltip="Vibrionaceae" display="https://en.wikipedia.org/wiki/Vibrionaceae"/>
-    <hyperlink ref="E973" r:id="rId271" tooltip="Vibrionales" display="https://en.wikipedia.org/wiki/Vibrionales"/>
-    <hyperlink ref="D973" r:id="rId272" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="C973" r:id="rId273" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="D416" r:id="rId274" tooltip="class"/>
-    <hyperlink ref="C416" r:id="rId275" tooltip="phylum" display=" Firmicutes"/>
-    <hyperlink ref="F132" r:id="rId276" tooltip="family" display=" Promicromonosporaceae"/>
-    <hyperlink ref="E132" r:id="rId277" tooltip="order" display=" Micrococcales"/>
-    <hyperlink ref="D132" r:id="rId278" tooltip="class"/>
-    <hyperlink ref="C132" r:id="rId279" tooltip="phylum"/>
-    <hyperlink ref="F223" r:id="rId280" tooltip="family" display=" Prevotellaceae"/>
-    <hyperlink ref="E223" r:id="rId281" tooltip="order" display=" Bacteroidales"/>
-    <hyperlink ref="D223" r:id="rId282" tooltip="class"/>
-    <hyperlink ref="C223" r:id="rId283" tooltip="phylum" display=" Bacteroidetes"/>
-    <hyperlink ref="F222" r:id="rId284" tooltip="family"/>
-    <hyperlink ref="E222" r:id="rId285" tooltip="order" display=" Bacteroidales"/>
-    <hyperlink ref="D222" r:id="rId286" tooltip="class"/>
-    <hyperlink ref="C222" r:id="rId287" tooltip="phylum" display=" Bacteroidetes"/>
-    <hyperlink ref="F451" r:id="rId288" tooltip="genus" display=" Pontibacillus"/>
-    <hyperlink ref="E451" r:id="rId289" tooltip="order" display=" Bacillales"/>
-    <hyperlink ref="D451" r:id="rId290" tooltip="class"/>
-    <hyperlink ref="C451" r:id="rId291" tooltip="phylum"/>
-    <hyperlink ref="E858" r:id="rId292" tooltip="order" display=" Enterobacterales"/>
-    <hyperlink ref="D858" r:id="rId293" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C858" r:id="rId294" tooltip="phylum"/>
-    <hyperlink ref="F857" r:id="rId295" tooltip="family" display=" Nannocystaceae"/>
-    <hyperlink ref="E857" r:id="rId296" tooltip="order" display=" Myxococcales"/>
-    <hyperlink ref="D857" r:id="rId297" tooltip="class" display=" Deltaproteobacteria"/>
-    <hyperlink ref="C857" r:id="rId298" tooltip="phylum"/>
-    <hyperlink ref="F449" r:id="rId299" tooltip="family"/>
-    <hyperlink ref="E449" r:id="rId300" tooltip="order" display=" Bacillales"/>
-    <hyperlink ref="D449" r:id="rId301" tooltip="class"/>
-    <hyperlink ref="C449" r:id="rId302" tooltip="phylum"/>
-    <hyperlink ref="F852" r:id="rId303" tooltip="family" display=" Phyllobacteriaceae"/>
-    <hyperlink ref="E852" r:id="rId304" tooltip="order" display=" Rhizobiales"/>
-    <hyperlink ref="D852" r:id="rId305" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C852" r:id="rId306" tooltip="phylum"/>
-    <hyperlink ref="F850" r:id="rId307" tooltip="family"/>
-    <hyperlink ref="E850" r:id="rId308" tooltip="order" display=" Enterobacterales"/>
-    <hyperlink ref="D850" r:id="rId309" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C850" r:id="rId310" tooltip="phylum"/>
-    <hyperlink ref="F849" r:id="rId311" tooltip="family"/>
-    <hyperlink ref="E849" r:id="rId312" tooltip="order" display=" Vibrionales"/>
-    <hyperlink ref="D849" r:id="rId313" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C849" r:id="rId314" tooltip="phylum"/>
-    <hyperlink ref="F848" r:id="rId315" tooltip="family" display=" Caulobacteraceae"/>
-    <hyperlink ref="E848" r:id="rId316" tooltip="order"/>
-    <hyperlink ref="D848" r:id="rId317" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C848" r:id="rId318" tooltip="phylum"/>
-    <hyperlink ref="E442" r:id="rId319" tooltip="Clostridiales"/>
-    <hyperlink ref="D442" r:id="rId320" tooltip="Clostridia"/>
-    <hyperlink ref="C442" r:id="rId321"/>
-    <hyperlink ref="F1007" r:id="rId322" tooltip="family"/>
-    <hyperlink ref="E1007" r:id="rId323" tooltip="order" display=" Puniceicoccales"/>
-    <hyperlink ref="D1007" r:id="rId324" tooltip="class" display=" Opitutae"/>
-    <hyperlink ref="C1007" r:id="rId325" tooltip="phylum"/>
-    <hyperlink ref="F840" r:id="rId326" tooltip="family"/>
-    <hyperlink ref="E840" r:id="rId327" tooltip="order" display=" Pasteurellales"/>
-    <hyperlink ref="D840" r:id="rId328" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C840" r:id="rId329" tooltip="Proteobacteria"/>
-    <hyperlink ref="F838" r:id="rId330" tooltip="family" display=" Rhodobiaceae"/>
-    <hyperlink ref="E838" r:id="rId331" tooltip="order" display=" Rhizobiales"/>
-    <hyperlink ref="D838" r:id="rId332" tooltip="Alphaproteobacteria"/>
-    <hyperlink ref="C838" r:id="rId333" tooltip="Proteobacteria"/>
-    <hyperlink ref="F832" r:id="rId334"/>
-    <hyperlink ref="E832" r:id="rId335" tooltip="Rhodobacterales"/>
-    <hyperlink ref="D832" r:id="rId336" tooltip="Alphaproteobacteria"/>
-    <hyperlink ref="C832" r:id="rId337" tooltip="Proteobacteria"/>
-    <hyperlink ref="F434" r:id="rId338" tooltip="family"/>
-    <hyperlink ref="E434" r:id="rId339" tooltip="order" display=" Bacillales"/>
-    <hyperlink ref="D434" r:id="rId340" tooltip="class"/>
-    <hyperlink ref="C434" r:id="rId341" tooltip="phylum"/>
-    <hyperlink ref="F826" r:id="rId342" tooltip="family" display=" Alcaligenaceae"/>
-    <hyperlink ref="E826" r:id="rId343" tooltip="order" display=" Burkholderiales"/>
-    <hyperlink ref="D826" r:id="rId344" tooltip="class" display=" Betaproteobacteria"/>
-    <hyperlink ref="C826" r:id="rId345" tooltip="phylum"/>
-    <hyperlink ref="F825" r:id="rId346" tooltip="family"/>
-    <hyperlink ref="E825" r:id="rId347" tooltip="order"/>
-    <hyperlink ref="D825" r:id="rId348" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C825" r:id="rId349" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F824" r:id="rId350" tooltip="family"/>
-    <hyperlink ref="E824" r:id="rId351" tooltip="order" display=" Rhizobiales"/>
-    <hyperlink ref="D824" r:id="rId352" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C824" r:id="rId353" tooltip="phylum"/>
-    <hyperlink ref="F823" r:id="rId354" tooltip="family" display=" Oceanospirillaceae"/>
-    <hyperlink ref="E823" r:id="rId355" tooltip="order"/>
-    <hyperlink ref="D823" r:id="rId356" tooltip="class"/>
-    <hyperlink ref="C823" r:id="rId357" tooltip="phylum"/>
-    <hyperlink ref="F429" r:id="rId358" tooltip="family"/>
-    <hyperlink ref="E429" r:id="rId359" tooltip="order"/>
-    <hyperlink ref="C429" r:id="rId360" tooltip="phylum"/>
-    <hyperlink ref="D429" r:id="rId361" tooltip="class"/>
-    <hyperlink ref="C816" r:id="rId362" tooltip="phylum"/>
-    <hyperlink ref="D816" r:id="rId363" tooltip="class"/>
-    <hyperlink ref="E816" r:id="rId364" tooltip="order"/>
-    <hyperlink ref="F816" r:id="rId365" tooltip="family"/>
-    <hyperlink ref="F124" r:id="rId366" tooltip="family"/>
-    <hyperlink ref="E124" r:id="rId367" tooltip="order" display=" Streptosporangiales"/>
-    <hyperlink ref="D124" r:id="rId368" tooltip="phylum"/>
-    <hyperlink ref="C124" r:id="rId369" tooltip="phylum"/>
-    <hyperlink ref="F123" r:id="rId370" tooltip="family"/>
-    <hyperlink ref="E123" r:id="rId371" tooltip="order"/>
-    <hyperlink ref="D123" r:id="rId372" tooltip="class"/>
-    <hyperlink ref="C123" r:id="rId373" tooltip="phylum"/>
-    <hyperlink ref="D122" r:id="rId374" tooltip="phylum"/>
-    <hyperlink ref="C122" r:id="rId375" tooltip="phylum"/>
-    <hyperlink ref="F122" r:id="rId376" tooltip="family" display=" Nocardioidaceae"/>
-    <hyperlink ref="E122" r:id="rId377" tooltip="order"/>
-    <hyperlink ref="F121" r:id="rId378" tooltip="family"/>
-    <hyperlink ref="E121" r:id="rId379" tooltip="order" display=" Corynebacteriales"/>
-    <hyperlink ref="D121" r:id="rId380" tooltip="class"/>
-    <hyperlink ref="C121" r:id="rId381" tooltip="phylum"/>
-    <hyperlink ref="F812" r:id="rId382" tooltip="family"/>
-    <hyperlink ref="E812" r:id="rId383" tooltip="order"/>
-    <hyperlink ref="D812" r:id="rId384" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C812" r:id="rId385" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F809" r:id="rId386" tooltip="family"/>
-    <hyperlink ref="E809" r:id="rId387" tooltip="order"/>
-    <hyperlink ref="D809" r:id="rId388" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C809" r:id="rId389" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F807" r:id="rId390" tooltip="family" display=" Sinobacteraceae"/>
-    <hyperlink ref="E807" r:id="rId391" tooltip="order" display=" Nevskiales"/>
-    <hyperlink ref="D807" r:id="rId392" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C807" r:id="rId393" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F120" r:id="rId394" tooltip="family" display=" Micrococcaceae"/>
-    <hyperlink ref="E120" r:id="rId395" tooltip="order" display=" Micrococcales"/>
-    <hyperlink ref="D120" r:id="rId396" tooltip="class"/>
-    <hyperlink ref="C120" r:id="rId397" tooltip="phylum" display=" Actinobacteria"/>
-    <hyperlink ref="F806" r:id="rId398" tooltip="family"/>
-    <hyperlink ref="E806" r:id="rId399" tooltip="order"/>
-    <hyperlink ref="D806" r:id="rId400" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C806" r:id="rId401" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F424" r:id="rId402" tooltip="family" display=" Halobacteroidaceae"/>
-    <hyperlink ref="E424" r:id="rId403" tooltip="order" display=" Halanaerobiales"/>
-    <hyperlink ref="D424" r:id="rId404" tooltip="class" display=" Clostridia"/>
-    <hyperlink ref="C424" r:id="rId405" tooltip="phylum"/>
-    <hyperlink ref="F999" r:id="rId406" tooltip="family"/>
-    <hyperlink ref="E999" r:id="rId407" tooltip="order"/>
-    <hyperlink ref="D999" r:id="rId408" tooltip="class"/>
-    <hyperlink ref="C999" r:id="rId409" tooltip="phylum"/>
-    <hyperlink ref="F118" r:id="rId410" tooltip="Mycobacterium"/>
-    <hyperlink ref="E118" r:id="rId411" tooltip="Corynebacterineae"/>
-    <hyperlink ref="D118" r:id="rId412" tooltip="Actinomycetales"/>
-    <hyperlink ref="C118" r:id="rId413"/>
-    <hyperlink ref="F801" r:id="rId414" tooltip="family" display=" Moritellaceae"/>
-    <hyperlink ref="E801" r:id="rId415" tooltip="order" display=" Alteromonadales"/>
-    <hyperlink ref="D801" r:id="rId416" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="E800" r:id="rId417" tooltip="order"/>
-    <hyperlink ref="D800" r:id="rId418" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="F799" r:id="rId419" tooltip="family" display=" Moraxellaceae"/>
-    <hyperlink ref="E799" r:id="rId420" tooltip="order"/>
-    <hyperlink ref="D799" r:id="rId421" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C799" r:id="rId422" tooltip="phylum"/>
-    <hyperlink ref="E116" r:id="rId423" tooltip="order" display=" Geodermatophilales"/>
-    <hyperlink ref="D116" r:id="rId424" tooltip="phylum"/>
-    <hyperlink ref="C116" r:id="rId425" tooltip="phylum"/>
-    <hyperlink ref="F115" r:id="rId426" tooltip="family" display=" Geodermatophilaceae"/>
-    <hyperlink ref="D115" r:id="rId427" tooltip="phylum"/>
-    <hyperlink ref="C115" r:id="rId428" tooltip="phylum"/>
-    <hyperlink ref="F110" r:id="rId429" tooltip="family"/>
-    <hyperlink ref="E110" r:id="rId430" tooltip="order" display=" Micromonosporales"/>
-    <hyperlink ref="D110" r:id="rId431" tooltip="phylum"/>
-    <hyperlink ref="F109" r:id="rId432" tooltip="family" display=" Propionibacteriaceae"/>
-    <hyperlink ref="E109" r:id="rId433" tooltip="order" display=" Propionibacteriales"/>
-    <hyperlink ref="D109" r:id="rId434" tooltip="phylum"/>
-    <hyperlink ref="C109" r:id="rId435" tooltip="phylum"/>
-    <hyperlink ref="F108" r:id="rId436" tooltip="Micrococcus"/>
-    <hyperlink ref="E108" r:id="rId437" tooltip="Micrococcaceae"/>
-    <hyperlink ref="D108" r:id="rId438" tooltip="Micrococcales (page does not exist)"/>
-    <hyperlink ref="C108" r:id="rId439"/>
-    <hyperlink ref="F796" r:id="rId440" tooltip="family"/>
-    <hyperlink ref="E796" r:id="rId441" tooltip="order" display=" Cellvibrionales"/>
-    <hyperlink ref="C796" r:id="rId442" tooltip="phylum"/>
-    <hyperlink ref="D796" r:id="rId443" tooltip="class"/>
-    <hyperlink ref="D106" r:id="rId444" tooltip="phylum"/>
-    <hyperlink ref="F106" r:id="rId445" tooltip="family"/>
-    <hyperlink ref="E106" r:id="rId446" tooltip="order"/>
-    <hyperlink ref="C106" r:id="rId447" tooltip="phylum"/>
-    <hyperlink ref="F793" r:id="rId448" tooltip="family" display=" Piscirickettsiaceae"/>
-    <hyperlink ref="E793" r:id="rId449" tooltip="order"/>
-    <hyperlink ref="D793" r:id="rId450" tooltip="Gammaproteobacteria"/>
-    <hyperlink ref="C793" r:id="rId451" tooltip="Proteobacteria"/>
-    <hyperlink ref="E791" r:id="rId452" tooltip="order" display=" Methylococcales"/>
-    <hyperlink ref="D791" r:id="rId453" tooltip="Gammaproteobacteria"/>
-    <hyperlink ref="C791" r:id="rId454" tooltip="Proteobacteria"/>
-    <hyperlink ref="F787" r:id="rId455" tooltip="family"/>
-    <hyperlink ref="E787" r:id="rId456" tooltip="order"/>
-    <hyperlink ref="D787" r:id="rId457" tooltip="class" display=" Betaproteobacteria"/>
-    <hyperlink ref="C787" r:id="rId458" tooltip="phylum"/>
-    <hyperlink ref="F785" r:id="rId459" tooltip="family"/>
-    <hyperlink ref="E785" r:id="rId460" tooltip="order"/>
-    <hyperlink ref="D785" r:id="rId461" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C785" r:id="rId462" tooltip="phylum"/>
-    <hyperlink ref="F418" r:id="rId463" tooltip="family" display=" Enterococcaceae"/>
-    <hyperlink ref="E418" r:id="rId464" tooltip="Lactobacillales"/>
-    <hyperlink ref="D418" r:id="rId465" tooltip="Bacilli"/>
-    <hyperlink ref="C418" r:id="rId466" tooltip="Firmicutes"/>
-    <hyperlink ref="F416" r:id="rId467" tooltip="family"/>
-    <hyperlink ref="E416" r:id="rId468" tooltip="order" display=" Veillonellales"/>
-    <hyperlink ref="C415" r:id="rId469" tooltip="phylum" display=" Firmicutes"/>
-    <hyperlink ref="F415" r:id="rId470" tooltip="family" display=" Selenomonadaceae"/>
-    <hyperlink ref="E415" r:id="rId471" tooltip="order"/>
-    <hyperlink ref="D415" r:id="rId472" tooltip="class"/>
-    <hyperlink ref="E781" r:id="rId473" tooltip="order"/>
-    <hyperlink ref="D781" r:id="rId474" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C781" r:id="rId475" tooltip="phylum"/>
-    <hyperlink ref="F780" r:id="rId476" tooltip="Oceanospirillaceae"/>
-    <hyperlink ref="E780" r:id="rId477" tooltip="Oceanospirillales"/>
-    <hyperlink ref="D780" r:id="rId478" tooltip="Gammaproteobacteria"/>
-    <hyperlink ref="C780" r:id="rId479" tooltip="Proteobacteria"/>
-    <hyperlink ref="F779" r:id="rId480" tooltip="family"/>
-    <hyperlink ref="E779" r:id="rId481" tooltip="order"/>
-    <hyperlink ref="D779" r:id="rId482" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C779" r:id="rId483" tooltip="phylum"/>
-    <hyperlink ref="F778" r:id="rId484" tooltip="family"/>
-    <hyperlink ref="E778" r:id="rId485" tooltip="order"/>
-    <hyperlink ref="D778" r:id="rId486" tooltip="class"/>
-    <hyperlink ref="C778" r:id="rId487" tooltip="phylum"/>
-    <hyperlink ref="F384" r:id="rId488" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E729" r:id="rId489" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F729" r:id="rId490" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224464&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F74" r:id="rId491" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F374" r:id="rId492" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541019&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C71" r:id="rId493" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C1" r:id="rId494" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=57723&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F371" r:id="rId495" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C365" r:id="rId496" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F365" r:id="rId497" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C363" r:id="rId498" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F363" r:id="rId499" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F362" r:id="rId500" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543313&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C362" r:id="rId501" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F65" r:id="rId502" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F360" r:id="rId503" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F359" r:id="rId504" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F64" r:id="rId505" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C207" r:id="rId506" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F357" r:id="rId507" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E357" r:id="rId508" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D357" r:id="rId509" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F356" r:id="rId510" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F354" r:id="rId511" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2304686&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C353" r:id="rId512" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F355" r:id="rId513" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E355" r:id="rId514" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D355" r:id="rId515" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D702" r:id="rId516" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C61:D61" r:id="rId517" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C696" r:id="rId518" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D696" r:id="rId519" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F341" r:id="rId520" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F340" r:id="rId521" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D687" r:id="rId522" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C687" r:id="rId523" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F58" r:id="rId524" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C58" r:id="rId525" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D58" r:id="rId526" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D337" r:id="rId527" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D681" r:id="rId528" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D680" r:id="rId529" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F332" r:id="rId530" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D679" r:id="rId531" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F55" r:id="rId532" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D256:D259" r:id="rId533" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E256:E259" r:id="rId534" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C55" r:id="rId535" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F329" r:id="rId536" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C662" r:id="rId537" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C661" r:id="rId538" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D660" r:id="rId539" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C660" r:id="rId540" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D53" r:id="rId541" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C53" r:id="rId542" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D52" r:id="rId543" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F328" r:id="rId544" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F311" r:id="rId545" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F643" r:id="rId546" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=412032&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D308" r:id="rId547" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C308" r:id="rId548" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F629" r:id="rId549" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903410&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D38" r:id="rId550" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C38" r:id="rId551" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F38" r:id="rId552" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E38" r:id="rId553" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C36" r:id="rId554" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F36" r:id="rId555" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145358&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F295" r:id="rId556" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F294" r:id="rId557" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F34" r:id="rId558" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=125316&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F293" r:id="rId559" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F33" r:id="rId560" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F41" r:id="rId561" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C299" r:id="rId562" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D299" r:id="rId563" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E171:E173" r:id="rId564" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D634" r:id="rId565" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C634" r:id="rId566" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C298" r:id="rId567" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F32" r:id="rId568" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85018&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F289" r:id="rId569" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E289" r:id="rId570" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D289" r:id="rId571" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F283" r:id="rId572" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E283" r:id="rId573" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D283" r:id="rId574" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F597" r:id="rId575" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1524215&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E597" r:id="rId576" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C24" r:id="rId577" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D24" r:id="rId578" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F278" r:id="rId579" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E278" r:id="rId580" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D278" r:id="rId581" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E276" r:id="rId582" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D276" r:id="rId583" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F276" r:id="rId584" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F274" r:id="rId585" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E274" r:id="rId586" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D274" r:id="rId587" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D273" r:id="rId588" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F272" r:id="rId589" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=186817&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E272" r:id="rId590" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D272" r:id="rId591" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F270" r:id="rId592" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F266" r:id="rId593" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E266" r:id="rId594" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D266" r:id="rId595" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D17" r:id="rId596" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C17" r:id="rId597" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E386" r:id="rId598" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D386" r:id="rId599" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C386" r:id="rId600" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F385" r:id="rId601" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1570339&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E385" r:id="rId602" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737405&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D385" r:id="rId603" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C385" r:id="rId604" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F734" r:id="rId605" tooltip="Halomonadaceae" display="https://en.wikipedia.org/wiki/Halomonadaceae"/>
-    <hyperlink ref="E734" r:id="rId606" display="https://en.wikipedia.org/wiki/Oceanospirillales"/>
-    <hyperlink ref="D734" r:id="rId607" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="C734" r:id="rId608" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="F733" r:id="rId609" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E733" r:id="rId610" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D733" r:id="rId611" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C733" r:id="rId612" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F378" r:id="rId613" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=972&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E378" r:id="rId614" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=53433&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D378" r:id="rId615" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C378" r:id="rId616" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F728" r:id="rId617" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224379&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E728" r:id="rId618" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D728" r:id="rId619" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C728" r:id="rId620" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F726" r:id="rId621" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=712&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E726" r:id="rId622" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135625&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D726" r:id="rId623" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C726" r:id="rId624" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F70" r:id="rId625" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85026&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E70" r:id="rId626" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D70" r:id="rId627" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C70" r:id="rId628" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F723" r:id="rId629" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E723" r:id="rId630" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C723" r:id="rId631" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F721" r:id="rId632" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E721" r:id="rId633" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D721" r:id="rId634" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C721" r:id="rId635" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F211" r:id="rId636" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E211" r:id="rId637" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200644&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D211" r:id="rId638" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C211" r:id="rId639" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F566" r:id="rId640" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145358&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E566" r:id="rId641" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C566:D566" r:id="rId642" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F68" r:id="rId643" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85030&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E68" r:id="rId644" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C68:D68" r:id="rId645" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F716" r:id="rId646" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213422&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E716" r:id="rId647" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69541&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D716" r:id="rId648" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C716" r:id="rId649" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F368" r:id="rId650" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E368" r:id="rId651" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D368" r:id="rId652" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C368" r:id="rId653" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F526" r:id="rId654" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219687&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E526" r:id="rId655" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219686&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D526" r:id="rId656" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219685&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C526" r:id="rId657" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=142182&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E366" r:id="rId658" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D366" r:id="rId659" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C366" r:id="rId660" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F361" r:id="rId661" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81850&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E361" r:id="rId662" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D361" r:id="rId663" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C361" r:id="rId664" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F208" r:id="rId665" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E208" r:id="rId666" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200644&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D208" r:id="rId667" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C208" r:id="rId668" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F206" r:id="rId669" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200667&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E206" r:id="rId670" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D206" r:id="rId671" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C206" r:id="rId672" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E352" r:id="rId673" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D352" r:id="rId674" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C352" r:id="rId675" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F351" r:id="rId676" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E351" r:id="rId677" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D351" r:id="rId678" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C351" r:id="rId679" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F350" r:id="rId680" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E350" r:id="rId681" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D350" r:id="rId682" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C350" r:id="rId683" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F349" r:id="rId684" tooltip="genus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=33986&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E349" r:id="rId685" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D349" r:id="rId686" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C349" r:id="rId687" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F62" r:id="rId688" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E62" r:id="rId689" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908621&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D62" r:id="rId690" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908620&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C62" r:id="rId691" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F348" r:id="rId692" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E348" r:id="rId693" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D348" r:id="rId694" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C348" r:id="rId695" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F701" r:id="rId696" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E701" r:id="rId697" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D701" r:id="rId698" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C701" r:id="rId699" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F347" r:id="rId700" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E347" r:id="rId701" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D347" r:id="rId702" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C347" r:id="rId703" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F699" r:id="rId704" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903409&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E699" r:id="rId705" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D699" r:id="rId706" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C699" r:id="rId707" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F344" r:id="rId708" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E344" r:id="rId709" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D344" r:id="rId710" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C344" r:id="rId711" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C698" r:id="rId712" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D698" r:id="rId713" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E698" r:id="rId714" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F698" r:id="rId715" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C694" r:id="rId716" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F694" r:id="rId717" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F690" r:id="rId718" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72276&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E690" r:id="rId719" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D690" r:id="rId720" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C690" r:id="rId721" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D202" r:id="rId722" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200643&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F202" r:id="rId723" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2005520&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E202" r:id="rId724" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=171549&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C202" r:id="rId725" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F688" r:id="rId726" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1775411&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E688" r:id="rId727" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D688" r:id="rId728" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C688" r:id="rId729" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C59" r:id="rId730" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D59" r:id="rId731" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F59" r:id="rId732" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85029&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E59" r:id="rId733" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F686" r:id="rId734" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=868&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E686" r:id="rId735" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135615&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D686" r:id="rId736" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C686" r:id="rId737" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F338" r:id="rId738" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31977&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E338" r:id="rId739" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843489&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D338" r:id="rId740" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C338" r:id="rId741" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F685" r:id="rId742" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213421&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E685" r:id="rId743" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69541&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D685" r:id="rId744" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C685" r:id="rId745" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C683" r:id="rId746" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D683" r:id="rId747" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E683" r:id="rId748" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F683" r:id="rId749" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=194924&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F334" r:id="rId750" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E334" r:id="rId751" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909929&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D334" r:id="rId752" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C334" r:id="rId753" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F333" r:id="rId754" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E333" r:id="rId755" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909929&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D333" r:id="rId756" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C333" r:id="rId757" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E335" r:id="rId758" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C335" r:id="rId759" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D335" r:id="rId760" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F678" r:id="rId761" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224380&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E678" r:id="rId762" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D678" r:id="rId763" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C676" r:id="rId764" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C675" r:id="rId765" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F674" r:id="rId766" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E674" r:id="rId767" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D674" r:id="rId768" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C674" r:id="rId769" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F331" r:id="rId770" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E331" r:id="rId771" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D331" r:id="rId772" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C331" r:id="rId773" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F330" r:id="rId774" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E330" r:id="rId775" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D330" r:id="rId776" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C330" r:id="rId777" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F57" r:id="rId778" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C57" r:id="rId779" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F56" r:id="rId780" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C56" r:id="rId781" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F54" r:id="rId782" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1042322&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E54" r:id="rId783" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D54" r:id="rId784" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C54" r:id="rId785" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F252" r:id="rId786" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=183710&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D252" r:id="rId787" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=188787&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E252" r:id="rId788" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=118964&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F241" r:id="rId789" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1202464&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E241" r:id="rId790" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1202465&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D241" r:id="rId791" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=301297&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C241" r:id="rId792" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200795&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F659" r:id="rId793" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135616&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E659" r:id="rId794" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72273&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D659" r:id="rId795" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C659" r:id="rId796" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F51" r:id="rId797" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E51" r:id="rId798" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D51" r:id="rId799" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C51" r:id="rId800" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D50" r:id="rId801" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F50" r:id="rId802" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1653&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E50" r:id="rId803" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C50" r:id="rId804" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F247" r:id="rId805" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138247&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E247" r:id="rId806" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138246&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D247" r:id="rId807" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138243&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C247" r:id="rId808" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138240&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F327" r:id="rId809" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E327" r:id="rId810" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D327" r:id="rId811" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C327" r:id="rId812" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F326" r:id="rId813" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E326" r:id="rId814" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D326" r:id="rId815" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C326" r:id="rId816" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F48" r:id="rId817" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84107&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E48" r:id="rId818" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84999&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D48" r:id="rId819" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84998&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C48" r:id="rId820" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F324" r:id="rId821" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E324" r:id="rId822" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D324" r:id="rId823" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C324" r:id="rId824" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F323" r:id="rId825" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F322" r:id="rId826" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F321" r:id="rId827" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F320" r:id="rId828" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F319" r:id="rId829" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E323" r:id="rId830" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E322" r:id="rId831" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E321" r:id="rId832" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E320" r:id="rId833" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E319" r:id="rId834" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D323" r:id="rId835" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D322" r:id="rId836" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D321" r:id="rId837" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D320" r:id="rId838" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D319" r:id="rId839" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C323" r:id="rId840" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C322" r:id="rId841" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C321" r:id="rId842" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C320" r:id="rId843" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C319" r:id="rId844" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F318" r:id="rId845" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F317" r:id="rId846" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E318" r:id="rId847" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E317" r:id="rId848" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D318" r:id="rId849" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D317" r:id="rId850" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C318" r:id="rId851" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C317" r:id="rId852" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F316" r:id="rId853" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E316" r:id="rId854" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D316" r:id="rId855" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C316" r:id="rId856" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F47" r:id="rId857" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E47" r:id="rId858" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D47" r:id="rId859" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C47" r:id="rId860" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F650" r:id="rId861" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E650" r:id="rId862" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D650" r:id="rId863" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C650" r:id="rId864" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F46" r:id="rId865" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E46" r:id="rId866" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C46:D46" r:id="rId867" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F199" r:id="rId868" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E199" r:id="rId869" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D199" r:id="rId870" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C199" r:id="rId871" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F648" r:id="rId872" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E648" r:id="rId873" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D648" r:id="rId874" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C648" r:id="rId875" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F198" r:id="rId876" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191412&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E198" r:id="rId877" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191411&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D198" r:id="rId878" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191410&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C198" r:id="rId879" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F645" r:id="rId880" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=712&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E645" r:id="rId881" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135625&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D645" r:id="rId882" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C645" r:id="rId883" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F644" r:id="rId884" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706371&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E644" r:id="rId885" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706369&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D644" r:id="rId886" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C644" r:id="rId887" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F45" r:id="rId888" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85017&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E45" r:id="rId889" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C45:D45" r:id="rId890" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F44" r:id="rId891" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85016&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E44" r:id="rId892" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C44:D44" r:id="rId893" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F196" r:id="rId894" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1501348&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E196" r:id="rId895" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D196" r:id="rId896" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C196" r:id="rId897" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F195" r:id="rId898" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1501348&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E195" r:id="rId899" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D195" r:id="rId900" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C195" r:id="rId901" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F306" r:id="rId902" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E306" r:id="rId903" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D306" r:id="rId904" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C306" r:id="rId905" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F235" r:id="rId906" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693073&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E235" r:id="rId907" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693072&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D235" r:id="rId908" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693071&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C235" r:id="rId909" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=67814&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F301" r:id="rId910" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E301" r:id="rId911" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C301" r:id="rId912" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D301" r:id="rId913" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F631" r:id="rId914" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903409&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E631" r:id="rId915" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D631" r:id="rId916" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C631" r:id="rId917" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F297" r:id="rId918" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186820&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E297" r:id="rId919" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D297" r:id="rId920" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C297" r:id="rId921" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F630" r:id="rId922" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=76892&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E630" r:id="rId923" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204458&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D630" r:id="rId924" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="C630" r:id="rId925" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="D39" r:id="rId926" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C39" r:id="rId927" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E39" r:id="rId928" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F39" r:id="rId929" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85019&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F296" r:id="rId930" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E296" r:id="rId931" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D296" r:id="rId932" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C296" r:id="rId933" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D37" r:id="rId934" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C37" r:id="rId935" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F37" r:id="rId936" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E37" r:id="rId937" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D35" r:id="rId938" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F35" r:id="rId939" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31953&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E35" r:id="rId940" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85004&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C35" r:id="rId941" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F193" r:id="rId942" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=815&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E193" r:id="rId943" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=171549&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D193" r:id="rId944" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200643&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C193" r:id="rId945" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F612" r:id="rId946" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=335928&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E612" r:id="rId947" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D612" r:id="rId948" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="C612" r:id="rId949" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="D611" r:id="rId950" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F611" r:id="rId951" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135621&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E611" r:id="rId952" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72274&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C611" r:id="rId953" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E609" r:id="rId954" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D609" r:id="rId955" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C609" r:id="rId956" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F609" r:id="rId957" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=255475&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F30" r:id="rId958" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643824&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E30" r:id="rId959" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84999&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C30" r:id="rId960" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D30" r:id="rId961" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84998&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F28" r:id="rId962" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D28" r:id="rId963" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E28" r:id="rId964" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C28" r:id="rId965" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D29" r:id="rId966" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F29" r:id="rId967" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E29" r:id="rId968" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C29" r:id="rId969" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C27:D27" r:id="rId970" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F27" r:id="rId971" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2049&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E27" r:id="rId972" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2037&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F285" r:id="rId973" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E285" r:id="rId974" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D285" r:id="rId975" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F287" r:id="rId976" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E287" r:id="rId977" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D287" r:id="rId978" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F288" r:id="rId979" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E288" r:id="rId980" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D288" r:id="rId981" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F282" r:id="rId982" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E282" r:id="rId983" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D282" r:id="rId984" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F281" r:id="rId985" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1570339&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E281" r:id="rId986" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737405&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D281" r:id="rId987" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F596" r:id="rId988" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=83763&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E596" r:id="rId989" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135624&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D596" r:id="rId990" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="F279" r:id="rId991" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E279" r:id="rId992" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D279" r:id="rId993" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C279" r:id="rId994" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C23" r:id="rId995" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D23" r:id="rId996" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E23" r:id="rId997" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85010&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F595" r:id="rId998" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135620&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E595" r:id="rId999" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D595" r:id="rId1000" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C595" r:id="rId1001" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F594" r:id="rId1002" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E594" r:id="rId1003" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D594" r:id="rId1004" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C594" r:id="rId1005" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F271" r:id="rId1006" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E271" r:id="rId1007" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D271" r:id="rId1008" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F267" r:id="rId1009" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E267" r:id="rId1010" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D267" r:id="rId1011" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F269" r:id="rId1012" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E269" r:id="rId1013" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D269" r:id="rId1014" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F590" r:id="rId1015" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E590" r:id="rId1016" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D590" r:id="rId1017" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C590" r:id="rId1018" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F19" r:id="rId1019" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E19" r:id="rId1020" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C19:D19" r:id="rId1021" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F18" r:id="rId1022" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E18" r:id="rId1023" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D18" r:id="rId1024" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C18" r:id="rId1025" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C16:D16" r:id="rId1026" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F16" r:id="rId1027" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85015&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E16" r:id="rId1028" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85009&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F265" r:id="rId1029" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E265" r:id="rId1030" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D265" r:id="rId1031" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F14" r:id="rId1032" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85016&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E14" r:id="rId1033" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D264" r:id="rId1034" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F264" r:id="rId1035" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909930&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E264" r:id="rId1036" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843488&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F570" r:id="rId1037" tooltip="Alcaligenaceae" display="https://en.wikipedia.org/wiki/Alcaligenaceae"/>
-    <hyperlink ref="E570" r:id="rId1038" tooltip="Burkholderiales" display="https://en.wikipedia.org/wiki/Burkholderiales"/>
-    <hyperlink ref="D570" r:id="rId1039" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="F262" r:id="rId1040" tooltip="Acholeplasmataceae" display="https://en.wikipedia.org/wiki/Acholeplasmataceae"/>
-    <hyperlink ref="E262" r:id="rId1041" display="https://en.wikipedia.org/wiki/Acholeplasmataceae"/>
-    <hyperlink ref="D262" r:id="rId1042" tooltip="Mollicutes" display="https://en.wikipedia.org/wiki/Mollicutes"/>
-    <hyperlink ref="F257" r:id="rId1043" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E257" r:id="rId1044" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D257" r:id="rId1045" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C257" r:id="rId1046" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F573" r:id="rId1047" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80864&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C3" r:id="rId1048" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C7" r:id="rId1049" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C5" r:id="rId1050" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C8" r:id="rId1051" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C9" r:id="rId1052" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C10" r:id="rId1053" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C4" r:id="rId1054" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C6" r:id="rId1055" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C11" r:id="rId1056" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C12" r:id="rId1057" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C13" r:id="rId1058" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C14" r:id="rId1059" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F13" r:id="rId1060" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85015&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C15" r:id="rId1061" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E587" r:id="rId1062" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D587" r:id="rId1063" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C587" r:id="rId1064" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F587" r:id="rId1065" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=267893&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E588" r:id="rId1066" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D588" r:id="rId1067" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C588" r:id="rId1068" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F588" r:id="rId1069" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D589" r:id="rId1070" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C589" r:id="rId1071" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D275" r:id="rId1072" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E277" r:id="rId1073" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D277" r:id="rId1074" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F277" r:id="rId1075" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E280" r:id="rId1076" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D280" r:id="rId1077" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F286" r:id="rId1078" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543314&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E286" r:id="rId1079" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D286" r:id="rId1080" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D598" r:id="rId1081" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C598" r:id="rId1082" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F599" r:id="rId1083" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1499392&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C599" r:id="rId1084" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C600" r:id="rId1085" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F600" r:id="rId1086" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=39&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C25" r:id="rId1087" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D25" r:id="rId1088" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F604" r:id="rId1089" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72276&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D613" r:id="rId1090" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C613" r:id="rId1091" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F613" r:id="rId1092" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D616" r:id="rId1093" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="D618" r:id="rId1094" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="F618" r:id="rId1095" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=45404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F623" r:id="rId1096" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=506&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F625" r:id="rId1097" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F628" r:id="rId1098" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41294&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D628" r:id="rId1099" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria"/>
-    <hyperlink ref="C628" r:id="rId1100" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="E632" r:id="rId1101" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D632" r:id="rId1102" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C632" r:id="rId1103" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F632" r:id="rId1104" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903416&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F633" r:id="rId1105" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C302" r:id="rId1106" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D302" r:id="rId1107" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F302" r:id="rId1108" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E302" r:id="rId1109" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E303" r:id="rId1110" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F304" r:id="rId1111" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543371&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C304" r:id="rId1112" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D304" r:id="rId1113" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E304" r:id="rId1114" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E307" r:id="rId1115" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F307" r:id="rId1116" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D307" r:id="rId1117" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C307" r:id="rId1118" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F309" r:id="rId1119" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E309" r:id="rId1120" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C309" r:id="rId1121" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D309" r:id="rId1122" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C310" r:id="rId1123" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D310" r:id="rId1124" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F647" r:id="rId1125" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E314" r:id="rId1126" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F651" r:id="rId1127" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=267889&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F272:F273" r:id="rId1128" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E272:E273" r:id="rId1129" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D272:D273" r:id="rId1130" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F677" r:id="rId1131" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224380&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E677" r:id="rId1132" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D677" r:id="rId1133" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C682" r:id="rId1134" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F682" r:id="rId1135" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E682" r:id="rId1136" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D682" r:id="rId1137" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C684" r:id="rId1138" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D684" r:id="rId1139" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C692" r:id="rId1140" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C695" r:id="rId1141" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D695" r:id="rId1142" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F695" r:id="rId1143" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2066474&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E694" r:id="rId1144" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D694" r:id="rId1145" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C700" r:id="rId1146" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C209" r:id="rId1147" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F209" r:id="rId1148" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=89373&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F210" r:id="rId1149" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2762284&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F709" r:id="rId1150" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=34064&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F713" r:id="rId1151" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=90627&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F719" r:id="rId1152" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F722" r:id="rId1153" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E722" r:id="rId1154" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D722" r:id="rId1155" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C722" r:id="rId1156" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F69" r:id="rId1157" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85034&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D69" r:id="rId1158" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C69" r:id="rId1159" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D723" r:id="rId1160" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F73" r:id="rId1161" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F727" r:id="rId1162" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903412&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F380" r:id="rId1163" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=53434&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C736" r:id="rId1164" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="E387" r:id="rId1165" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D387" r:id="rId1166" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C387" r:id="rId1167" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="F737" r:id="rId1168" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69657&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F742" r:id="rId1169" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=292630&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F745" r:id="rId1170" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F394" r:id="rId1171" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F86" r:id="rId1172" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85022&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F92" r:id="rId1173" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F754" r:id="rId1174" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D757" r:id="rId1175" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C757" r:id="rId1176" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C757:D757" r:id="rId1177" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F398" r:id="rId1178" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C236" r:id="rId1179" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=74015&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F98" r:id="rId1180" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F781" r:id="rId1181" tooltip="Oceanospirillaceae"/>
-    <hyperlink ref="F788" r:id="rId1182" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119045&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E788" r:id="rId1183" tooltip="order"/>
-    <hyperlink ref="D788" r:id="rId1184" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C788" r:id="rId1185" tooltip="phylum"/>
-    <hyperlink ref="F776" r:id="rId1186" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69657&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D776" r:id="rId1187" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C776" r:id="rId1188" tooltip="phylum"/>
-    <hyperlink ref="D777" r:id="rId1189" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C777" r:id="rId1190" tooltip="phylum"/>
-    <hyperlink ref="F414" r:id="rId1191" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E414" r:id="rId1192" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D414" r:id="rId1193" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C414" r:id="rId1194" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F104" r:id="rId1195" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1042322&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D770" r:id="rId1196" tooltip="class" display=" Alphaproteobacteria"/>
-    <hyperlink ref="C770" r:id="rId1197" tooltip="phylum"/>
-    <hyperlink ref="F407" r:id="rId1198" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186820&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E798" r:id="rId1199" tooltip="order" display=" Geodermatophilales"/>
-    <hyperlink ref="F116" r:id="rId1200" tooltip="family" display=" Geodermatophilaceae"/>
-    <hyperlink ref="F800" r:id="rId1201" tooltip="family" display=" Moraxellaceae"/>
-    <hyperlink ref="E115" r:id="rId1202" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D794" r:id="rId1203" tooltip="Gammaproteobacteria"/>
-    <hyperlink ref="C794" r:id="rId1204" tooltip="Proteobacteria"/>
-    <hyperlink ref="F802" r:id="rId1205" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224463&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E802" r:id="rId1206" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F804" r:id="rId1207" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F805" r:id="rId1208" tooltip="family"/>
-    <hyperlink ref="E805" r:id="rId1209" tooltip="order"/>
-    <hyperlink ref="D805" r:id="rId1210" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C805" r:id="rId1211" tooltip="phylum" display=" Proteobacteria"/>
-    <hyperlink ref="F815" r:id="rId1212" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F818" r:id="rId1213" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F433" r:id="rId1214" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=216572&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D839" r:id="rId1215" tooltip="Alphaproteobacteria"/>
-    <hyperlink ref="C839" r:id="rId1216" tooltip="Proteobacteria"/>
-    <hyperlink ref="F435" r:id="rId1217" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F128" r:id="rId1218" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=361606&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D842" r:id="rId1219" tooltip="Alphaproteobacteria"/>
-    <hyperlink ref="C842" r:id="rId1220" tooltip="Proteobacteria"/>
-    <hyperlink ref="F243" r:id="rId1221" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=292628&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F438" r:id="rId1222" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F439" r:id="rId1223" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F440" r:id="rId1224" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F441" r:id="rId1225" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F443" r:id="rId1226" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E443" r:id="rId1227" tooltip="Clostridiales"/>
-    <hyperlink ref="D443" r:id="rId1228" tooltip="Clostridia"/>
-    <hyperlink ref="C443" r:id="rId1229"/>
-    <hyperlink ref="D853" r:id="rId1230" tooltip="class" display=" Gammaproteobacteria"/>
-    <hyperlink ref="C853" r:id="rId1231" tooltip="phylum"/>
-    <hyperlink ref="F444" r:id="rId1232" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F129" r:id="rId1233" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F130" r:id="rId1234" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85018&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F446" r:id="rId1235" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F447" r:id="rId1236" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E859" r:id="rId1237" tooltip="order" display=" Enterobacterales"/>
-    <hyperlink ref="F869" r:id="rId1238" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D870" r:id="rId1239" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="C870" r:id="rId1240" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="F873" r:id="rId1241" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E873" r:id="rId1242" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E883" r:id="rId1243" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F146" r:id="rId1244" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D146" r:id="rId1245" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C146" r:id="rId1246" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E892" r:id="rId1247" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F895" r:id="rId1248" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E895" r:id="rId1249" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F151" r:id="rId1250" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F461" r:id="rId1251" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F156" r:id="rId1252" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D230" r:id="rId1253" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1937959&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D166" r:id="rId1254" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="C166" r:id="rId1255" display="https://en.wikipedia.org/wiki/Actinobacteria"/>
-    <hyperlink ref="F936" r:id="rId1256" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=75682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F169" r:id="rId1257" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F498" r:id="rId1258" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E498" r:id="rId1259" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D498" r:id="rId1260" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C498" r:id="rId1261" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F502" r:id="rId1262" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=539000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D502" r:id="rId1263" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C502" r:id="rId1264" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D503" r:id="rId1265" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C503" r:id="rId1266" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F505" r:id="rId1267" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F507" r:id="rId1268" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E2" r:id="rId1269" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F2" r:id="rId1270" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D967" r:id="rId1271" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C972" r:id="rId1272" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E975" r:id="rId1273" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206351&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D976" r:id="rId1274" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria"/>
-    <hyperlink ref="C976" r:id="rId1275" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria"/>
-    <hyperlink ref="F523" r:id="rId1276" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D691" r:id="rId1277" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C691" r:id="rId1278" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="E345" r:id="rId1279" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="D345" r:id="rId1280" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C345" r:id="rId1281" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F345" r:id="rId1282" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="F352" r:id="rId1283" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C3:C7" r:id="rId1284" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C264" r:id="rId1285" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C263" r:id="rId1286" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C265" r:id="rId1287" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C266" r:id="rId1288" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C267" r:id="rId1289" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C53:C55" r:id="rId1290" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C271" r:id="rId1291" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C272" r:id="rId1292" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C273" r:id="rId1293" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C274" r:id="rId1294" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C275" r:id="rId1295" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C69:C71" r:id="rId1296" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C280" r:id="rId1297" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C79:C80" r:id="rId1298" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock"/>
-    <hyperlink ref="C283" r:id="rId1299" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C83:C85" r:id="rId1300" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C287" r:id="rId1301" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C288" r:id="rId1302" display="https://en.wikipedia.org/wiki/Firmicutes"/>
-    <hyperlink ref="C597:C598" r:id="rId1303" tooltip="phylum" display="Proteobacteria"/>
-    <hyperlink ref="C585:C586" r:id="rId1304" tooltip="phylum" display="Actinobacteria"/>
+    <hyperlink ref="F400" r:id="rId1" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D373" r:id="rId2" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="E373" r:id="rId3" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F373" r:id="rId4" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F367" r:id="rId5" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="E367" r:id="rId6" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D367" r:id="rId7" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C367" r:id="rId8" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C210" r:id="rId9" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="C697" r:id="rId10" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="F771" r:id="rId11" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903410&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="F759" r:id="rId12" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="E404" r:id="rId13" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D404" r:id="rId14" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="C404" r:id="rId15" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="F404" r:id="rId16" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="F401" r:id="rId17" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="F399" r:id="rId18" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="F95" r:id="rId19" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="F397" r:id="rId20" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="F756" r:id="rId21" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="D756" r:id="rId22" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="C756" r:id="rId23" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="E756" r:id="rId24" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="C756:D756" r:id="rId25" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
+    <hyperlink ref="F752" r:id="rId26" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
+    <hyperlink ref="D752" r:id="rId27" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
+    <hyperlink ref="C752" r:id="rId28" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
+    <hyperlink ref="E752" r:id="rId29" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="C752:D752" r:id="rId30" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
+    <hyperlink ref="F748" r:id="rId31" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=506&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
+    <hyperlink ref="F395" r:id="rId32" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=90964&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
+    <hyperlink ref="E84" r:id="rId33" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85013&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
+    <hyperlink ref="F83" r:id="rId34" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
+    <hyperlink ref="F82" r:id="rId35" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85017&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
+    <hyperlink ref="F81" r:id="rId36" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
+    <hyperlink ref="F391" r:id="rId37" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
+    <hyperlink ref="F77" r:id="rId38" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
+    <hyperlink ref="E388" r:id="rId39" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
+    <hyperlink ref="D388" r:id="rId40" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="C388" r:id="rId41" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="F388" r:id="rId42" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31984&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="F421" r:id="rId43" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543314&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="D765" r:id="rId44" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="C765" r:id="rId45" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="E406" r:id="rId46" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="D406" r:id="rId47" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="C406" r:id="rId48" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002F000000}"/>
+    <hyperlink ref="F100" r:id="rId49" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000030000000}"/>
+    <hyperlink ref="E100" r:id="rId50" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000031000000}"/>
+    <hyperlink ref="D100" r:id="rId51" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000032000000}"/>
+    <hyperlink ref="C100" r:id="rId52" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000033000000}"/>
+    <hyperlink ref="F403" r:id="rId53" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000034000000}"/>
+    <hyperlink ref="E403" r:id="rId54" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000035000000}"/>
+    <hyperlink ref="D403" r:id="rId55" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000036000000}"/>
+    <hyperlink ref="C403" r:id="rId56" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000037000000}"/>
+    <hyperlink ref="F402" r:id="rId57" tooltip="Lactobacillaceae" display="https://it.wikipedia.org/wiki/Lactobacillaceae" xr:uid="{00000000-0004-0000-0100-000038000000}"/>
+    <hyperlink ref="E402" r:id="rId58" tooltip="Lactobacillales" display="https://it.wikipedia.org/wiki/Lactobacillales" xr:uid="{00000000-0004-0000-0100-000039000000}"/>
+    <hyperlink ref="D402" r:id="rId59" tooltip="Bacilli" display="https://it.wikipedia.org/wiki/Bacilli" xr:uid="{00000000-0004-0000-0100-00003A000000}"/>
+    <hyperlink ref="C402" r:id="rId60" tooltip="Firmicutes" display="https://it.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-00003B000000}"/>
+    <hyperlink ref="F93" r:id="rId61" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003C000000}"/>
+    <hyperlink ref="E93" r:id="rId62" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003D000000}"/>
+    <hyperlink ref="C93:D93" r:id="rId63" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003E000000}"/>
+    <hyperlink ref="F751" r:id="rId64" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003F000000}"/>
+    <hyperlink ref="D751" r:id="rId65" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000040000000}"/>
+    <hyperlink ref="C751" r:id="rId66" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000041000000}"/>
+    <hyperlink ref="E751" r:id="rId67" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000042000000}"/>
+    <hyperlink ref="C751:D751" r:id="rId68" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000043000000}"/>
+    <hyperlink ref="D103" r:id="rId69" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000044000000}"/>
+    <hyperlink ref="C103" r:id="rId70" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000045000000}"/>
+    <hyperlink ref="F103" r:id="rId71" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31957&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000046000000}"/>
+    <hyperlink ref="E103" r:id="rId72" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85009&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000047000000}"/>
+    <hyperlink ref="E411" r:id="rId73" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000048000000}"/>
+    <hyperlink ref="D411" r:id="rId74" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000049000000}"/>
+    <hyperlink ref="C411" r:id="rId75" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004A000000}"/>
+    <hyperlink ref="D775" r:id="rId76" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004B000000}"/>
+    <hyperlink ref="C775" r:id="rId77" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004C000000}"/>
+    <hyperlink ref="E409" r:id="rId78" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004D000000}"/>
+    <hyperlink ref="D409" r:id="rId79" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004E000000}"/>
+    <hyperlink ref="C409" r:id="rId80" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004F000000}"/>
+    <hyperlink ref="F408" r:id="rId81" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000050000000}"/>
+    <hyperlink ref="E408" r:id="rId82" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000051000000}"/>
+    <hyperlink ref="D408" r:id="rId83" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000052000000}"/>
+    <hyperlink ref="C408" r:id="rId84" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000053000000}"/>
+    <hyperlink ref="F774" r:id="rId85" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000054000000}"/>
+    <hyperlink ref="E774" r:id="rId86" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000055000000}"/>
+    <hyperlink ref="D774" r:id="rId87" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000056000000}"/>
+    <hyperlink ref="C774" r:id="rId88" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000057000000}"/>
+    <hyperlink ref="F520" r:id="rId89" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000058000000}"/>
+    <hyperlink ref="F811" r:id="rId90" tooltip="family" xr:uid="{00000000-0004-0000-0100-000059000000}"/>
+    <hyperlink ref="E811" r:id="rId91" tooltip="order" xr:uid="{00000000-0004-0000-0100-00005A000000}"/>
+    <hyperlink ref="D811" r:id="rId92" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-00005B000000}"/>
+    <hyperlink ref="C811" r:id="rId93" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0100-00005C000000}"/>
+    <hyperlink ref="F506" r:id="rId94" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005D000000}"/>
+    <hyperlink ref="E506" r:id="rId95" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005E000000}"/>
+    <hyperlink ref="D506" r:id="rId96" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005F000000}"/>
+    <hyperlink ref="C506" r:id="rId97" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000060000000}"/>
+    <hyperlink ref="F943" r:id="rId98" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2008794&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000061000000}"/>
+    <hyperlink ref="E943" r:id="rId99" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206389&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000062000000}"/>
+    <hyperlink ref="D943" r:id="rId100" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000063000000}"/>
+    <hyperlink ref="C943" r:id="rId101" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000064000000}"/>
+    <hyperlink ref="F942" r:id="rId102" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000065000000}"/>
+    <hyperlink ref="E942" r:id="rId103" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000066000000}"/>
+    <hyperlink ref="D942" r:id="rId104" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000067000000}"/>
+    <hyperlink ref="C942" r:id="rId105" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000068000000}"/>
+    <hyperlink ref="F172" r:id="rId106" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000069000000}"/>
+    <hyperlink ref="E172" r:id="rId107" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006A000000}"/>
+    <hyperlink ref="D172" r:id="rId108" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006B000000}"/>
+    <hyperlink ref="C172" r:id="rId109" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006C000000}"/>
+    <hyperlink ref="F499" r:id="rId110" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006D000000}"/>
+    <hyperlink ref="E499" r:id="rId111" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006E000000}"/>
+    <hyperlink ref="D499" r:id="rId112" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006F000000}"/>
+    <hyperlink ref="C499" r:id="rId113" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000070000000}"/>
+    <hyperlink ref="F497" r:id="rId114" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000071000000}"/>
+    <hyperlink ref="E497" r:id="rId115" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000072000000}"/>
+    <hyperlink ref="D497" r:id="rId116" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000073000000}"/>
+    <hyperlink ref="C497" r:id="rId117" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000074000000}"/>
+    <hyperlink ref="F493" r:id="rId118" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000075000000}"/>
+    <hyperlink ref="E493" r:id="rId119" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000076000000}"/>
+    <hyperlink ref="D493" r:id="rId120" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000077000000}"/>
+    <hyperlink ref="C493" r:id="rId121" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000078000000}"/>
+    <hyperlink ref="F494" r:id="rId122" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000079000000}"/>
+    <hyperlink ref="E494" r:id="rId123" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007A000000}"/>
+    <hyperlink ref="D494" r:id="rId124" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007B000000}"/>
+    <hyperlink ref="C494" r:id="rId125" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007C000000}"/>
+    <hyperlink ref="F512" r:id="rId126" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007D000000}"/>
+    <hyperlink ref="E512" r:id="rId127" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007E000000}"/>
+    <hyperlink ref="D512" r:id="rId128" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007F000000}"/>
+    <hyperlink ref="C512" r:id="rId129" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000080000000}"/>
+    <hyperlink ref="F518" r:id="rId130" display="https://en.wikipedia.org/wiki/Veillonellaceae" xr:uid="{00000000-0004-0000-0100-000081000000}"/>
+    <hyperlink ref="E518" r:id="rId131" tooltip="Vellionellales (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Vellionellales&amp;action=edit&amp;redlink=1" xr:uid="{00000000-0004-0000-0100-000082000000}"/>
+    <hyperlink ref="D518" r:id="rId132" tooltip="Negativicutes" display="https://en.wikipedia.org/wiki/Negativicutes" xr:uid="{00000000-0004-0000-0100-000083000000}"/>
+    <hyperlink ref="C518" r:id="rId133" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000084000000}"/>
+    <hyperlink ref="F517" r:id="rId134" tooltip="genus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2737&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000085000000}"/>
+    <hyperlink ref="E517" r:id="rId135" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000086000000}"/>
+    <hyperlink ref="D517" r:id="rId136" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000087000000}"/>
+    <hyperlink ref="C517" r:id="rId137" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000088000000}"/>
+    <hyperlink ref="F516" r:id="rId138" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000089000000}"/>
+    <hyperlink ref="E516" r:id="rId139" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008A000000}"/>
+    <hyperlink ref="D516" r:id="rId140" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008B000000}"/>
+    <hyperlink ref="C516" r:id="rId141" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008C000000}"/>
+    <hyperlink ref="F971" r:id="rId142" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706371&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008D000000}"/>
+    <hyperlink ref="E971" r:id="rId143" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706369&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008E000000}"/>
+    <hyperlink ref="D971" r:id="rId144" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008F000000}"/>
+    <hyperlink ref="C971" r:id="rId145" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000090000000}"/>
+    <hyperlink ref="F515" r:id="rId146" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000091000000}"/>
+    <hyperlink ref="E515" r:id="rId147" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000092000000}"/>
+    <hyperlink ref="D515" r:id="rId148" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000093000000}"/>
+    <hyperlink ref="C515" r:id="rId149" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000094000000}"/>
+    <hyperlink ref="F965" r:id="rId150" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000095000000}"/>
+    <hyperlink ref="E965" r:id="rId151" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000096000000}"/>
+    <hyperlink ref="D965" r:id="rId152" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000097000000}"/>
+    <hyperlink ref="F966" r:id="rId153" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135617&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000098000000}"/>
+    <hyperlink ref="E966" r:id="rId154" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72273&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000099000000}"/>
+    <hyperlink ref="D966" r:id="rId155" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009A000000}"/>
+    <hyperlink ref="F969" r:id="rId156" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84642&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009B000000}"/>
+    <hyperlink ref="E969" r:id="rId157" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135624&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009C000000}"/>
+    <hyperlink ref="D969" r:id="rId158" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009D000000}"/>
+    <hyperlink ref="F970" r:id="rId159" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009E000000}"/>
+    <hyperlink ref="E970" r:id="rId160" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009F000000}"/>
+    <hyperlink ref="D970" r:id="rId161" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A0000000}"/>
+    <hyperlink ref="F994" r:id="rId162" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=137&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A1000000}"/>
+    <hyperlink ref="E994" r:id="rId163" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=136&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A2000000}"/>
+    <hyperlink ref="D994" r:id="rId164" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=203692&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A3000000}"/>
+    <hyperlink ref="C994" r:id="rId165" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=203691&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A4000000}"/>
+    <hyperlink ref="F147" r:id="rId166" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A5000000}"/>
+    <hyperlink ref="E147" r:id="rId167" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A6000000}"/>
+    <hyperlink ref="D147" r:id="rId168" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A7000000}"/>
+    <hyperlink ref="C147" r:id="rId169" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A8000000}"/>
+    <hyperlink ref="F144" r:id="rId170" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85025&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A9000000}"/>
+    <hyperlink ref="E144" r:id="rId171" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AA000000}"/>
+    <hyperlink ref="D144" r:id="rId172" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AB000000}"/>
+    <hyperlink ref="C144" r:id="rId173" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AC000000}"/>
+    <hyperlink ref="F888" r:id="rId174" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AD000000}"/>
+    <hyperlink ref="E888" r:id="rId175" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AE000000}"/>
+    <hyperlink ref="D888" r:id="rId176" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AF000000}"/>
+    <hyperlink ref="C888" r:id="rId177" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B0000000}"/>
+    <hyperlink ref="F886" r:id="rId178" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=82115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B1000000}"/>
+    <hyperlink ref="E886" r:id="rId179" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B2000000}"/>
+    <hyperlink ref="D886" r:id="rId180" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B3000000}"/>
+    <hyperlink ref="C886" r:id="rId181" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B4000000}"/>
+    <hyperlink ref="F884" r:id="rId182" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B5000000}"/>
+    <hyperlink ref="E884" r:id="rId183" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B6000000}"/>
+    <hyperlink ref="D884" r:id="rId184" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B7000000}"/>
+    <hyperlink ref="C884" r:id="rId185" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B8000000}"/>
+    <hyperlink ref="D882" r:id="rId186" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B9000000}"/>
+    <hyperlink ref="C882" r:id="rId187" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BA000000}"/>
+    <hyperlink ref="F882" r:id="rId188" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=255527&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BB000000}"/>
+    <hyperlink ref="E882" r:id="rId189" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BC000000}"/>
+    <hyperlink ref="F143" r:id="rId190" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BD000000}"/>
+    <hyperlink ref="E143" r:id="rId191" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BE000000}"/>
+    <hyperlink ref="D143" r:id="rId192" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BF000000}"/>
+    <hyperlink ref="C143" r:id="rId193" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C0000000}"/>
+    <hyperlink ref="F142" r:id="rId194" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145359&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C1000000}"/>
+    <hyperlink ref="E142" r:id="rId195" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C2000000}"/>
+    <hyperlink ref="D142" r:id="rId196" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C3000000}"/>
+    <hyperlink ref="C142" r:id="rId197" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C4000000}"/>
+    <hyperlink ref="F880" r:id="rId198" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80864&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C5000000}"/>
+    <hyperlink ref="E880" r:id="rId199" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80840&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C6000000}"/>
+    <hyperlink ref="D880" r:id="rId200" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C7000000}"/>
+    <hyperlink ref="C880" r:id="rId201" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C8000000}"/>
+    <hyperlink ref="F879" r:id="rId202" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C9000000}"/>
+    <hyperlink ref="E879" r:id="rId203" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80840&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CA000000}"/>
+    <hyperlink ref="D879" r:id="rId204" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CB000000}"/>
+    <hyperlink ref="C879" r:id="rId205" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CC000000}"/>
+    <hyperlink ref="F457" r:id="rId206" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186821&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CD000000}"/>
+    <hyperlink ref="E457" r:id="rId207" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CE000000}"/>
+    <hyperlink ref="D457" r:id="rId208" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CF000000}"/>
+    <hyperlink ref="C457" r:id="rId209" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D0000000}"/>
+    <hyperlink ref="F456" r:id="rId210" display="https://en.wikipedia.org/wiki/Bacillaceae" xr:uid="{00000000-0004-0000-0100-0000D1000000}"/>
+    <hyperlink ref="E456" r:id="rId211" display="https://en.wikipedia.org/wiki/Bacillales" xr:uid="{00000000-0004-0000-0100-0000D2000000}"/>
+    <hyperlink ref="D456" r:id="rId212" display="https://en.wikipedia.org/wiki/Bacilli" xr:uid="{00000000-0004-0000-0100-0000D3000000}"/>
+    <hyperlink ref="C456" r:id="rId213" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-0000D4000000}"/>
+    <hyperlink ref="F875" r:id="rId214" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=468&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D5000000}"/>
+    <hyperlink ref="E875" r:id="rId215" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72274&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D6000000}"/>
+    <hyperlink ref="D875" r:id="rId216" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D7000000}"/>
+    <hyperlink ref="C875" r:id="rId217" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D8000000}"/>
+    <hyperlink ref="F140" r:id="rId218" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2070&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D9000000}"/>
+    <hyperlink ref="E140" r:id="rId219" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85010&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DA000000}"/>
+    <hyperlink ref="D140" r:id="rId220" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DB000000}"/>
+    <hyperlink ref="C140" r:id="rId221" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DC000000}"/>
+    <hyperlink ref="F974" r:id="rId222" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=481&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DD000000}"/>
+    <hyperlink ref="E974" r:id="rId223" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206351&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DE000000}"/>
+    <hyperlink ref="D974" r:id="rId224" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28216&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DF000000}"/>
+    <hyperlink ref="C974" r:id="rId225" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E0000000}"/>
+    <hyperlink ref="F522" r:id="rId226" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81850&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E1000000}"/>
+    <hyperlink ref="E522" r:id="rId227" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E2000000}"/>
+    <hyperlink ref="D522" r:id="rId228" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E3000000}"/>
+    <hyperlink ref="C522" r:id="rId229" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E4000000}"/>
+    <hyperlink ref="F978" r:id="rId230" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E5000000}"/>
+    <hyperlink ref="E978" r:id="rId231" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E6000000}"/>
+    <hyperlink ref="C978" r:id="rId232" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E7000000}"/>
+    <hyperlink ref="D978" r:id="rId233" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E8000000}"/>
+    <hyperlink ref="F981" r:id="rId234" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903411&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E9000000}"/>
+    <hyperlink ref="E981" r:id="rId235" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EA000000}"/>
+    <hyperlink ref="C981" r:id="rId236" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EB000000}"/>
+    <hyperlink ref="D981" r:id="rId237" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EC000000}"/>
+    <hyperlink ref="F168" r:id="rId238" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2004&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000ED000000}"/>
+    <hyperlink ref="E168" r:id="rId239" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85012&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EE000000}"/>
+    <hyperlink ref="D168" r:id="rId240" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0100-0000EF000000}"/>
+    <hyperlink ref="C168" r:id="rId241" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0100-0000F0000000}"/>
+    <hyperlink ref="F926" r:id="rId242" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=32033&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F1000000}"/>
+    <hyperlink ref="E926" r:id="rId243" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F2000000}"/>
+    <hyperlink ref="D926" r:id="rId244" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F3000000}"/>
+    <hyperlink ref="C926" r:id="rId245" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F4000000}"/>
+    <hyperlink ref="F927" r:id="rId246" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=568386&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F5000000}"/>
+    <hyperlink ref="E927" r:id="rId247" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1775403&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F6000000}"/>
+    <hyperlink ref="D927" r:id="rId248" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F7000000}"/>
+    <hyperlink ref="C927" r:id="rId249" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F8000000}"/>
+    <hyperlink ref="F871" r:id="rId250" tooltip="Pseudomonadaceae" display="https://en.wikipedia.org/wiki/Pseudomonadaceae" xr:uid="{00000000-0004-0000-0100-0000F9000000}"/>
+    <hyperlink ref="E871" r:id="rId251" tooltip="Pseudomonadales" display="https://en.wikipedia.org/wiki/Pseudomonadales" xr:uid="{00000000-0004-0000-0100-0000FA000000}"/>
+    <hyperlink ref="D871" r:id="rId252" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000FB000000}"/>
+    <hyperlink ref="C871" r:id="rId253" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000FC000000}"/>
+    <hyperlink ref="F488" r:id="rId254" tooltip="Staphylococcaceae" display="https://en.wikipedia.org/wiki/Staphylococcaceae" xr:uid="{00000000-0004-0000-0100-0000FD000000}"/>
+    <hyperlink ref="F489" r:id="rId255" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1300&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FE000000}"/>
+    <hyperlink ref="E489" r:id="rId256" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FF000000}"/>
+    <hyperlink ref="D489" r:id="rId257" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000000010000}"/>
+    <hyperlink ref="C489" r:id="rId258" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000001010000}"/>
+    <hyperlink ref="F167" r:id="rId259" tooltip="Streptomycetaceae" display="https://en.wikipedia.org/wiki/Streptomycetaceae" xr:uid="{00000000-0004-0000-0100-000002010000}"/>
+    <hyperlink ref="E167" r:id="rId260" tooltip="Actinomycetales" display="https://en.wikipedia.org/wiki/Actinomycetales" xr:uid="{00000000-0004-0000-0100-000003010000}"/>
+    <hyperlink ref="D167" r:id="rId261" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0100-000004010000}"/>
+    <hyperlink ref="C167" r:id="rId262" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0100-000005010000}"/>
+    <hyperlink ref="E520" r:id="rId263" display="https://en.wikipedia.org/wiki/Bacillales" xr:uid="{00000000-0004-0000-0100-000006010000}"/>
+    <hyperlink ref="D520" r:id="rId264" display="https://en.wikipedia.org/wiki/Bacilli" xr:uid="{00000000-0004-0000-0100-000007010000}"/>
+    <hyperlink ref="C520" r:id="rId265" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000008010000}"/>
+    <hyperlink ref="F519" r:id="rId266" display="https://en.wikipedia.org/wiki/Bacillaceae" xr:uid="{00000000-0004-0000-0100-000009010000}"/>
+    <hyperlink ref="E519" r:id="rId267" display="https://en.wikipedia.org/wiki/Bacillales" xr:uid="{00000000-0004-0000-0100-00000A010000}"/>
+    <hyperlink ref="D519" r:id="rId268" display="https://en.wikipedia.org/wiki/Bacilli" xr:uid="{00000000-0004-0000-0100-00000B010000}"/>
+    <hyperlink ref="C519" r:id="rId269" tooltip="Firmicutes" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-00000C010000}"/>
+    <hyperlink ref="F973" r:id="rId270" tooltip="Vibrionaceae" display="https://en.wikipedia.org/wiki/Vibrionaceae" xr:uid="{00000000-0004-0000-0100-00000D010000}"/>
+    <hyperlink ref="E973" r:id="rId271" tooltip="Vibrionales" display="https://en.wikipedia.org/wiki/Vibrionales" xr:uid="{00000000-0004-0000-0100-00000E010000}"/>
+    <hyperlink ref="D973" r:id="rId272" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-00000F010000}"/>
+    <hyperlink ref="C973" r:id="rId273" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0100-000010010000}"/>
+    <hyperlink ref="D416" r:id="rId274" tooltip="class" xr:uid="{00000000-0004-0000-0100-000011010000}"/>
+    <hyperlink ref="C416" r:id="rId275" tooltip="phylum" display=" Firmicutes" xr:uid="{00000000-0004-0000-0100-000012010000}"/>
+    <hyperlink ref="F132" r:id="rId276" tooltip="family" display=" Promicromonosporaceae" xr:uid="{00000000-0004-0000-0100-000013010000}"/>
+    <hyperlink ref="E132" r:id="rId277" tooltip="order" display=" Micrococcales" xr:uid="{00000000-0004-0000-0100-000014010000}"/>
+    <hyperlink ref="D132" r:id="rId278" tooltip="class" xr:uid="{00000000-0004-0000-0100-000015010000}"/>
+    <hyperlink ref="C132" r:id="rId279" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000016010000}"/>
+    <hyperlink ref="F223" r:id="rId280" tooltip="family" display=" Prevotellaceae" xr:uid="{00000000-0004-0000-0100-000017010000}"/>
+    <hyperlink ref="E223" r:id="rId281" tooltip="order" display=" Bacteroidales" xr:uid="{00000000-0004-0000-0100-000018010000}"/>
+    <hyperlink ref="D223" r:id="rId282" tooltip="class" xr:uid="{00000000-0004-0000-0100-000019010000}"/>
+    <hyperlink ref="C223" r:id="rId283" tooltip="phylum" display=" Bacteroidetes" xr:uid="{00000000-0004-0000-0100-00001A010000}"/>
+    <hyperlink ref="F222" r:id="rId284" tooltip="family" xr:uid="{00000000-0004-0000-0100-00001B010000}"/>
+    <hyperlink ref="E222" r:id="rId285" tooltip="order" display=" Bacteroidales" xr:uid="{00000000-0004-0000-0100-00001C010000}"/>
+    <hyperlink ref="D222" r:id="rId286" tooltip="class" xr:uid="{00000000-0004-0000-0100-00001D010000}"/>
+    <hyperlink ref="C222" r:id="rId287" tooltip="phylum" display=" Bacteroidetes" xr:uid="{00000000-0004-0000-0100-00001E010000}"/>
+    <hyperlink ref="F451" r:id="rId288" tooltip="genus" display=" Pontibacillus" xr:uid="{00000000-0004-0000-0100-00001F010000}"/>
+    <hyperlink ref="E451" r:id="rId289" tooltip="order" display=" Bacillales" xr:uid="{00000000-0004-0000-0100-000020010000}"/>
+    <hyperlink ref="D451" r:id="rId290" tooltip="class" xr:uid="{00000000-0004-0000-0100-000021010000}"/>
+    <hyperlink ref="C451" r:id="rId291" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000022010000}"/>
+    <hyperlink ref="E858" r:id="rId292" tooltip="order" display=" Enterobacterales" xr:uid="{00000000-0004-0000-0100-000023010000}"/>
+    <hyperlink ref="D858" r:id="rId293" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-000024010000}"/>
+    <hyperlink ref="C858" r:id="rId294" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000025010000}"/>
+    <hyperlink ref="F857" r:id="rId295" tooltip="family" display=" Nannocystaceae" xr:uid="{00000000-0004-0000-0100-000026010000}"/>
+    <hyperlink ref="E857" r:id="rId296" tooltip="order" display=" Myxococcales" xr:uid="{00000000-0004-0000-0100-000027010000}"/>
+    <hyperlink ref="D857" r:id="rId297" tooltip="class" display=" Deltaproteobacteria" xr:uid="{00000000-0004-0000-0100-000028010000}"/>
+    <hyperlink ref="C857" r:id="rId298" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000029010000}"/>
+    <hyperlink ref="F449" r:id="rId299" tooltip="family" xr:uid="{00000000-0004-0000-0100-00002A010000}"/>
+    <hyperlink ref="E449" r:id="rId300" tooltip="order" display=" Bacillales" xr:uid="{00000000-0004-0000-0100-00002B010000}"/>
+    <hyperlink ref="D449" r:id="rId301" tooltip="class" xr:uid="{00000000-0004-0000-0100-00002C010000}"/>
+    <hyperlink ref="C449" r:id="rId302" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-00002D010000}"/>
+    <hyperlink ref="F852" r:id="rId303" tooltip="family" display=" Phyllobacteriaceae" xr:uid="{00000000-0004-0000-0100-00002E010000}"/>
+    <hyperlink ref="E852" r:id="rId304" tooltip="order" display=" Rhizobiales" xr:uid="{00000000-0004-0000-0100-00002F010000}"/>
+    <hyperlink ref="D852" r:id="rId305" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-000030010000}"/>
+    <hyperlink ref="C852" r:id="rId306" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000031010000}"/>
+    <hyperlink ref="F850" r:id="rId307" tooltip="family" xr:uid="{00000000-0004-0000-0100-000032010000}"/>
+    <hyperlink ref="E850" r:id="rId308" tooltip="order" display=" Enterobacterales" xr:uid="{00000000-0004-0000-0100-000033010000}"/>
+    <hyperlink ref="D850" r:id="rId309" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-000034010000}"/>
+    <hyperlink ref="C850" r:id="rId310" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000035010000}"/>
+    <hyperlink ref="F849" r:id="rId311" tooltip="family" xr:uid="{00000000-0004-0000-0100-000036010000}"/>
+    <hyperlink ref="E849" r:id="rId312" tooltip="order" display=" Vibrionales" xr:uid="{00000000-0004-0000-0100-000037010000}"/>
+    <hyperlink ref="D849" r:id="rId313" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-000038010000}"/>
+    <hyperlink ref="C849" r:id="rId314" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000039010000}"/>
+    <hyperlink ref="F848" r:id="rId315" tooltip="family" display=" Caulobacteraceae" xr:uid="{00000000-0004-0000-0100-00003A010000}"/>
+    <hyperlink ref="E848" r:id="rId316" tooltip="order" xr:uid="{00000000-0004-0000-0100-00003B010000}"/>
+    <hyperlink ref="D848" r:id="rId317" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-00003C010000}"/>
+    <hyperlink ref="C848" r:id="rId318" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-00003D010000}"/>
+    <hyperlink ref="E442" r:id="rId319" tooltip="Clostridiales" xr:uid="{00000000-0004-0000-0100-00003E010000}"/>
+    <hyperlink ref="D442" r:id="rId320" tooltip="Clostridia" xr:uid="{00000000-0004-0000-0100-00003F010000}"/>
+    <hyperlink ref="C442" r:id="rId321" xr:uid="{00000000-0004-0000-0100-000040010000}"/>
+    <hyperlink ref="F1007" r:id="rId322" tooltip="family" xr:uid="{00000000-0004-0000-0100-000041010000}"/>
+    <hyperlink ref="E1007" r:id="rId323" tooltip="order" display=" Puniceicoccales" xr:uid="{00000000-0004-0000-0100-000042010000}"/>
+    <hyperlink ref="D1007" r:id="rId324" tooltip="class" display=" Opitutae" xr:uid="{00000000-0004-0000-0100-000043010000}"/>
+    <hyperlink ref="C1007" r:id="rId325" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000044010000}"/>
+    <hyperlink ref="F840" r:id="rId326" tooltip="family" xr:uid="{00000000-0004-0000-0100-000045010000}"/>
+    <hyperlink ref="E840" r:id="rId327" tooltip="order" display=" Pasteurellales" xr:uid="{00000000-0004-0000-0100-000046010000}"/>
+    <hyperlink ref="D840" r:id="rId328" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-000047010000}"/>
+    <hyperlink ref="C840" r:id="rId329" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0100-000048010000}"/>
+    <hyperlink ref="F838" r:id="rId330" tooltip="family" display=" Rhodobiaceae" xr:uid="{00000000-0004-0000-0100-000049010000}"/>
+    <hyperlink ref="E838" r:id="rId331" tooltip="order" display=" Rhizobiales" xr:uid="{00000000-0004-0000-0100-00004A010000}"/>
+    <hyperlink ref="D838" r:id="rId332" tooltip="Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-00004B010000}"/>
+    <hyperlink ref="C838" r:id="rId333" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0100-00004C010000}"/>
+    <hyperlink ref="F832" r:id="rId334" xr:uid="{00000000-0004-0000-0100-00004D010000}"/>
+    <hyperlink ref="E832" r:id="rId335" tooltip="Rhodobacterales" xr:uid="{00000000-0004-0000-0100-00004E010000}"/>
+    <hyperlink ref="D832" r:id="rId336" tooltip="Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-00004F010000}"/>
+    <hyperlink ref="C832" r:id="rId337" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0100-000050010000}"/>
+    <hyperlink ref="F434" r:id="rId338" tooltip="family" xr:uid="{00000000-0004-0000-0100-000051010000}"/>
+    <hyperlink ref="E434" r:id="rId339" tooltip="order" display=" Bacillales" xr:uid="{00000000-0004-0000-0100-000052010000}"/>
+    <hyperlink ref="D434" r:id="rId340" tooltip="class" xr:uid="{00000000-0004-0000-0100-000053010000}"/>
+    <hyperlink ref="C434" r:id="rId341" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000054010000}"/>
+    <hyperlink ref="F826" r:id="rId342" tooltip="family" display=" Alcaligenaceae" xr:uid="{00000000-0004-0000-0100-000055010000}"/>
+    <hyperlink ref="E826" r:id="rId343" tooltip="order" display=" Burkholderiales" xr:uid="{00000000-0004-0000-0100-000056010000}"/>
+    <hyperlink ref="D826" r:id="rId344" tooltip="class" display=" Betaproteobacteria" xr:uid="{00000000-0004-0000-0100-000057010000}"/>
+    <hyperlink ref="C826" r:id="rId345" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000058010000}"/>
+    <hyperlink ref="F825" r:id="rId346" tooltip="family" xr:uid="{00000000-0004-0000-0100-000059010000}"/>
+    <hyperlink ref="E825" r:id="rId347" tooltip="order" xr:uid="{00000000-0004-0000-0100-00005A010000}"/>
+    <hyperlink ref="D825" r:id="rId348" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-00005B010000}"/>
+    <hyperlink ref="C825" r:id="rId349" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0100-00005C010000}"/>
+    <hyperlink ref="F824" r:id="rId350" tooltip="family" xr:uid="{00000000-0004-0000-0100-00005D010000}"/>
+    <hyperlink ref="E824" r:id="rId351" tooltip="order" display=" Rhizobiales" xr:uid="{00000000-0004-0000-0100-00005E010000}"/>
+    <hyperlink ref="D824" r:id="rId352" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-00005F010000}"/>
+    <hyperlink ref="C824" r:id="rId353" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000060010000}"/>
+    <hyperlink ref="F823" r:id="rId354" tooltip="family" display=" Oceanospirillaceae" xr:uid="{00000000-0004-0000-0100-000061010000}"/>
+    <hyperlink ref="E823" r:id="rId355" tooltip="order" xr:uid="{00000000-0004-0000-0100-000062010000}"/>
+    <hyperlink ref="D823" r:id="rId356" tooltip="class" xr:uid="{00000000-0004-0000-0100-000063010000}"/>
+    <hyperlink ref="C823" r:id="rId357" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000064010000}"/>
+    <hyperlink ref="F429" r:id="rId358" tooltip="family" xr:uid="{00000000-0004-0000-0100-000065010000}"/>
+    <hyperlink ref="E429" r:id="rId359" tooltip="order" xr:uid="{00000000-0004-0000-0100-000066010000}"/>
+    <hyperlink ref="C429" r:id="rId360" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000067010000}"/>
+    <hyperlink ref="D429" r:id="rId361" tooltip="class" xr:uid="{00000000-0004-0000-0100-000068010000}"/>
+    <hyperlink ref="C816" r:id="rId362" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000069010000}"/>
+    <hyperlink ref="D816" r:id="rId363" tooltip="class" xr:uid="{00000000-0004-0000-0100-00006A010000}"/>
+    <hyperlink ref="E816" r:id="rId364" tooltip="order" xr:uid="{00000000-0004-0000-0100-00006B010000}"/>
+    <hyperlink ref="F816" r:id="rId365" tooltip="family" xr:uid="{00000000-0004-0000-0100-00006C010000}"/>
+    <hyperlink ref="F124" r:id="rId366" tooltip="family" xr:uid="{00000000-0004-0000-0100-00006D010000}"/>
+    <hyperlink ref="E124" r:id="rId367" tooltip="order" display=" Streptosporangiales" xr:uid="{00000000-0004-0000-0100-00006E010000}"/>
+    <hyperlink ref="D124" r:id="rId368" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-00006F010000}"/>
+    <hyperlink ref="C124" r:id="rId369" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000070010000}"/>
+    <hyperlink ref="F123" r:id="rId370" tooltip="family" xr:uid="{00000000-0004-0000-0100-000071010000}"/>
+    <hyperlink ref="E123" r:id="rId371" tooltip="order" xr:uid="{00000000-0004-0000-0100-000072010000}"/>
+    <hyperlink ref="D123" r:id="rId372" tooltip="class" xr:uid="{00000000-0004-0000-0100-000073010000}"/>
+    <hyperlink ref="C123" r:id="rId373" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000074010000}"/>
+    <hyperlink ref="D122" r:id="rId374" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000075010000}"/>
+    <hyperlink ref="C122" r:id="rId375" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000076010000}"/>
+    <hyperlink ref="F122" r:id="rId376" tooltip="family" display=" Nocardioidaceae" xr:uid="{00000000-0004-0000-0100-000077010000}"/>
+    <hyperlink ref="E122" r:id="rId377" tooltip="order" xr:uid="{00000000-0004-0000-0100-000078010000}"/>
+    <hyperlink ref="F121" r:id="rId378" tooltip="family" xr:uid="{00000000-0004-0000-0100-000079010000}"/>
+    <hyperlink ref="E121" r:id="rId379" tooltip="order" display=" Corynebacteriales" xr:uid="{00000000-0004-0000-0100-00007A010000}"/>
+    <hyperlink ref="D121" r:id="rId380" tooltip="class" xr:uid="{00000000-0004-0000-0100-00007B010000}"/>
+    <hyperlink ref="C121" r:id="rId381" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-00007C010000}"/>
+    <hyperlink ref="F812" r:id="rId382" tooltip="family" xr:uid="{00000000-0004-0000-0100-00007D010000}"/>
+    <hyperlink ref="E812" r:id="rId383" tooltip="order" xr:uid="{00000000-0004-0000-0100-00007E010000}"/>
+    <hyperlink ref="D812" r:id="rId384" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-00007F010000}"/>
+    <hyperlink ref="C812" r:id="rId385" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0100-000080010000}"/>
+    <hyperlink ref="F809" r:id="rId386" tooltip="family" xr:uid="{00000000-0004-0000-0100-000081010000}"/>
+    <hyperlink ref="E809" r:id="rId387" tooltip="order" xr:uid="{00000000-0004-0000-0100-000082010000}"/>
+    <hyperlink ref="D809" r:id="rId388" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-000083010000}"/>
+    <hyperlink ref="C809" r:id="rId389" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0100-000084010000}"/>
+    <hyperlink ref="F807" r:id="rId390" tooltip="family" display=" Sinobacteraceae" xr:uid="{00000000-0004-0000-0100-000085010000}"/>
+    <hyperlink ref="E807" r:id="rId391" tooltip="order" display=" Nevskiales" xr:uid="{00000000-0004-0000-0100-000086010000}"/>
+    <hyperlink ref="D807" r:id="rId392" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-000087010000}"/>
+    <hyperlink ref="C807" r:id="rId393" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0100-000088010000}"/>
+    <hyperlink ref="F120" r:id="rId394" tooltip="family" display=" Micrococcaceae" xr:uid="{00000000-0004-0000-0100-000089010000}"/>
+    <hyperlink ref="E120" r:id="rId395" tooltip="order" display=" Micrococcales" xr:uid="{00000000-0004-0000-0100-00008A010000}"/>
+    <hyperlink ref="D120" r:id="rId396" tooltip="class" xr:uid="{00000000-0004-0000-0100-00008B010000}"/>
+    <hyperlink ref="C120" r:id="rId397" tooltip="phylum" display=" Actinobacteria" xr:uid="{00000000-0004-0000-0100-00008C010000}"/>
+    <hyperlink ref="F806" r:id="rId398" tooltip="family" xr:uid="{00000000-0004-0000-0100-00008D010000}"/>
+    <hyperlink ref="E806" r:id="rId399" tooltip="order" xr:uid="{00000000-0004-0000-0100-00008E010000}"/>
+    <hyperlink ref="D806" r:id="rId400" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-00008F010000}"/>
+    <hyperlink ref="C806" r:id="rId401" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0100-000090010000}"/>
+    <hyperlink ref="F424" r:id="rId402" tooltip="family" display=" Halobacteroidaceae" xr:uid="{00000000-0004-0000-0100-000091010000}"/>
+    <hyperlink ref="E424" r:id="rId403" tooltip="order" display=" Halanaerobiales" xr:uid="{00000000-0004-0000-0100-000092010000}"/>
+    <hyperlink ref="D424" r:id="rId404" tooltip="class" display=" Clostridia" xr:uid="{00000000-0004-0000-0100-000093010000}"/>
+    <hyperlink ref="C424" r:id="rId405" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000094010000}"/>
+    <hyperlink ref="F999" r:id="rId406" tooltip="family" xr:uid="{00000000-0004-0000-0100-000095010000}"/>
+    <hyperlink ref="E999" r:id="rId407" tooltip="order" xr:uid="{00000000-0004-0000-0100-000096010000}"/>
+    <hyperlink ref="D999" r:id="rId408" tooltip="class" xr:uid="{00000000-0004-0000-0100-000097010000}"/>
+    <hyperlink ref="C999" r:id="rId409" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-000098010000}"/>
+    <hyperlink ref="F118" r:id="rId410" tooltip="Mycobacterium" xr:uid="{00000000-0004-0000-0100-000099010000}"/>
+    <hyperlink ref="E118" r:id="rId411" tooltip="Corynebacterineae" xr:uid="{00000000-0004-0000-0100-00009A010000}"/>
+    <hyperlink ref="D118" r:id="rId412" tooltip="Actinomycetales" xr:uid="{00000000-0004-0000-0100-00009B010000}"/>
+    <hyperlink ref="C118" r:id="rId413" xr:uid="{00000000-0004-0000-0100-00009C010000}"/>
+    <hyperlink ref="F801" r:id="rId414" tooltip="family" display=" Moritellaceae" xr:uid="{00000000-0004-0000-0100-00009D010000}"/>
+    <hyperlink ref="E801" r:id="rId415" tooltip="order" display=" Alteromonadales" xr:uid="{00000000-0004-0000-0100-00009E010000}"/>
+    <hyperlink ref="D801" r:id="rId416" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-00009F010000}"/>
+    <hyperlink ref="E800" r:id="rId417" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000A0010000}"/>
+    <hyperlink ref="D800" r:id="rId418" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000A1010000}"/>
+    <hyperlink ref="F799" r:id="rId419" tooltip="family" display=" Moraxellaceae" xr:uid="{00000000-0004-0000-0100-0000A2010000}"/>
+    <hyperlink ref="E799" r:id="rId420" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000A3010000}"/>
+    <hyperlink ref="D799" r:id="rId421" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000A4010000}"/>
+    <hyperlink ref="C799" r:id="rId422" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000A5010000}"/>
+    <hyperlink ref="E116" r:id="rId423" tooltip="order" display=" Geodermatophilales" xr:uid="{00000000-0004-0000-0100-0000A6010000}"/>
+    <hyperlink ref="D116" r:id="rId424" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000A7010000}"/>
+    <hyperlink ref="C116" r:id="rId425" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000A8010000}"/>
+    <hyperlink ref="F115" r:id="rId426" tooltip="family" display=" Geodermatophilaceae" xr:uid="{00000000-0004-0000-0100-0000A9010000}"/>
+    <hyperlink ref="D115" r:id="rId427" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000AA010000}"/>
+    <hyperlink ref="C115" r:id="rId428" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000AB010000}"/>
+    <hyperlink ref="F110" r:id="rId429" tooltip="family" xr:uid="{00000000-0004-0000-0100-0000AC010000}"/>
+    <hyperlink ref="E110" r:id="rId430" tooltip="order" display=" Micromonosporales" xr:uid="{00000000-0004-0000-0100-0000AD010000}"/>
+    <hyperlink ref="D110" r:id="rId431" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000AE010000}"/>
+    <hyperlink ref="F109" r:id="rId432" tooltip="family" display=" Propionibacteriaceae" xr:uid="{00000000-0004-0000-0100-0000AF010000}"/>
+    <hyperlink ref="E109" r:id="rId433" tooltip="order" display=" Propionibacteriales" xr:uid="{00000000-0004-0000-0100-0000B0010000}"/>
+    <hyperlink ref="D109" r:id="rId434" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000B1010000}"/>
+    <hyperlink ref="C109" r:id="rId435" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000B2010000}"/>
+    <hyperlink ref="F108" r:id="rId436" tooltip="Micrococcus" xr:uid="{00000000-0004-0000-0100-0000B3010000}"/>
+    <hyperlink ref="E108" r:id="rId437" tooltip="Micrococcaceae" xr:uid="{00000000-0004-0000-0100-0000B4010000}"/>
+    <hyperlink ref="D108" r:id="rId438" tooltip="Micrococcales (page does not exist)" xr:uid="{00000000-0004-0000-0100-0000B5010000}"/>
+    <hyperlink ref="C108" r:id="rId439" xr:uid="{00000000-0004-0000-0100-0000B6010000}"/>
+    <hyperlink ref="F796" r:id="rId440" tooltip="family" xr:uid="{00000000-0004-0000-0100-0000B7010000}"/>
+    <hyperlink ref="E796" r:id="rId441" tooltip="order" display=" Cellvibrionales" xr:uid="{00000000-0004-0000-0100-0000B8010000}"/>
+    <hyperlink ref="C796" r:id="rId442" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000B9010000}"/>
+    <hyperlink ref="D796" r:id="rId443" tooltip="class" xr:uid="{00000000-0004-0000-0100-0000BA010000}"/>
+    <hyperlink ref="D106" r:id="rId444" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000BB010000}"/>
+    <hyperlink ref="F106" r:id="rId445" tooltip="family" xr:uid="{00000000-0004-0000-0100-0000BC010000}"/>
+    <hyperlink ref="E106" r:id="rId446" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000BD010000}"/>
+    <hyperlink ref="C106" r:id="rId447" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000BE010000}"/>
+    <hyperlink ref="F793" r:id="rId448" tooltip="family" display=" Piscirickettsiaceae" xr:uid="{00000000-0004-0000-0100-0000BF010000}"/>
+    <hyperlink ref="E793" r:id="rId449" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000C0010000}"/>
+    <hyperlink ref="D793" r:id="rId450" tooltip="Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000C1010000}"/>
+    <hyperlink ref="C793" r:id="rId451" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000C2010000}"/>
+    <hyperlink ref="E791" r:id="rId452" tooltip="order" display=" Methylococcales" xr:uid="{00000000-0004-0000-0100-0000C3010000}"/>
+    <hyperlink ref="D791" r:id="rId453" tooltip="Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000C4010000}"/>
+    <hyperlink ref="C791" r:id="rId454" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000C5010000}"/>
+    <hyperlink ref="F787" r:id="rId455" tooltip="family" xr:uid="{00000000-0004-0000-0100-0000C6010000}"/>
+    <hyperlink ref="E787" r:id="rId456" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000C7010000}"/>
+    <hyperlink ref="D787" r:id="rId457" tooltip="class" display=" Betaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000C8010000}"/>
+    <hyperlink ref="C787" r:id="rId458" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000C9010000}"/>
+    <hyperlink ref="F785" r:id="rId459" tooltip="family" xr:uid="{00000000-0004-0000-0100-0000CA010000}"/>
+    <hyperlink ref="E785" r:id="rId460" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000CB010000}"/>
+    <hyperlink ref="D785" r:id="rId461" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000CC010000}"/>
+    <hyperlink ref="C785" r:id="rId462" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000CD010000}"/>
+    <hyperlink ref="F418" r:id="rId463" tooltip="family" display=" Enterococcaceae" xr:uid="{00000000-0004-0000-0100-0000CE010000}"/>
+    <hyperlink ref="E418" r:id="rId464" tooltip="Lactobacillales" xr:uid="{00000000-0004-0000-0100-0000CF010000}"/>
+    <hyperlink ref="D418" r:id="rId465" tooltip="Bacilli" xr:uid="{00000000-0004-0000-0100-0000D0010000}"/>
+    <hyperlink ref="C418" r:id="rId466" tooltip="Firmicutes" xr:uid="{00000000-0004-0000-0100-0000D1010000}"/>
+    <hyperlink ref="F416" r:id="rId467" tooltip="family" xr:uid="{00000000-0004-0000-0100-0000D2010000}"/>
+    <hyperlink ref="E416" r:id="rId468" tooltip="order" display=" Veillonellales" xr:uid="{00000000-0004-0000-0100-0000D3010000}"/>
+    <hyperlink ref="C415" r:id="rId469" tooltip="phylum" display=" Firmicutes" xr:uid="{00000000-0004-0000-0100-0000D4010000}"/>
+    <hyperlink ref="F415" r:id="rId470" tooltip="family" display=" Selenomonadaceae" xr:uid="{00000000-0004-0000-0100-0000D5010000}"/>
+    <hyperlink ref="E415" r:id="rId471" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000D6010000}"/>
+    <hyperlink ref="D415" r:id="rId472" tooltip="class" xr:uid="{00000000-0004-0000-0100-0000D7010000}"/>
+    <hyperlink ref="E781" r:id="rId473" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000D8010000}"/>
+    <hyperlink ref="D781" r:id="rId474" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000D9010000}"/>
+    <hyperlink ref="C781" r:id="rId475" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000DA010000}"/>
+    <hyperlink ref="F780" r:id="rId476" tooltip="Oceanospirillaceae" xr:uid="{00000000-0004-0000-0100-0000DB010000}"/>
+    <hyperlink ref="E780" r:id="rId477" tooltip="Oceanospirillales" xr:uid="{00000000-0004-0000-0100-0000DC010000}"/>
+    <hyperlink ref="D780" r:id="rId478" tooltip="Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000DD010000}"/>
+    <hyperlink ref="C780" r:id="rId479" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000DE010000}"/>
+    <hyperlink ref="F779" r:id="rId480" tooltip="family" xr:uid="{00000000-0004-0000-0100-0000DF010000}"/>
+    <hyperlink ref="E779" r:id="rId481" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000E0010000}"/>
+    <hyperlink ref="D779" r:id="rId482" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000E1010000}"/>
+    <hyperlink ref="C779" r:id="rId483" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000E2010000}"/>
+    <hyperlink ref="F778" r:id="rId484" tooltip="family" xr:uid="{00000000-0004-0000-0100-0000E3010000}"/>
+    <hyperlink ref="E778" r:id="rId485" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000E4010000}"/>
+    <hyperlink ref="D778" r:id="rId486" tooltip="class" xr:uid="{00000000-0004-0000-0100-0000E5010000}"/>
+    <hyperlink ref="C778" r:id="rId487" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000E6010000}"/>
+    <hyperlink ref="F384" r:id="rId488" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E7010000}"/>
+    <hyperlink ref="E729" r:id="rId489" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E8010000}"/>
+    <hyperlink ref="F729" r:id="rId490" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224464&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E9010000}"/>
+    <hyperlink ref="F74" r:id="rId491" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EA010000}"/>
+    <hyperlink ref="F374" r:id="rId492" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541019&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EB010000}"/>
+    <hyperlink ref="C71" r:id="rId493" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EC010000}"/>
+    <hyperlink ref="C1" r:id="rId494" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=57723&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000ED010000}"/>
+    <hyperlink ref="F371" r:id="rId495" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EE010000}"/>
+    <hyperlink ref="C365" r:id="rId496" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-0000EF010000}"/>
+    <hyperlink ref="F365" r:id="rId497" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F0010000}"/>
+    <hyperlink ref="C363" r:id="rId498" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F1010000}"/>
+    <hyperlink ref="F363" r:id="rId499" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F2010000}"/>
+    <hyperlink ref="F362" r:id="rId500" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543313&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F3010000}"/>
+    <hyperlink ref="C362" r:id="rId501" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F4010000}"/>
+    <hyperlink ref="F65" r:id="rId502" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F5010000}"/>
+    <hyperlink ref="F360" r:id="rId503" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F6010000}"/>
+    <hyperlink ref="F359" r:id="rId504" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F7010000}"/>
+    <hyperlink ref="F64" r:id="rId505" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F8010000}"/>
+    <hyperlink ref="C207" r:id="rId506" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F9010000}"/>
+    <hyperlink ref="F357" r:id="rId507" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FA010000}"/>
+    <hyperlink ref="E357" r:id="rId508" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FB010000}"/>
+    <hyperlink ref="D357" r:id="rId509" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FC010000}"/>
+    <hyperlink ref="F356" r:id="rId510" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FD010000}"/>
+    <hyperlink ref="F354" r:id="rId511" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2304686&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FE010000}"/>
+    <hyperlink ref="C353" r:id="rId512" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FF010000}"/>
+    <hyperlink ref="F355" r:id="rId513" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000000020000}"/>
+    <hyperlink ref="E355" r:id="rId514" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000001020000}"/>
+    <hyperlink ref="D355" r:id="rId515" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000002020000}"/>
+    <hyperlink ref="D702" r:id="rId516" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000003020000}"/>
+    <hyperlink ref="C61:D61" r:id="rId517" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000004020000}"/>
+    <hyperlink ref="C696" r:id="rId518" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000005020000}"/>
+    <hyperlink ref="D696" r:id="rId519" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000006020000}"/>
+    <hyperlink ref="F341" r:id="rId520" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000007020000}"/>
+    <hyperlink ref="F340" r:id="rId521" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000008020000}"/>
+    <hyperlink ref="D687" r:id="rId522" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000009020000}"/>
+    <hyperlink ref="C687" r:id="rId523" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000A020000}"/>
+    <hyperlink ref="F58" r:id="rId524" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000B020000}"/>
+    <hyperlink ref="C58" r:id="rId525" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000C020000}"/>
+    <hyperlink ref="D58" r:id="rId526" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000D020000}"/>
+    <hyperlink ref="D337" r:id="rId527" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000E020000}"/>
+    <hyperlink ref="D681" r:id="rId528" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000F020000}"/>
+    <hyperlink ref="D680" r:id="rId529" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000010020000}"/>
+    <hyperlink ref="F332" r:id="rId530" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000011020000}"/>
+    <hyperlink ref="D679" r:id="rId531" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000012020000}"/>
+    <hyperlink ref="F55" r:id="rId532" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000013020000}"/>
+    <hyperlink ref="D256:D259" r:id="rId533" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000014020000}"/>
+    <hyperlink ref="E256:E259" r:id="rId534" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000015020000}"/>
+    <hyperlink ref="C55" r:id="rId535" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000016020000}"/>
+    <hyperlink ref="F329" r:id="rId536" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000017020000}"/>
+    <hyperlink ref="C662" r:id="rId537" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000018020000}"/>
+    <hyperlink ref="C661" r:id="rId538" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000019020000}"/>
+    <hyperlink ref="D660" r:id="rId539" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001A020000}"/>
+    <hyperlink ref="C660" r:id="rId540" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001B020000}"/>
+    <hyperlink ref="D53" r:id="rId541" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001C020000}"/>
+    <hyperlink ref="C53" r:id="rId542" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001D020000}"/>
+    <hyperlink ref="D52" r:id="rId543" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001E020000}"/>
+    <hyperlink ref="F328" r:id="rId544" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001F020000}"/>
+    <hyperlink ref="F311" r:id="rId545" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000020020000}"/>
+    <hyperlink ref="F643" r:id="rId546" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=412032&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000021020000}"/>
+    <hyperlink ref="D308" r:id="rId547" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000022020000}"/>
+    <hyperlink ref="C308" r:id="rId548" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000023020000}"/>
+    <hyperlink ref="F629" r:id="rId549" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903410&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000024020000}"/>
+    <hyperlink ref="D38" r:id="rId550" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000025020000}"/>
+    <hyperlink ref="C38" r:id="rId551" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000026020000}"/>
+    <hyperlink ref="F38" r:id="rId552" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000027020000}"/>
+    <hyperlink ref="E38" r:id="rId553" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000028020000}"/>
+    <hyperlink ref="C36" r:id="rId554" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000029020000}"/>
+    <hyperlink ref="F36" r:id="rId555" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145358&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002A020000}"/>
+    <hyperlink ref="F295" r:id="rId556" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002B020000}"/>
+    <hyperlink ref="F294" r:id="rId557" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002C020000}"/>
+    <hyperlink ref="F34" r:id="rId558" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=125316&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002D020000}"/>
+    <hyperlink ref="F293" r:id="rId559" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002E020000}"/>
+    <hyperlink ref="F33" r:id="rId560" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002F020000}"/>
+    <hyperlink ref="F41" r:id="rId561" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145357&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000030020000}"/>
+    <hyperlink ref="C299" r:id="rId562" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000031020000}"/>
+    <hyperlink ref="D299" r:id="rId563" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000032020000}"/>
+    <hyperlink ref="E171:E173" r:id="rId564" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000033020000}"/>
+    <hyperlink ref="D634" r:id="rId565" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000034020000}"/>
+    <hyperlink ref="C634" r:id="rId566" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000035020000}"/>
+    <hyperlink ref="C298" r:id="rId567" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000036020000}"/>
+    <hyperlink ref="F32" r:id="rId568" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85018&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000037020000}"/>
+    <hyperlink ref="F289" r:id="rId569" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000038020000}"/>
+    <hyperlink ref="E289" r:id="rId570" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000039020000}"/>
+    <hyperlink ref="D289" r:id="rId571" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003A020000}"/>
+    <hyperlink ref="F283" r:id="rId572" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003B020000}"/>
+    <hyperlink ref="E283" r:id="rId573" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003C020000}"/>
+    <hyperlink ref="D283" r:id="rId574" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003D020000}"/>
+    <hyperlink ref="F597" r:id="rId575" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1524215&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003E020000}"/>
+    <hyperlink ref="E597" r:id="rId576" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003F020000}"/>
+    <hyperlink ref="C24" r:id="rId577" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000040020000}"/>
+    <hyperlink ref="D24" r:id="rId578" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000041020000}"/>
+    <hyperlink ref="F278" r:id="rId579" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000042020000}"/>
+    <hyperlink ref="E278" r:id="rId580" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000043020000}"/>
+    <hyperlink ref="D278" r:id="rId581" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000044020000}"/>
+    <hyperlink ref="E276" r:id="rId582" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000045020000}"/>
+    <hyperlink ref="D276" r:id="rId583" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000046020000}"/>
+    <hyperlink ref="F276" r:id="rId584" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000047020000}"/>
+    <hyperlink ref="F274" r:id="rId585" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000048020000}"/>
+    <hyperlink ref="E274" r:id="rId586" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000049020000}"/>
+    <hyperlink ref="D274" r:id="rId587" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004A020000}"/>
+    <hyperlink ref="D273" r:id="rId588" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004B020000}"/>
+    <hyperlink ref="F272" r:id="rId589" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Info&amp;id=186817&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004C020000}"/>
+    <hyperlink ref="E272" r:id="rId590" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004D020000}"/>
+    <hyperlink ref="D272" r:id="rId591" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004E020000}"/>
+    <hyperlink ref="F270" r:id="rId592" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004F020000}"/>
+    <hyperlink ref="F266" r:id="rId593" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000050020000}"/>
+    <hyperlink ref="E266" r:id="rId594" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000051020000}"/>
+    <hyperlink ref="D266" r:id="rId595" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000052020000}"/>
+    <hyperlink ref="D17" r:id="rId596" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000053020000}"/>
+    <hyperlink ref="C17" r:id="rId597" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000054020000}"/>
+    <hyperlink ref="E386" r:id="rId598" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000055020000}"/>
+    <hyperlink ref="D386" r:id="rId599" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000056020000}"/>
+    <hyperlink ref="C386" r:id="rId600" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000057020000}"/>
+    <hyperlink ref="F385" r:id="rId601" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1570339&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000058020000}"/>
+    <hyperlink ref="E385" r:id="rId602" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737405&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000059020000}"/>
+    <hyperlink ref="D385" r:id="rId603" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005A020000}"/>
+    <hyperlink ref="C385" r:id="rId604" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005B020000}"/>
+    <hyperlink ref="F734" r:id="rId605" tooltip="Halomonadaceae" display="https://en.wikipedia.org/wiki/Halomonadaceae" xr:uid="{00000000-0004-0000-0100-00005C020000}"/>
+    <hyperlink ref="E734" r:id="rId606" display="https://en.wikipedia.org/wiki/Oceanospirillales" xr:uid="{00000000-0004-0000-0100-00005D020000}"/>
+    <hyperlink ref="D734" r:id="rId607" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-00005E020000}"/>
+    <hyperlink ref="C734" r:id="rId608" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0100-00005F020000}"/>
+    <hyperlink ref="F733" r:id="rId609" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000060020000}"/>
+    <hyperlink ref="E733" r:id="rId610" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000061020000}"/>
+    <hyperlink ref="D733" r:id="rId611" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000062020000}"/>
+    <hyperlink ref="C733" r:id="rId612" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000063020000}"/>
+    <hyperlink ref="F378" r:id="rId613" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=972&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000064020000}"/>
+    <hyperlink ref="E378" r:id="rId614" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=53433&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000065020000}"/>
+    <hyperlink ref="D378" r:id="rId615" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000066020000}"/>
+    <hyperlink ref="C378" r:id="rId616" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000067020000}"/>
+    <hyperlink ref="F728" r:id="rId617" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224379&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000068020000}"/>
+    <hyperlink ref="E728" r:id="rId618" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000069020000}"/>
+    <hyperlink ref="D728" r:id="rId619" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006A020000}"/>
+    <hyperlink ref="C728" r:id="rId620" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006B020000}"/>
+    <hyperlink ref="F726" r:id="rId621" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=712&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006C020000}"/>
+    <hyperlink ref="E726" r:id="rId622" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135625&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006D020000}"/>
+    <hyperlink ref="D726" r:id="rId623" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006E020000}"/>
+    <hyperlink ref="C726" r:id="rId624" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006F020000}"/>
+    <hyperlink ref="F70" r:id="rId625" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85026&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000070020000}"/>
+    <hyperlink ref="E70" r:id="rId626" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000071020000}"/>
+    <hyperlink ref="D70" r:id="rId627" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000072020000}"/>
+    <hyperlink ref="C70" r:id="rId628" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000073020000}"/>
+    <hyperlink ref="F723" r:id="rId629" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000074020000}"/>
+    <hyperlink ref="E723" r:id="rId630" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000075020000}"/>
+    <hyperlink ref="C723" r:id="rId631" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000076020000}"/>
+    <hyperlink ref="F721" r:id="rId632" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000077020000}"/>
+    <hyperlink ref="E721" r:id="rId633" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000078020000}"/>
+    <hyperlink ref="D721" r:id="rId634" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000079020000}"/>
+    <hyperlink ref="C721" r:id="rId635" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007A020000}"/>
+    <hyperlink ref="F211" r:id="rId636" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007B020000}"/>
+    <hyperlink ref="E211" r:id="rId637" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200644&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007C020000}"/>
+    <hyperlink ref="D211" r:id="rId638" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007D020000}"/>
+    <hyperlink ref="C211" r:id="rId639" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007E020000}"/>
+    <hyperlink ref="F566" r:id="rId640" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=145358&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007F020000}"/>
+    <hyperlink ref="E566" r:id="rId641" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000080020000}"/>
+    <hyperlink ref="C566:D566" r:id="rId642" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000081020000}"/>
+    <hyperlink ref="F68" r:id="rId643" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85030&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000082020000}"/>
+    <hyperlink ref="E68" r:id="rId644" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000083020000}"/>
+    <hyperlink ref="C68:D68" r:id="rId645" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000084020000}"/>
+    <hyperlink ref="F716" r:id="rId646" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213422&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000085020000}"/>
+    <hyperlink ref="E716" r:id="rId647" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69541&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000086020000}"/>
+    <hyperlink ref="D716" r:id="rId648" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000087020000}"/>
+    <hyperlink ref="C716" r:id="rId649" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000088020000}"/>
+    <hyperlink ref="F368" r:id="rId650" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000089020000}"/>
+    <hyperlink ref="E368" r:id="rId651" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008A020000}"/>
+    <hyperlink ref="D368" r:id="rId652" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008B020000}"/>
+    <hyperlink ref="C368" r:id="rId653" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008C020000}"/>
+    <hyperlink ref="F526" r:id="rId654" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219687&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008D020000}"/>
+    <hyperlink ref="E526" r:id="rId655" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219686&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008E020000}"/>
+    <hyperlink ref="D526" r:id="rId656" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=219685&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008F020000}"/>
+    <hyperlink ref="C526" r:id="rId657" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=142182&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000090020000}"/>
+    <hyperlink ref="E366" r:id="rId658" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000091020000}"/>
+    <hyperlink ref="D366" r:id="rId659" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000092020000}"/>
+    <hyperlink ref="C366" r:id="rId660" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000093020000}"/>
+    <hyperlink ref="F361" r:id="rId661" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81850&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000094020000}"/>
+    <hyperlink ref="E361" r:id="rId662" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000095020000}"/>
+    <hyperlink ref="D361" r:id="rId663" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000096020000}"/>
+    <hyperlink ref="C361" r:id="rId664" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000097020000}"/>
+    <hyperlink ref="F208" r:id="rId665" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000098020000}"/>
+    <hyperlink ref="E208" r:id="rId666" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200644&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000099020000}"/>
+    <hyperlink ref="D208" r:id="rId667" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009A020000}"/>
+    <hyperlink ref="C208" r:id="rId668" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009B020000}"/>
+    <hyperlink ref="F206" r:id="rId669" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200667&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009C020000}"/>
+    <hyperlink ref="E206" r:id="rId670" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009D020000}"/>
+    <hyperlink ref="D206" r:id="rId671" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009E020000}"/>
+    <hyperlink ref="C206" r:id="rId672" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009F020000}"/>
+    <hyperlink ref="E352" r:id="rId673" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A0020000}"/>
+    <hyperlink ref="D352" r:id="rId674" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A1020000}"/>
+    <hyperlink ref="C352" r:id="rId675" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A2020000}"/>
+    <hyperlink ref="F351" r:id="rId676" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A3020000}"/>
+    <hyperlink ref="E351" r:id="rId677" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A4020000}"/>
+    <hyperlink ref="D351" r:id="rId678" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A5020000}"/>
+    <hyperlink ref="C351" r:id="rId679" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A6020000}"/>
+    <hyperlink ref="F350" r:id="rId680" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A7020000}"/>
+    <hyperlink ref="E350" r:id="rId681" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A8020000}"/>
+    <hyperlink ref="D350" r:id="rId682" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A9020000}"/>
+    <hyperlink ref="C350" r:id="rId683" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AA020000}"/>
+    <hyperlink ref="F349" r:id="rId684" tooltip="genus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=33986&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AB020000}"/>
+    <hyperlink ref="E349" r:id="rId685" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AC020000}"/>
+    <hyperlink ref="D349" r:id="rId686" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AD020000}"/>
+    <hyperlink ref="C349" r:id="rId687" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AE020000}"/>
+    <hyperlink ref="F62" r:id="rId688" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AF020000}"/>
+    <hyperlink ref="E62" r:id="rId689" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908621&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B0020000}"/>
+    <hyperlink ref="D62" r:id="rId690" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=908620&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B1020000}"/>
+    <hyperlink ref="C62" r:id="rId691" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B2020000}"/>
+    <hyperlink ref="F348" r:id="rId692" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B3020000}"/>
+    <hyperlink ref="E348" r:id="rId693" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B4020000}"/>
+    <hyperlink ref="D348" r:id="rId694" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B5020000}"/>
+    <hyperlink ref="C348" r:id="rId695" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B6020000}"/>
+    <hyperlink ref="F701" r:id="rId696" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B7020000}"/>
+    <hyperlink ref="E701" r:id="rId697" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B8020000}"/>
+    <hyperlink ref="D701" r:id="rId698" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B9020000}"/>
+    <hyperlink ref="C701" r:id="rId699" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BA020000}"/>
+    <hyperlink ref="F347" r:id="rId700" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BB020000}"/>
+    <hyperlink ref="E347" r:id="rId701" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BC020000}"/>
+    <hyperlink ref="D347" r:id="rId702" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BD020000}"/>
+    <hyperlink ref="C347" r:id="rId703" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BE020000}"/>
+    <hyperlink ref="F699" r:id="rId704" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903409&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BF020000}"/>
+    <hyperlink ref="E699" r:id="rId705" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C0020000}"/>
+    <hyperlink ref="D699" r:id="rId706" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C1020000}"/>
+    <hyperlink ref="C699" r:id="rId707" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C2020000}"/>
+    <hyperlink ref="F344" r:id="rId708" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C3020000}"/>
+    <hyperlink ref="E344" r:id="rId709" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C4020000}"/>
+    <hyperlink ref="D344" r:id="rId710" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C5020000}"/>
+    <hyperlink ref="C344" r:id="rId711" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C6020000}"/>
+    <hyperlink ref="C698" r:id="rId712" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C7020000}"/>
+    <hyperlink ref="D698" r:id="rId713" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C8020000}"/>
+    <hyperlink ref="E698" r:id="rId714" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C9020000}"/>
+    <hyperlink ref="F698" r:id="rId715" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CA020000}"/>
+    <hyperlink ref="C694" r:id="rId716" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CB020000}"/>
+    <hyperlink ref="F694" r:id="rId717" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CC020000}"/>
+    <hyperlink ref="F690" r:id="rId718" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72276&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CD020000}"/>
+    <hyperlink ref="E690" r:id="rId719" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CE020000}"/>
+    <hyperlink ref="D690" r:id="rId720" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CF020000}"/>
+    <hyperlink ref="C690" r:id="rId721" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D0020000}"/>
+    <hyperlink ref="D202" r:id="rId722" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200643&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D1020000}"/>
+    <hyperlink ref="F202" r:id="rId723" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2005520&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D2020000}"/>
+    <hyperlink ref="E202" r:id="rId724" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=171549&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D3020000}"/>
+    <hyperlink ref="C202" r:id="rId725" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D4020000}"/>
+    <hyperlink ref="F688" r:id="rId726" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1775411&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D5020000}"/>
+    <hyperlink ref="E688" r:id="rId727" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135614&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D6020000}"/>
+    <hyperlink ref="D688" r:id="rId728" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D7020000}"/>
+    <hyperlink ref="C688" r:id="rId729" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D8020000}"/>
+    <hyperlink ref="C59" r:id="rId730" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D9020000}"/>
+    <hyperlink ref="D59" r:id="rId731" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DA020000}"/>
+    <hyperlink ref="F59" r:id="rId732" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85029&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DB020000}"/>
+    <hyperlink ref="E59" r:id="rId733" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DC020000}"/>
+    <hyperlink ref="F686" r:id="rId734" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=868&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DD020000}"/>
+    <hyperlink ref="E686" r:id="rId735" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135615&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DE020000}"/>
+    <hyperlink ref="D686" r:id="rId736" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DF020000}"/>
+    <hyperlink ref="C686" r:id="rId737" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E0020000}"/>
+    <hyperlink ref="F338" r:id="rId738" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31977&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E1020000}"/>
+    <hyperlink ref="E338" r:id="rId739" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843489&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E2020000}"/>
+    <hyperlink ref="D338" r:id="rId740" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E3020000}"/>
+    <hyperlink ref="C338" r:id="rId741" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E4020000}"/>
+    <hyperlink ref="F685" r:id="rId742" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213421&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E5020000}"/>
+    <hyperlink ref="E685" r:id="rId743" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69541&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E6020000}"/>
+    <hyperlink ref="D685" r:id="rId744" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E7020000}"/>
+    <hyperlink ref="C685" r:id="rId745" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E8020000}"/>
+    <hyperlink ref="C683" r:id="rId746" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E9020000}"/>
+    <hyperlink ref="D683" r:id="rId747" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EA020000}"/>
+    <hyperlink ref="E683" r:id="rId748" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EB020000}"/>
+    <hyperlink ref="F683" r:id="rId749" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=194924&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EC020000}"/>
+    <hyperlink ref="F334" r:id="rId750" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000ED020000}"/>
+    <hyperlink ref="E334" r:id="rId751" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909929&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EE020000}"/>
+    <hyperlink ref="D334" r:id="rId752" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EF020000}"/>
+    <hyperlink ref="C334" r:id="rId753" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F0020000}"/>
+    <hyperlink ref="F333" r:id="rId754" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F1020000}"/>
+    <hyperlink ref="E333" r:id="rId755" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909929&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F2020000}"/>
+    <hyperlink ref="D333" r:id="rId756" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F3020000}"/>
+    <hyperlink ref="C333" r:id="rId757" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F4020000}"/>
+    <hyperlink ref="E335" r:id="rId758" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F5020000}"/>
+    <hyperlink ref="C335" r:id="rId759" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F6020000}"/>
+    <hyperlink ref="D335" r:id="rId760" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F7020000}"/>
+    <hyperlink ref="F678" r:id="rId761" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224380&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F8020000}"/>
+    <hyperlink ref="E678" r:id="rId762" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F9020000}"/>
+    <hyperlink ref="D678" r:id="rId763" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FA020000}"/>
+    <hyperlink ref="C676" r:id="rId764" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FB020000}"/>
+    <hyperlink ref="C675" r:id="rId765" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FC020000}"/>
+    <hyperlink ref="F674" r:id="rId766" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FD020000}"/>
+    <hyperlink ref="E674" r:id="rId767" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FE020000}"/>
+    <hyperlink ref="D674" r:id="rId768" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FF020000}"/>
+    <hyperlink ref="C674" r:id="rId769" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000000030000}"/>
+    <hyperlink ref="F331" r:id="rId770" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000001030000}"/>
+    <hyperlink ref="E331" r:id="rId771" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000002030000}"/>
+    <hyperlink ref="D331" r:id="rId772" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000003030000}"/>
+    <hyperlink ref="C331" r:id="rId773" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000004030000}"/>
+    <hyperlink ref="F330" r:id="rId774" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000005030000}"/>
+    <hyperlink ref="E330" r:id="rId775" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000006030000}"/>
+    <hyperlink ref="D330" r:id="rId776" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000007030000}"/>
+    <hyperlink ref="C330" r:id="rId777" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000008030000}"/>
+    <hyperlink ref="F57" r:id="rId778" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000009030000}"/>
+    <hyperlink ref="C57" r:id="rId779" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000A030000}"/>
+    <hyperlink ref="F56" r:id="rId780" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000B030000}"/>
+    <hyperlink ref="C56" r:id="rId781" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000C030000}"/>
+    <hyperlink ref="F54" r:id="rId782" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1042322&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000D030000}"/>
+    <hyperlink ref="E54" r:id="rId783" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000E030000}"/>
+    <hyperlink ref="D54" r:id="rId784" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000F030000}"/>
+    <hyperlink ref="C54" r:id="rId785" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000010030000}"/>
+    <hyperlink ref="F252" r:id="rId786" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=183710&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000011030000}"/>
+    <hyperlink ref="D252" r:id="rId787" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=188787&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000012030000}"/>
+    <hyperlink ref="E252" r:id="rId788" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=118964&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000013030000}"/>
+    <hyperlink ref="F241" r:id="rId789" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1202464&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000014030000}"/>
+    <hyperlink ref="E241" r:id="rId790" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1202465&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000015030000}"/>
+    <hyperlink ref="D241" r:id="rId791" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=301297&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000016030000}"/>
+    <hyperlink ref="C241" r:id="rId792" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200795&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000017030000}"/>
+    <hyperlink ref="F659" r:id="rId793" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135616&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000018030000}"/>
+    <hyperlink ref="E659" r:id="rId794" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72273&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000019030000}"/>
+    <hyperlink ref="D659" r:id="rId795" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001A030000}"/>
+    <hyperlink ref="C659" r:id="rId796" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001B030000}"/>
+    <hyperlink ref="F51" r:id="rId797" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001C030000}"/>
+    <hyperlink ref="E51" r:id="rId798" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001D030000}"/>
+    <hyperlink ref="D51" r:id="rId799" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001E030000}"/>
+    <hyperlink ref="C51" r:id="rId800" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001F030000}"/>
+    <hyperlink ref="D50" r:id="rId801" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000020030000}"/>
+    <hyperlink ref="F50" r:id="rId802" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1653&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000021030000}"/>
+    <hyperlink ref="E50" r:id="rId803" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85007&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000022030000}"/>
+    <hyperlink ref="C50" r:id="rId804" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000023030000}"/>
+    <hyperlink ref="F247" r:id="rId805" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138247&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000024030000}"/>
+    <hyperlink ref="E247" r:id="rId806" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138246&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000025030000}"/>
+    <hyperlink ref="D247" r:id="rId807" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138243&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000026030000}"/>
+    <hyperlink ref="C247" r:id="rId808" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2138240&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000027030000}"/>
+    <hyperlink ref="F327" r:id="rId809" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186803&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000028030000}"/>
+    <hyperlink ref="E327" r:id="rId810" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000029030000}"/>
+    <hyperlink ref="D327" r:id="rId811" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002A030000}"/>
+    <hyperlink ref="C327" r:id="rId812" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002B030000}"/>
+    <hyperlink ref="F326" r:id="rId813" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=128827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002C030000}"/>
+    <hyperlink ref="E326" r:id="rId814" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526525&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002D030000}"/>
+    <hyperlink ref="D326" r:id="rId815" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=526524&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002E030000}"/>
+    <hyperlink ref="C326" r:id="rId816" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002F030000}"/>
+    <hyperlink ref="F48" r:id="rId817" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84107&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000030030000}"/>
+    <hyperlink ref="E48" r:id="rId818" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84999&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000031030000}"/>
+    <hyperlink ref="D48" r:id="rId819" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84998&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000032030000}"/>
+    <hyperlink ref="C48" r:id="rId820" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000033030000}"/>
+    <hyperlink ref="F324" r:id="rId821" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000034030000}"/>
+    <hyperlink ref="E324" r:id="rId822" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000035030000}"/>
+    <hyperlink ref="D324" r:id="rId823" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000036030000}"/>
+    <hyperlink ref="C324" r:id="rId824" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000037030000}"/>
+    <hyperlink ref="F323" r:id="rId825" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000038030000}"/>
+    <hyperlink ref="F322" r:id="rId826" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000039030000}"/>
+    <hyperlink ref="F321" r:id="rId827" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003A030000}"/>
+    <hyperlink ref="F320" r:id="rId828" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003B030000}"/>
+    <hyperlink ref="F319" r:id="rId829" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003C030000}"/>
+    <hyperlink ref="E323" r:id="rId830" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003D030000}"/>
+    <hyperlink ref="E322" r:id="rId831" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003E030000}"/>
+    <hyperlink ref="E321" r:id="rId832" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003F030000}"/>
+    <hyperlink ref="E320" r:id="rId833" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000040030000}"/>
+    <hyperlink ref="E319" r:id="rId834" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000041030000}"/>
+    <hyperlink ref="D323" r:id="rId835" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000042030000}"/>
+    <hyperlink ref="D322" r:id="rId836" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000043030000}"/>
+    <hyperlink ref="D321" r:id="rId837" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000044030000}"/>
+    <hyperlink ref="D320" r:id="rId838" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000045030000}"/>
+    <hyperlink ref="D319" r:id="rId839" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000046030000}"/>
+    <hyperlink ref="C323" r:id="rId840" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000047030000}"/>
+    <hyperlink ref="C322" r:id="rId841" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000048030000}"/>
+    <hyperlink ref="C321" r:id="rId842" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000049030000}"/>
+    <hyperlink ref="C320" r:id="rId843" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004A030000}"/>
+    <hyperlink ref="C319" r:id="rId844" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004B030000}"/>
+    <hyperlink ref="F318" r:id="rId845" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004C030000}"/>
+    <hyperlink ref="F317" r:id="rId846" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004D030000}"/>
+    <hyperlink ref="E318" r:id="rId847" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004E030000}"/>
+    <hyperlink ref="E317" r:id="rId848" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004F030000}"/>
+    <hyperlink ref="D318" r:id="rId849" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000050030000}"/>
+    <hyperlink ref="D317" r:id="rId850" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000051030000}"/>
+    <hyperlink ref="C318" r:id="rId851" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000052030000}"/>
+    <hyperlink ref="C317" r:id="rId852" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000053030000}"/>
+    <hyperlink ref="F316" r:id="rId853" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000054030000}"/>
+    <hyperlink ref="E316" r:id="rId854" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000055030000}"/>
+    <hyperlink ref="D316" r:id="rId855" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000056030000}"/>
+    <hyperlink ref="C316" r:id="rId856" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000057030000}"/>
+    <hyperlink ref="F47" r:id="rId857" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000058030000}"/>
+    <hyperlink ref="E47" r:id="rId858" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000059030000}"/>
+    <hyperlink ref="D47" r:id="rId859" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005A030000}"/>
+    <hyperlink ref="C47" r:id="rId860" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005B030000}"/>
+    <hyperlink ref="F650" r:id="rId861" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005C030000}"/>
+    <hyperlink ref="E650" r:id="rId862" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005D030000}"/>
+    <hyperlink ref="D650" r:id="rId863" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005E030000}"/>
+    <hyperlink ref="C650" r:id="rId864" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005F030000}"/>
+    <hyperlink ref="F46" r:id="rId865" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000060030000}"/>
+    <hyperlink ref="E46" r:id="rId866" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000061030000}"/>
+    <hyperlink ref="C46:D46" r:id="rId867" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000062030000}"/>
+    <hyperlink ref="F199" r:id="rId868" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000063030000}"/>
+    <hyperlink ref="E199" r:id="rId869" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=49546&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000064030000}"/>
+    <hyperlink ref="D199" r:id="rId870" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=117743&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000065030000}"/>
+    <hyperlink ref="C199" r:id="rId871" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000066030000}"/>
+    <hyperlink ref="F648" r:id="rId872" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1046&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000067030000}"/>
+    <hyperlink ref="E648" r:id="rId873" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000068030000}"/>
+    <hyperlink ref="D648" r:id="rId874" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000069030000}"/>
+    <hyperlink ref="C648" r:id="rId875" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006A030000}"/>
+    <hyperlink ref="F198" r:id="rId876" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191412&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006B030000}"/>
+    <hyperlink ref="E198" r:id="rId877" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191411&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006C030000}"/>
+    <hyperlink ref="D198" r:id="rId878" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=191410&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006D030000}"/>
+    <hyperlink ref="C198" r:id="rId879" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006E030000}"/>
+    <hyperlink ref="F645" r:id="rId880" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=712&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006F030000}"/>
+    <hyperlink ref="E645" r:id="rId881" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135625&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000070030000}"/>
+    <hyperlink ref="D645" r:id="rId882" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000071030000}"/>
+    <hyperlink ref="C645" r:id="rId883" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000072030000}"/>
+    <hyperlink ref="F644" r:id="rId884" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706371&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000073030000}"/>
+    <hyperlink ref="E644" r:id="rId885" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1706369&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000074030000}"/>
+    <hyperlink ref="D644" r:id="rId886" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000075030000}"/>
+    <hyperlink ref="C644" r:id="rId887" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000076030000}"/>
+    <hyperlink ref="F45" r:id="rId888" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85017&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000077030000}"/>
+    <hyperlink ref="E45" r:id="rId889" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000078030000}"/>
+    <hyperlink ref="C45:D45" r:id="rId890" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000079030000}"/>
+    <hyperlink ref="F44" r:id="rId891" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85016&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007A030000}"/>
+    <hyperlink ref="E44" r:id="rId892" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007B030000}"/>
+    <hyperlink ref="C44:D44" r:id="rId893" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007C030000}"/>
+    <hyperlink ref="F196" r:id="rId894" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1501348&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007D030000}"/>
+    <hyperlink ref="E196" r:id="rId895" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007E030000}"/>
+    <hyperlink ref="D196" r:id="rId896" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007F030000}"/>
+    <hyperlink ref="C196" r:id="rId897" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000080030000}"/>
+    <hyperlink ref="F195" r:id="rId898" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1501348&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000081030000}"/>
+    <hyperlink ref="E195" r:id="rId899" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768507&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000082030000}"/>
+    <hyperlink ref="D195" r:id="rId900" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=768503&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000083030000}"/>
+    <hyperlink ref="C195" r:id="rId901" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000084030000}"/>
+    <hyperlink ref="F306" r:id="rId902" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000085030000}"/>
+    <hyperlink ref="E306" r:id="rId903" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000086030000}"/>
+    <hyperlink ref="D306" r:id="rId904" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000087030000}"/>
+    <hyperlink ref="C306" r:id="rId905" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000088030000}"/>
+    <hyperlink ref="F235" r:id="rId906" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693073&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000089030000}"/>
+    <hyperlink ref="E235" r:id="rId907" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693072&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008A030000}"/>
+    <hyperlink ref="D235" r:id="rId908" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=693071&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008B030000}"/>
+    <hyperlink ref="C235" r:id="rId909" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=67814&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008C030000}"/>
+    <hyperlink ref="F301" r:id="rId910" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008D030000}"/>
+    <hyperlink ref="E301" r:id="rId911" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008E030000}"/>
+    <hyperlink ref="C301" r:id="rId912" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008F030000}"/>
+    <hyperlink ref="D301" r:id="rId913" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000090030000}"/>
+    <hyperlink ref="F631" r:id="rId914" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903409&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000091030000}"/>
+    <hyperlink ref="E631" r:id="rId915" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000092030000}"/>
+    <hyperlink ref="D631" r:id="rId916" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000093030000}"/>
+    <hyperlink ref="C631" r:id="rId917" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000094030000}"/>
+    <hyperlink ref="F297" r:id="rId918" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186820&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000095030000}"/>
+    <hyperlink ref="E297" r:id="rId919" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000096030000}"/>
+    <hyperlink ref="D297" r:id="rId920" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000097030000}"/>
+    <hyperlink ref="C297" r:id="rId921" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000098030000}"/>
+    <hyperlink ref="F630" r:id="rId922" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=76892&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000099030000}"/>
+    <hyperlink ref="E630" r:id="rId923" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204458&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009A030000}"/>
+    <hyperlink ref="D630" r:id="rId924" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0100-00009B030000}"/>
+    <hyperlink ref="C630" r:id="rId925" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0100-00009C030000}"/>
+    <hyperlink ref="D39" r:id="rId926" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009D030000}"/>
+    <hyperlink ref="C39" r:id="rId927" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009E030000}"/>
+    <hyperlink ref="E39" r:id="rId928" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009F030000}"/>
+    <hyperlink ref="F39" r:id="rId929" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85019&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A0030000}"/>
+    <hyperlink ref="F296" r:id="rId930" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A1030000}"/>
+    <hyperlink ref="E296" r:id="rId931" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A2030000}"/>
+    <hyperlink ref="D296" r:id="rId932" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A3030000}"/>
+    <hyperlink ref="C296" r:id="rId933" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A4030000}"/>
+    <hyperlink ref="D37" r:id="rId934" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A5030000}"/>
+    <hyperlink ref="C37" r:id="rId935" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A6030000}"/>
+    <hyperlink ref="F37" r:id="rId936" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85020&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A7030000}"/>
+    <hyperlink ref="E37" r:id="rId937" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A8030000}"/>
+    <hyperlink ref="D35" r:id="rId938" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A9030000}"/>
+    <hyperlink ref="F35" r:id="rId939" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31953&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AA030000}"/>
+    <hyperlink ref="E35" r:id="rId940" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85004&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AB030000}"/>
+    <hyperlink ref="C35" r:id="rId941" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AC030000}"/>
+    <hyperlink ref="F193" r:id="rId942" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=815&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AD030000}"/>
+    <hyperlink ref="E193" r:id="rId943" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=171549&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AE030000}"/>
+    <hyperlink ref="D193" r:id="rId944" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=200643&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AF030000}"/>
+    <hyperlink ref="C193" r:id="rId945" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B0030000}"/>
+    <hyperlink ref="F612" r:id="rId946" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=335928&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B1030000}"/>
+    <hyperlink ref="E612" r:id="rId947" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B2030000}"/>
+    <hyperlink ref="D612" r:id="rId948" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000B3030000}"/>
+    <hyperlink ref="C612" r:id="rId949" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000B4030000}"/>
+    <hyperlink ref="D611" r:id="rId950" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B5030000}"/>
+    <hyperlink ref="F611" r:id="rId951" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135621&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B6030000}"/>
+    <hyperlink ref="E611" r:id="rId952" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72274&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B7030000}"/>
+    <hyperlink ref="C611" r:id="rId953" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B8030000}"/>
+    <hyperlink ref="E609" r:id="rId954" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=356&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B9030000}"/>
+    <hyperlink ref="D609" r:id="rId955" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BA030000}"/>
+    <hyperlink ref="C609" r:id="rId956" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BB030000}"/>
+    <hyperlink ref="F609" r:id="rId957" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=255475&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BC030000}"/>
+    <hyperlink ref="F30" r:id="rId958" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643824&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BD030000}"/>
+    <hyperlink ref="E30" r:id="rId959" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84999&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BE030000}"/>
+    <hyperlink ref="C30" r:id="rId960" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BF030000}"/>
+    <hyperlink ref="D30" r:id="rId961" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=84998&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C0030000}"/>
+    <hyperlink ref="F28" r:id="rId962" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C1030000}"/>
+    <hyperlink ref="D28" r:id="rId963" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C2030000}"/>
+    <hyperlink ref="E28" r:id="rId964" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C3030000}"/>
+    <hyperlink ref="C28" r:id="rId965" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C4030000}"/>
+    <hyperlink ref="D29" r:id="rId966" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C5030000}"/>
+    <hyperlink ref="F29" r:id="rId967" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1268&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C6030000}"/>
+    <hyperlink ref="E29" r:id="rId968" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C7030000}"/>
+    <hyperlink ref="C29" r:id="rId969" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C8030000}"/>
+    <hyperlink ref="C27:D27" r:id="rId970" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C9030000}"/>
+    <hyperlink ref="F27" r:id="rId971" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2049&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CA030000}"/>
+    <hyperlink ref="E27" r:id="rId972" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2037&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CB030000}"/>
+    <hyperlink ref="F285" r:id="rId973" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CC030000}"/>
+    <hyperlink ref="E285" r:id="rId974" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CD030000}"/>
+    <hyperlink ref="D285" r:id="rId975" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CE030000}"/>
+    <hyperlink ref="F287" r:id="rId976" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CF030000}"/>
+    <hyperlink ref="E287" r:id="rId977" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D0030000}"/>
+    <hyperlink ref="D287" r:id="rId978" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D1030000}"/>
+    <hyperlink ref="F288" r:id="rId979" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D2030000}"/>
+    <hyperlink ref="E288" r:id="rId980" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D3030000}"/>
+    <hyperlink ref="D288" r:id="rId981" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D4030000}"/>
+    <hyperlink ref="F282" r:id="rId982" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186806&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D5030000}"/>
+    <hyperlink ref="E282" r:id="rId983" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D6030000}"/>
+    <hyperlink ref="D282" r:id="rId984" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D7030000}"/>
+    <hyperlink ref="F281" r:id="rId985" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1570339&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D8030000}"/>
+    <hyperlink ref="E281" r:id="rId986" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737405&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D9030000}"/>
+    <hyperlink ref="D281" r:id="rId987" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1737404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DA030000}"/>
+    <hyperlink ref="F596" r:id="rId988" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=83763&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DB030000}"/>
+    <hyperlink ref="E596" r:id="rId989" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135624&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DC030000}"/>
+    <hyperlink ref="D596" r:id="rId990" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000DD030000}"/>
+    <hyperlink ref="F279" r:id="rId991" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DE030000}"/>
+    <hyperlink ref="E279" r:id="rId992" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DF030000}"/>
+    <hyperlink ref="D279" r:id="rId993" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E0030000}"/>
+    <hyperlink ref="C279" r:id="rId994" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E1030000}"/>
+    <hyperlink ref="C23" r:id="rId995" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E2030000}"/>
+    <hyperlink ref="D23" r:id="rId996" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E3030000}"/>
+    <hyperlink ref="E23" r:id="rId997" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85010&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E4030000}"/>
+    <hyperlink ref="F595" r:id="rId998" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135620&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E5030000}"/>
+    <hyperlink ref="E595" r:id="rId999" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135619&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E6030000}"/>
+    <hyperlink ref="D595" r:id="rId1000" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E7030000}"/>
+    <hyperlink ref="C595" r:id="rId1001" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E8030000}"/>
+    <hyperlink ref="F594" r:id="rId1002" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E9030000}"/>
+    <hyperlink ref="E594" r:id="rId1003" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EA030000}"/>
+    <hyperlink ref="D594" r:id="rId1004" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EB030000}"/>
+    <hyperlink ref="C594" r:id="rId1005" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EC030000}"/>
+    <hyperlink ref="F271" r:id="rId1006" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000ED030000}"/>
+    <hyperlink ref="E271" r:id="rId1007" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EE030000}"/>
+    <hyperlink ref="D271" r:id="rId1008" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EF030000}"/>
+    <hyperlink ref="F267" r:id="rId1009" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F0030000}"/>
+    <hyperlink ref="E267" r:id="rId1010" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F1030000}"/>
+    <hyperlink ref="D267" r:id="rId1011" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F2030000}"/>
+    <hyperlink ref="F269" r:id="rId1012" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186828&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F3030000}"/>
+    <hyperlink ref="E269" r:id="rId1013" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F4030000}"/>
+    <hyperlink ref="D269" r:id="rId1014" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F5030000}"/>
+    <hyperlink ref="F590" r:id="rId1015" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F6030000}"/>
+    <hyperlink ref="E590" r:id="rId1016" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F7030000}"/>
+    <hyperlink ref="D590" r:id="rId1017" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F8030000}"/>
+    <hyperlink ref="C590" r:id="rId1018" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F9030000}"/>
+    <hyperlink ref="F19" r:id="rId1019" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FA030000}"/>
+    <hyperlink ref="E19" r:id="rId1020" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FB030000}"/>
+    <hyperlink ref="C19:D19" r:id="rId1021" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FC030000}"/>
+    <hyperlink ref="F18" r:id="rId1022" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FD030000}"/>
+    <hyperlink ref="E18" r:id="rId1023" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FE030000}"/>
+    <hyperlink ref="D18" r:id="rId1024" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FF030000}"/>
+    <hyperlink ref="C18" r:id="rId1025" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000000040000}"/>
+    <hyperlink ref="C16:D16" r:id="rId1026" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000001040000}"/>
+    <hyperlink ref="F16" r:id="rId1027" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85015&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000002040000}"/>
+    <hyperlink ref="E16" r:id="rId1028" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85009&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000003040000}"/>
+    <hyperlink ref="F265" r:id="rId1029" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000004040000}"/>
+    <hyperlink ref="E265" r:id="rId1030" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000005040000}"/>
+    <hyperlink ref="D265" r:id="rId1031" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000006040000}"/>
+    <hyperlink ref="F14" r:id="rId1032" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85016&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000007040000}"/>
+    <hyperlink ref="E14" r:id="rId1033" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85006&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000008040000}"/>
+    <hyperlink ref="D264" r:id="rId1034" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909932&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000009040000}"/>
+    <hyperlink ref="F264" r:id="rId1035" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=909930&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000A040000}"/>
+    <hyperlink ref="E264" r:id="rId1036" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843488&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00000B040000}"/>
+    <hyperlink ref="F570" r:id="rId1037" tooltip="Alcaligenaceae" display="https://en.wikipedia.org/wiki/Alcaligenaceae" xr:uid="{00000000-0004-0000-0100-00000C040000}"/>
+    <hyperlink ref="E570" r:id="rId1038" tooltip="Burkholderiales" display="https://en.wikipedia.org/wiki/Burkholderiales" xr:uid="{00000000-0004-0000-0100-00000D040000}"/>
+    <hyperlink ref="D570" r:id="rId1039" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0100-00000E040000}"/>
+    <hyperlink ref="F262" r:id="rId1040" tooltip="Acholeplasmataceae" display="https://en.wikipedia.org/wiki/Acholeplasmataceae" xr:uid="{00000000-0004-0000-0100-00000F040000}"/>
+    <hyperlink ref="E262" r:id="rId1041" display="https://en.wikipedia.org/wiki/Acholeplasmataceae" xr:uid="{00000000-0004-0000-0100-000010040000}"/>
+    <hyperlink ref="D262" r:id="rId1042" tooltip="Mollicutes" display="https://en.wikipedia.org/wiki/Mollicutes" xr:uid="{00000000-0004-0000-0100-000011040000}"/>
+    <hyperlink ref="F257" r:id="rId1043" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000012040000}"/>
+    <hyperlink ref="E257" r:id="rId1044" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000013040000}"/>
+    <hyperlink ref="D257" r:id="rId1045" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000014040000}"/>
+    <hyperlink ref="C257" r:id="rId1046" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000015040000}"/>
+    <hyperlink ref="F573" r:id="rId1047" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=80864&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000016040000}"/>
+    <hyperlink ref="C3" r:id="rId1048" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000017040000}"/>
+    <hyperlink ref="C7" r:id="rId1049" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000018040000}"/>
+    <hyperlink ref="C5" r:id="rId1050" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000019040000}"/>
+    <hyperlink ref="C8" r:id="rId1051" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001A040000}"/>
+    <hyperlink ref="C9" r:id="rId1052" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001B040000}"/>
+    <hyperlink ref="C10" r:id="rId1053" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001C040000}"/>
+    <hyperlink ref="C4" r:id="rId1054" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001D040000}"/>
+    <hyperlink ref="C6" r:id="rId1055" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001E040000}"/>
+    <hyperlink ref="C11" r:id="rId1056" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00001F040000}"/>
+    <hyperlink ref="C12" r:id="rId1057" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000020040000}"/>
+    <hyperlink ref="C13" r:id="rId1058" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000021040000}"/>
+    <hyperlink ref="C14" r:id="rId1059" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000022040000}"/>
+    <hyperlink ref="F13" r:id="rId1060" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85015&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000023040000}"/>
+    <hyperlink ref="C15" r:id="rId1061" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000024040000}"/>
+    <hyperlink ref="E587" r:id="rId1062" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000025040000}"/>
+    <hyperlink ref="D587" r:id="rId1063" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000026040000}"/>
+    <hyperlink ref="C587" r:id="rId1064" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000027040000}"/>
+    <hyperlink ref="F587" r:id="rId1065" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=267893&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000028040000}"/>
+    <hyperlink ref="E588" r:id="rId1066" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135622&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000029040000}"/>
+    <hyperlink ref="D588" r:id="rId1067" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002A040000}"/>
+    <hyperlink ref="C588" r:id="rId1068" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002B040000}"/>
+    <hyperlink ref="F588" r:id="rId1069" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002C040000}"/>
+    <hyperlink ref="D589" r:id="rId1070" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002D040000}"/>
+    <hyperlink ref="C589" r:id="rId1071" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002E040000}"/>
+    <hyperlink ref="D275" r:id="rId1072" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00002F040000}"/>
+    <hyperlink ref="E277" r:id="rId1073" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000030040000}"/>
+    <hyperlink ref="D277" r:id="rId1074" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000031040000}"/>
+    <hyperlink ref="F277" r:id="rId1075" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000032040000}"/>
+    <hyperlink ref="E280" r:id="rId1076" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000033040000}"/>
+    <hyperlink ref="D280" r:id="rId1077" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000034040000}"/>
+    <hyperlink ref="F286" r:id="rId1078" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543314&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000035040000}"/>
+    <hyperlink ref="E286" r:id="rId1079" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000036040000}"/>
+    <hyperlink ref="D286" r:id="rId1080" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000037040000}"/>
+    <hyperlink ref="D598" r:id="rId1081" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000038040000}"/>
+    <hyperlink ref="C598" r:id="rId1082" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000039040000}"/>
+    <hyperlink ref="F599" r:id="rId1083" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1499392&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003A040000}"/>
+    <hyperlink ref="C599" r:id="rId1084" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003B040000}"/>
+    <hyperlink ref="C600" r:id="rId1085" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003C040000}"/>
+    <hyperlink ref="F600" r:id="rId1086" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=39&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003D040000}"/>
+    <hyperlink ref="C25" r:id="rId1087" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003E040000}"/>
+    <hyperlink ref="D25" r:id="rId1088" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00003F040000}"/>
+    <hyperlink ref="F604" r:id="rId1089" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72276&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000040040000}"/>
+    <hyperlink ref="D613" r:id="rId1090" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000041040000}"/>
+    <hyperlink ref="C613" r:id="rId1091" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000042040000}"/>
+    <hyperlink ref="F613" r:id="rId1092" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000043040000}"/>
+    <hyperlink ref="D616" r:id="rId1093" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0100-000044040000}"/>
+    <hyperlink ref="D618" r:id="rId1094" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0100-000045040000}"/>
+    <hyperlink ref="F618" r:id="rId1095" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=45404&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000046040000}"/>
+    <hyperlink ref="F623" r:id="rId1096" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=506&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000047040000}"/>
+    <hyperlink ref="F625" r:id="rId1097" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=72275&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000048040000}"/>
+    <hyperlink ref="F628" r:id="rId1098" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41294&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000049040000}"/>
+    <hyperlink ref="D628" r:id="rId1099" display="https://en.wikipedia.org/wiki/Beta_Proteobacteria" xr:uid="{00000000-0004-0000-0100-00004A040000}"/>
+    <hyperlink ref="C628" r:id="rId1100" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0100-00004B040000}"/>
+    <hyperlink ref="E632" r:id="rId1101" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004C040000}"/>
+    <hyperlink ref="D632" r:id="rId1102" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=135613&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004D040000}"/>
+    <hyperlink ref="C632" r:id="rId1103" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004E040000}"/>
+    <hyperlink ref="F632" r:id="rId1104" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903416&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00004F040000}"/>
+    <hyperlink ref="F633" r:id="rId1105" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000050040000}"/>
+    <hyperlink ref="C302" r:id="rId1106" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000051040000}"/>
+    <hyperlink ref="D302" r:id="rId1107" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000052040000}"/>
+    <hyperlink ref="F302" r:id="rId1108" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000053040000}"/>
+    <hyperlink ref="E302" r:id="rId1109" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000054040000}"/>
+    <hyperlink ref="E303" r:id="rId1110" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000055040000}"/>
+    <hyperlink ref="F304" r:id="rId1111" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543371&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000056040000}"/>
+    <hyperlink ref="C304" r:id="rId1112" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000057040000}"/>
+    <hyperlink ref="D304" r:id="rId1113" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000058040000}"/>
+    <hyperlink ref="E304" r:id="rId1114" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000059040000}"/>
+    <hyperlink ref="E307" r:id="rId1115" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005A040000}"/>
+    <hyperlink ref="F307" r:id="rId1116" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005B040000}"/>
+    <hyperlink ref="D307" r:id="rId1117" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005C040000}"/>
+    <hyperlink ref="C307" r:id="rId1118" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005D040000}"/>
+    <hyperlink ref="F309" r:id="rId1119" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543347&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005E040000}"/>
+    <hyperlink ref="E309" r:id="rId1120" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00005F040000}"/>
+    <hyperlink ref="C309" r:id="rId1121" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000060040000}"/>
+    <hyperlink ref="D309" r:id="rId1122" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000061040000}"/>
+    <hyperlink ref="C310" r:id="rId1123" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000062040000}"/>
+    <hyperlink ref="D310" r:id="rId1124" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000063040000}"/>
+    <hyperlink ref="F647" r:id="rId1125" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119060&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000064040000}"/>
+    <hyperlink ref="E314" r:id="rId1126" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000065040000}"/>
+    <hyperlink ref="F651" r:id="rId1127" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=267889&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000066040000}"/>
+    <hyperlink ref="F272:F273" r:id="rId1128" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000067040000}"/>
+    <hyperlink ref="E272:E273" r:id="rId1129" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000068040000}"/>
+    <hyperlink ref="D272:D273" r:id="rId1130" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000069040000}"/>
+    <hyperlink ref="F677" r:id="rId1131" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224380&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006A040000}"/>
+    <hyperlink ref="E677" r:id="rId1132" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006B040000}"/>
+    <hyperlink ref="D677" r:id="rId1133" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006C040000}"/>
+    <hyperlink ref="C682" r:id="rId1134" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006D040000}"/>
+    <hyperlink ref="F682" r:id="rId1135" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213117&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006E040000}"/>
+    <hyperlink ref="E682" r:id="rId1136" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=213115&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00006F040000}"/>
+    <hyperlink ref="D682" r:id="rId1137" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000070040000}"/>
+    <hyperlink ref="C684" r:id="rId1138" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000071040000}"/>
+    <hyperlink ref="D684" r:id="rId1139" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28221&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000072040000}"/>
+    <hyperlink ref="C692" r:id="rId1140" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000073040000}"/>
+    <hyperlink ref="C695" r:id="rId1141" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000074040000}"/>
+    <hyperlink ref="D695" r:id="rId1142" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000075040000}"/>
+    <hyperlink ref="F695" r:id="rId1143" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2066474&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000076040000}"/>
+    <hyperlink ref="E694" r:id="rId1144" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000077040000}"/>
+    <hyperlink ref="D694" r:id="rId1145" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000078040000}"/>
+    <hyperlink ref="C700" r:id="rId1146" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000079040000}"/>
+    <hyperlink ref="C209" r:id="rId1147" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=976&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007A040000}"/>
+    <hyperlink ref="F209" r:id="rId1148" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=89373&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007B040000}"/>
+    <hyperlink ref="F210" r:id="rId1149" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=2762284&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007C040000}"/>
+    <hyperlink ref="F709" r:id="rId1150" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=34064&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007D040000}"/>
+    <hyperlink ref="F713" r:id="rId1151" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=90627&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007E040000}"/>
+    <hyperlink ref="F719" r:id="rId1152" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00007F040000}"/>
+    <hyperlink ref="F722" r:id="rId1153" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000080040000}"/>
+    <hyperlink ref="E722" r:id="rId1154" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000081040000}"/>
+    <hyperlink ref="D722" r:id="rId1155" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000082040000}"/>
+    <hyperlink ref="C722" r:id="rId1156" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000083040000}"/>
+    <hyperlink ref="F69" r:id="rId1157" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85034&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000084040000}"/>
+    <hyperlink ref="D69" r:id="rId1158" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000085040000}"/>
+    <hyperlink ref="C69" r:id="rId1159" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000086040000}"/>
+    <hyperlink ref="D723" r:id="rId1160" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28211&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000087040000}"/>
+    <hyperlink ref="F73" r:id="rId1161" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000088040000}"/>
+    <hyperlink ref="F727" r:id="rId1162" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1903412&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000089040000}"/>
+    <hyperlink ref="F380" r:id="rId1163" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=53434&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008A040000}"/>
+    <hyperlink ref="C736" r:id="rId1164" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0100-00008B040000}"/>
+    <hyperlink ref="E387" r:id="rId1165" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008C040000}"/>
+    <hyperlink ref="D387" r:id="rId1166" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008D040000}"/>
+    <hyperlink ref="C387" r:id="rId1167" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-00008E040000}"/>
+    <hyperlink ref="F737" r:id="rId1168" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69657&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00008F040000}"/>
+    <hyperlink ref="F742" r:id="rId1169" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=292630&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000090040000}"/>
+    <hyperlink ref="F745" r:id="rId1170" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000091040000}"/>
+    <hyperlink ref="F394" r:id="rId1171" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000092040000}"/>
+    <hyperlink ref="F86" r:id="rId1172" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85022&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000093040000}"/>
+    <hyperlink ref="F92" r:id="rId1173" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000094040000}"/>
+    <hyperlink ref="F754" r:id="rId1174" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000095040000}"/>
+    <hyperlink ref="D757" r:id="rId1175" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000096040000}"/>
+    <hyperlink ref="C757" r:id="rId1176" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000097040000}"/>
+    <hyperlink ref="C757:D757" r:id="rId1177" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;p=mapview&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000098040000}"/>
+    <hyperlink ref="F398" r:id="rId1178" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186823&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000099040000}"/>
+    <hyperlink ref="C236" r:id="rId1179" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=74015&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009A040000}"/>
+    <hyperlink ref="F98" r:id="rId1180" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009B040000}"/>
+    <hyperlink ref="F781" r:id="rId1181" tooltip="Oceanospirillaceae" xr:uid="{00000000-0004-0000-0100-00009C040000}"/>
+    <hyperlink ref="F788" r:id="rId1182" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=119045&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-00009D040000}"/>
+    <hyperlink ref="E788" r:id="rId1183" tooltip="order" xr:uid="{00000000-0004-0000-0100-00009E040000}"/>
+    <hyperlink ref="D788" r:id="rId1184" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-00009F040000}"/>
+    <hyperlink ref="C788" r:id="rId1185" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000A0040000}"/>
+    <hyperlink ref="F776" r:id="rId1186" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=69657&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A1040000}"/>
+    <hyperlink ref="D776" r:id="rId1187" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000A2040000}"/>
+    <hyperlink ref="C776" r:id="rId1188" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000A3040000}"/>
+    <hyperlink ref="D777" r:id="rId1189" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000A4040000}"/>
+    <hyperlink ref="C777" r:id="rId1190" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000A5040000}"/>
+    <hyperlink ref="F414" r:id="rId1191" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A6040000}"/>
+    <hyperlink ref="E414" r:id="rId1192" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1385&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A7040000}"/>
+    <hyperlink ref="D414" r:id="rId1193" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A8040000}"/>
+    <hyperlink ref="C414" r:id="rId1194" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000A9040000}"/>
+    <hyperlink ref="F104" r:id="rId1195" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1042322&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AA040000}"/>
+    <hyperlink ref="D770" r:id="rId1196" tooltip="class" display=" Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000AB040000}"/>
+    <hyperlink ref="C770" r:id="rId1197" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000AC040000}"/>
+    <hyperlink ref="F407" r:id="rId1198" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186820&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000AD040000}"/>
+    <hyperlink ref="E798" r:id="rId1199" tooltip="order" display=" Geodermatophilales" xr:uid="{00000000-0004-0000-0100-0000AE040000}"/>
+    <hyperlink ref="F116" r:id="rId1200" tooltip="family" display=" Geodermatophilaceae" xr:uid="{00000000-0004-0000-0100-0000AF040000}"/>
+    <hyperlink ref="F800" r:id="rId1201" tooltip="family" display=" Moraxellaceae" xr:uid="{00000000-0004-0000-0100-0000B0040000}"/>
+    <hyperlink ref="E115" r:id="rId1202" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1643682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B1040000}"/>
+    <hyperlink ref="D794" r:id="rId1203" tooltip="Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000B2040000}"/>
+    <hyperlink ref="C794" r:id="rId1204" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000B3040000}"/>
+    <hyperlink ref="F802" r:id="rId1205" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=224463&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B4040000}"/>
+    <hyperlink ref="E802" r:id="rId1206" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=29&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B5040000}"/>
+    <hyperlink ref="F804" r:id="rId1207" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=433&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000B6040000}"/>
+    <hyperlink ref="F805" r:id="rId1208" tooltip="family" xr:uid="{00000000-0004-0000-0100-0000B7040000}"/>
+    <hyperlink ref="E805" r:id="rId1209" tooltip="order" xr:uid="{00000000-0004-0000-0100-0000B8040000}"/>
+    <hyperlink ref="D805" r:id="rId1210" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000B9040000}"/>
+    <hyperlink ref="C805" r:id="rId1211" tooltip="phylum" display=" Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000BA040000}"/>
+    <hyperlink ref="F815" r:id="rId1212" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BB040000}"/>
+    <hyperlink ref="F818" r:id="rId1213" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=41295&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BC040000}"/>
+    <hyperlink ref="F433" r:id="rId1214" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=216572&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000BD040000}"/>
+    <hyperlink ref="D839" r:id="rId1215" tooltip="Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000BE040000}"/>
+    <hyperlink ref="C839" r:id="rId1216" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000BF040000}"/>
+    <hyperlink ref="F435" r:id="rId1217" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186817&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C0040000}"/>
+    <hyperlink ref="F128" r:id="rId1218" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=361606&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C1040000}"/>
+    <hyperlink ref="D842" r:id="rId1219" tooltip="Alphaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000C2040000}"/>
+    <hyperlink ref="C842" r:id="rId1220" tooltip="Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000C3040000}"/>
+    <hyperlink ref="F243" r:id="rId1221" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=292628&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C4040000}"/>
+    <hyperlink ref="F438" r:id="rId1222" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1843490&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C5040000}"/>
+    <hyperlink ref="F439" r:id="rId1223" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68298&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C6040000}"/>
+    <hyperlink ref="F440" r:id="rId1224" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C7040000}"/>
+    <hyperlink ref="F441" r:id="rId1225" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186807&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C8040000}"/>
+    <hyperlink ref="F443" r:id="rId1226" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000C9040000}"/>
+    <hyperlink ref="E443" r:id="rId1227" tooltip="Clostridiales" xr:uid="{00000000-0004-0000-0100-0000CA040000}"/>
+    <hyperlink ref="D443" r:id="rId1228" tooltip="Clostridia" xr:uid="{00000000-0004-0000-0100-0000CB040000}"/>
+    <hyperlink ref="C443" r:id="rId1229" xr:uid="{00000000-0004-0000-0100-0000CC040000}"/>
+    <hyperlink ref="D853" r:id="rId1230" tooltip="class" display=" Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000CD040000}"/>
+    <hyperlink ref="C853" r:id="rId1231" tooltip="phylum" xr:uid="{00000000-0004-0000-0100-0000CE040000}"/>
+    <hyperlink ref="F444" r:id="rId1232" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=81852&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000CF040000}"/>
+    <hyperlink ref="F129" r:id="rId1233" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D0040000}"/>
+    <hyperlink ref="F130" r:id="rId1234" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85018&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D1040000}"/>
+    <hyperlink ref="F446" r:id="rId1235" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D2040000}"/>
+    <hyperlink ref="F447" r:id="rId1236" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D3040000}"/>
+    <hyperlink ref="E859" r:id="rId1237" tooltip="order" display=" Enterobacterales" xr:uid="{00000000-0004-0000-0100-0000D4040000}"/>
+    <hyperlink ref="F869" r:id="rId1238" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=543&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D5040000}"/>
+    <hyperlink ref="D870" r:id="rId1239" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000D6040000}"/>
+    <hyperlink ref="C870" r:id="rId1240" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000D7040000}"/>
+    <hyperlink ref="F873" r:id="rId1241" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D8040000}"/>
+    <hyperlink ref="E873" r:id="rId1242" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000D9040000}"/>
+    <hyperlink ref="E883" r:id="rId1243" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DA040000}"/>
+    <hyperlink ref="F146" r:id="rId1244" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85023&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DB040000}"/>
+    <hyperlink ref="D146" r:id="rId1245" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1760&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DC040000}"/>
+    <hyperlink ref="C146" r:id="rId1246" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=201174&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DD040000}"/>
+    <hyperlink ref="E892" r:id="rId1247" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204441&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DE040000}"/>
+    <hyperlink ref="F895" r:id="rId1248" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31989&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000DF040000}"/>
+    <hyperlink ref="E895" r:id="rId1249" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=204455&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E0040000}"/>
+    <hyperlink ref="F151" r:id="rId1250" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E1040000}"/>
+    <hyperlink ref="F461" r:id="rId1251" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186818&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E2040000}"/>
+    <hyperlink ref="F156" r:id="rId1252" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=28056&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E3040000}"/>
+    <hyperlink ref="D230" r:id="rId1253" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1937959&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E4040000}"/>
+    <hyperlink ref="D166" r:id="rId1254" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0100-0000E5040000}"/>
+    <hyperlink ref="C166" r:id="rId1255" display="https://en.wikipedia.org/wiki/Actinobacteria" xr:uid="{00000000-0004-0000-0100-0000E6040000}"/>
+    <hyperlink ref="F936" r:id="rId1256" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=75682&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E7040000}"/>
+    <hyperlink ref="F169" r:id="rId1257" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=85021&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E8040000}"/>
+    <hyperlink ref="F498" r:id="rId1258" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186804&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000E9040000}"/>
+    <hyperlink ref="E498" r:id="rId1259" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186802&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EA040000}"/>
+    <hyperlink ref="D498" r:id="rId1260" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EB040000}"/>
+    <hyperlink ref="C498" r:id="rId1261" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EC040000}"/>
+    <hyperlink ref="F502" r:id="rId1262" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=539000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000ED040000}"/>
+    <hyperlink ref="D502" r:id="rId1263" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EE040000}"/>
+    <hyperlink ref="C502" r:id="rId1264" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000EF040000}"/>
+    <hyperlink ref="D503" r:id="rId1265" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186801&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F0040000}"/>
+    <hyperlink ref="C503" r:id="rId1266" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F1040000}"/>
+    <hyperlink ref="F505" r:id="rId1267" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186824&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F2040000}"/>
+    <hyperlink ref="F507" r:id="rId1268" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186822&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F3040000}"/>
+    <hyperlink ref="E2" r:id="rId1269" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=68295&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F4040000}"/>
+    <hyperlink ref="F2" r:id="rId1270" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186814&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F5040000}"/>
+    <hyperlink ref="D967" r:id="rId1271" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F6040000}"/>
+    <hyperlink ref="C972" r:id="rId1272" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F7040000}"/>
+    <hyperlink ref="E975" r:id="rId1273" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=206351&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000F8040000}"/>
+    <hyperlink ref="D976" r:id="rId1274" tooltip="Gammaproteobacteria" display="https://en.wikipedia.org/wiki/Gammaproteobacteria" xr:uid="{00000000-0004-0000-0100-0000F9040000}"/>
+    <hyperlink ref="C976" r:id="rId1275" tooltip="Proteobacteria" display="https://en.wikipedia.org/wiki/Proteobacteria" xr:uid="{00000000-0004-0000-0100-0000FA040000}"/>
+    <hyperlink ref="F523" r:id="rId1276" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=31979&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FB040000}"/>
+    <hyperlink ref="D691" r:id="rId1277" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1236&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FC040000}"/>
+    <hyperlink ref="C691" r:id="rId1278" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1224&amp;lvl=3&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FD040000}"/>
+    <hyperlink ref="E345" r:id="rId1279" tooltip="order" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186826&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FE040000}"/>
+    <hyperlink ref="D345" r:id="rId1280" tooltip="class" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=91061&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-0000FF040000}"/>
+    <hyperlink ref="C345" r:id="rId1281" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000000050000}"/>
+    <hyperlink ref="F345" r:id="rId1282" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=186827&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000001050000}"/>
+    <hyperlink ref="F352" r:id="rId1283" tooltip="family" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=541000&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000002050000}"/>
+    <hyperlink ref="C3:C7" r:id="rId1284" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000003050000}"/>
+    <hyperlink ref="C264" r:id="rId1285" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000004050000}"/>
+    <hyperlink ref="C263" r:id="rId1286" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000005050000}"/>
+    <hyperlink ref="C265" r:id="rId1287" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000006050000}"/>
+    <hyperlink ref="C266" r:id="rId1288" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000007050000}"/>
+    <hyperlink ref="C267" r:id="rId1289" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000008050000}"/>
+    <hyperlink ref="C53:C55" r:id="rId1290" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000009050000}"/>
+    <hyperlink ref="C271" r:id="rId1291" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-00000A050000}"/>
+    <hyperlink ref="C272" r:id="rId1292" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-00000B050000}"/>
+    <hyperlink ref="C273" r:id="rId1293" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-00000C050000}"/>
+    <hyperlink ref="C274" r:id="rId1294" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-00000D050000}"/>
+    <hyperlink ref="C275" r:id="rId1295" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-00000E050000}"/>
+    <hyperlink ref="C69:C71" r:id="rId1296" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-00000F050000}"/>
+    <hyperlink ref="C280" r:id="rId1297" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000010050000}"/>
+    <hyperlink ref="C79:C80" r:id="rId1298" tooltip="phylum" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=1239&amp;lvl=3&amp;p=has_linkout&amp;p=blast_url&amp;p=genome_blast&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock" xr:uid="{00000000-0004-0000-0100-000011050000}"/>
+    <hyperlink ref="C283" r:id="rId1299" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000012050000}"/>
+    <hyperlink ref="C83:C85" r:id="rId1300" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000013050000}"/>
+    <hyperlink ref="C287" r:id="rId1301" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000014050000}"/>
+    <hyperlink ref="C288" r:id="rId1302" display="https://en.wikipedia.org/wiki/Firmicutes" xr:uid="{00000000-0004-0000-0100-000015050000}"/>
+    <hyperlink ref="C597:C598" r:id="rId1303" tooltip="phylum" display="Proteobacteria" xr:uid="{00000000-0004-0000-0100-000016050000}"/>
+    <hyperlink ref="C585:C586" r:id="rId1304" tooltip="phylum" display="Actinobacteria" xr:uid="{00000000-0004-0000-0100-000017050000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
